--- a/docs/詳細設計書/詳細設計書_分類情報画面_MVC③.xlsx
+++ b/docs/詳細設計書/詳細設計書_分類情報画面_MVC③.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10916"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Kijima/Desktop/CTC/設計/分類情報管理/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\digitalOJT\digital-ojt-development-cause-DroneInventorySystem\docs\詳細設計書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3EB7BEC-05BB-5047-B9A6-95FBC5B021BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0E342BA-5988-49A0-9738-20342772228E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="720" windowWidth="29400" windowHeight="18400" activeTab="1" xr2:uid="{94E1F5D5-5A75-8F40-A2A1-CC833EFCF558}"/>
+    <workbookView xWindow="-14640" yWindow="-16320" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{94E1F5D5-5A75-8F40-A2A1-CC833EFCF558}"/>
   </bookViews>
   <sheets>
     <sheet name="機能概要" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="105">
   <si>
     <t>システム名</t>
     <phoneticPr fontId="1"/>
@@ -366,34 +366,6 @@
     </rPh>
     <rPh sb="8" eb="10">
       <t>カンリ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>分類情報の一覧の確認および、分類情報の新規作成/更新/削除が行える。</t>
-    <rPh sb="0" eb="2">
-      <t>ブンルイ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>イチラn</t>
-    </rPh>
-    <rPh sb="14" eb="18">
-      <t>ブンルイ</t>
-    </rPh>
-    <rPh sb="19" eb="23">
-      <t>シンキ</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>コウシn</t>
-    </rPh>
-    <rPh sb="27" eb="29">
-      <t>サクゼィオ</t>
-    </rPh>
-    <rPh sb="30" eb="31">
-      <t>オコナエ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -788,12 +760,51 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>分類情報の一覧の確認および、分類情報の検索(完全一致)が行える。</t>
+    <rPh sb="0" eb="2">
+      <t>ブンルイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>イチラn</t>
+    </rPh>
+    <rPh sb="14" eb="18">
+      <t>ブンルイ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="22" eb="26">
+      <t>カンゼンイッチ</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>オコナエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CTC道菅</t>
+    <rPh sb="3" eb="5">
+      <t>ドウカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>機能概要修正</t>
+    <rPh sb="0" eb="6">
+      <t>キノウガイヨウシュウセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1208,6 +1219,9 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1253,9 +1267,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1274,16 +1285,115 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1295,37 +1405,22 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1334,6 +1429,27 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1350,111 +1466,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1854,31 +1865,31 @@
   <dimension ref="A1:AO33"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection sqref="A1:N4"/>
+      <selection activeCell="AM8" sqref="AM8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="3.7109375" defaultRowHeight="20" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="3.7265625" defaultRowHeight="19.95" customHeight="1" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="16384" width="3.7109375" style="2"/>
+    <col min="1" max="16384" width="3.7265625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:41" ht="20" customHeight="1">
-      <c r="A1" s="53" t="s">
+    <row r="1" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A1" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="54"/>
-      <c r="G1" s="54"/>
-      <c r="H1" s="54"/>
-      <c r="I1" s="54"/>
-      <c r="J1" s="54"/>
-      <c r="K1" s="54"/>
-      <c r="L1" s="54"/>
-      <c r="M1" s="54"/>
-      <c r="N1" s="55"/>
+      <c r="B1" s="55"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="55"/>
+      <c r="G1" s="55"/>
+      <c r="H1" s="55"/>
+      <c r="I1" s="55"/>
+      <c r="J1" s="55"/>
+      <c r="K1" s="55"/>
+      <c r="L1" s="55"/>
+      <c r="M1" s="55"/>
+      <c r="N1" s="56"/>
       <c r="O1" s="46" t="s">
         <v>0</v>
       </c>
@@ -1886,16 +1897,16 @@
       <c r="Q1" s="46"/>
       <c r="R1" s="46"/>
       <c r="S1" s="46"/>
-      <c r="T1" s="48" t="s">
+      <c r="T1" s="49" t="s">
         <v>26</v>
       </c>
-      <c r="U1" s="49"/>
-      <c r="V1" s="49"/>
-      <c r="W1" s="49"/>
-      <c r="X1" s="49"/>
-      <c r="Y1" s="49"/>
-      <c r="Z1" s="49"/>
-      <c r="AA1" s="50"/>
+      <c r="U1" s="50"/>
+      <c r="V1" s="50"/>
+      <c r="W1" s="50"/>
+      <c r="X1" s="50"/>
+      <c r="Y1" s="50"/>
+      <c r="Z1" s="50"/>
+      <c r="AA1" s="51"/>
       <c r="AB1" s="46" t="s">
         <v>4</v>
       </c>
@@ -1912,28 +1923,28 @@
       </c>
       <c r="AJ1" s="46"/>
       <c r="AK1" s="46"/>
-      <c r="AL1" s="62">
+      <c r="AL1" s="47">
         <v>45566</v>
       </c>
-      <c r="AM1" s="47"/>
-      <c r="AN1" s="47"/>
-      <c r="AO1" s="47"/>
-    </row>
-    <row r="2" spans="1:41" ht="20" customHeight="1">
-      <c r="A2" s="56"/>
-      <c r="B2" s="57"/>
-      <c r="C2" s="57"/>
-      <c r="D2" s="57"/>
-      <c r="E2" s="57"/>
-      <c r="F2" s="57"/>
-      <c r="G2" s="57"/>
-      <c r="H2" s="57"/>
-      <c r="I2" s="57"/>
-      <c r="J2" s="57"/>
-      <c r="K2" s="57"/>
-      <c r="L2" s="57"/>
-      <c r="M2" s="57"/>
-      <c r="N2" s="58"/>
+      <c r="AM1" s="48"/>
+      <c r="AN1" s="48"/>
+      <c r="AO1" s="48"/>
+    </row>
+    <row r="2" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A2" s="57"/>
+      <c r="B2" s="58"/>
+      <c r="C2" s="58"/>
+      <c r="D2" s="58"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="58"/>
+      <c r="H2" s="58"/>
+      <c r="I2" s="58"/>
+      <c r="J2" s="58"/>
+      <c r="K2" s="58"/>
+      <c r="L2" s="58"/>
+      <c r="M2" s="58"/>
+      <c r="N2" s="59"/>
       <c r="O2" s="46" t="s">
         <v>1</v>
       </c>
@@ -1941,16 +1952,16 @@
       <c r="Q2" s="46"/>
       <c r="R2" s="46"/>
       <c r="S2" s="46"/>
-      <c r="T2" s="48" t="s">
+      <c r="T2" s="49" t="s">
         <v>30</v>
       </c>
-      <c r="U2" s="49"/>
-      <c r="V2" s="49"/>
-      <c r="W2" s="49"/>
-      <c r="X2" s="49"/>
-      <c r="Y2" s="49"/>
-      <c r="Z2" s="49"/>
-      <c r="AA2" s="50"/>
+      <c r="U2" s="50"/>
+      <c r="V2" s="50"/>
+      <c r="W2" s="50"/>
+      <c r="X2" s="50"/>
+      <c r="Y2" s="50"/>
+      <c r="Z2" s="50"/>
+      <c r="AA2" s="51"/>
       <c r="AB2" s="46"/>
       <c r="AC2" s="46"/>
       <c r="AD2" s="46"/>
@@ -1961,26 +1972,26 @@
       <c r="AI2" s="46"/>
       <c r="AJ2" s="46"/>
       <c r="AK2" s="46"/>
-      <c r="AL2" s="47"/>
-      <c r="AM2" s="47"/>
-      <c r="AN2" s="47"/>
-      <c r="AO2" s="47"/>
-    </row>
-    <row r="3" spans="1:41" ht="20" customHeight="1">
-      <c r="A3" s="56"/>
-      <c r="B3" s="57"/>
-      <c r="C3" s="57"/>
-      <c r="D3" s="57"/>
-      <c r="E3" s="57"/>
-      <c r="F3" s="57"/>
-      <c r="G3" s="57"/>
-      <c r="H3" s="57"/>
-      <c r="I3" s="57"/>
-      <c r="J3" s="57"/>
-      <c r="K3" s="57"/>
-      <c r="L3" s="57"/>
-      <c r="M3" s="57"/>
-      <c r="N3" s="58"/>
+      <c r="AL2" s="48"/>
+      <c r="AM2" s="48"/>
+      <c r="AN2" s="48"/>
+      <c r="AO2" s="48"/>
+    </row>
+    <row r="3" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A3" s="57"/>
+      <c r="B3" s="58"/>
+      <c r="C3" s="58"/>
+      <c r="D3" s="58"/>
+      <c r="E3" s="58"/>
+      <c r="F3" s="58"/>
+      <c r="G3" s="58"/>
+      <c r="H3" s="58"/>
+      <c r="I3" s="58"/>
+      <c r="J3" s="58"/>
+      <c r="K3" s="58"/>
+      <c r="L3" s="58"/>
+      <c r="M3" s="58"/>
+      <c r="N3" s="59"/>
       <c r="O3" s="46" t="s">
         <v>3</v>
       </c>
@@ -1989,7 +2000,7 @@
       <c r="R3" s="46"/>
       <c r="S3" s="46"/>
       <c r="T3" s="43" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="U3" s="43"/>
       <c r="V3" s="43"/>
@@ -2003,7 +2014,9 @@
       </c>
       <c r="AC3" s="46"/>
       <c r="AD3" s="46"/>
-      <c r="AE3" s="43"/>
+      <c r="AE3" s="43" t="s">
+        <v>103</v>
+      </c>
       <c r="AF3" s="43"/>
       <c r="AG3" s="43"/>
       <c r="AH3" s="43"/>
@@ -2012,26 +2025,28 @@
       </c>
       <c r="AJ3" s="46"/>
       <c r="AK3" s="46"/>
-      <c r="AL3" s="47"/>
-      <c r="AM3" s="47"/>
-      <c r="AN3" s="47"/>
-      <c r="AO3" s="47"/>
-    </row>
-    <row r="4" spans="1:41" ht="20" customHeight="1">
-      <c r="A4" s="59"/>
-      <c r="B4" s="60"/>
-      <c r="C4" s="60"/>
-      <c r="D4" s="60"/>
-      <c r="E4" s="60"/>
-      <c r="F4" s="60"/>
-      <c r="G4" s="60"/>
-      <c r="H4" s="60"/>
-      <c r="I4" s="60"/>
-      <c r="J4" s="60"/>
-      <c r="K4" s="60"/>
-      <c r="L4" s="60"/>
-      <c r="M4" s="60"/>
-      <c r="N4" s="61"/>
+      <c r="AL3" s="47">
+        <v>45607</v>
+      </c>
+      <c r="AM3" s="48"/>
+      <c r="AN3" s="48"/>
+      <c r="AO3" s="48"/>
+    </row>
+    <row r="4" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A4" s="60"/>
+      <c r="B4" s="61"/>
+      <c r="C4" s="61"/>
+      <c r="D4" s="61"/>
+      <c r="E4" s="61"/>
+      <c r="F4" s="61"/>
+      <c r="G4" s="61"/>
+      <c r="H4" s="61"/>
+      <c r="I4" s="61"/>
+      <c r="J4" s="61"/>
+      <c r="K4" s="61"/>
+      <c r="L4" s="61"/>
+      <c r="M4" s="61"/>
+      <c r="N4" s="62"/>
       <c r="O4" s="46" t="s">
         <v>2</v>
       </c>
@@ -2040,7 +2055,7 @@
       <c r="R4" s="46"/>
       <c r="S4" s="46"/>
       <c r="T4" s="43" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="U4" s="43"/>
       <c r="V4" s="43"/>
@@ -2059,12 +2074,12 @@
       <c r="AI4" s="46"/>
       <c r="AJ4" s="46"/>
       <c r="AK4" s="46"/>
-      <c r="AL4" s="47"/>
-      <c r="AM4" s="47"/>
-      <c r="AN4" s="47"/>
-      <c r="AO4" s="47"/>
-    </row>
-    <row r="5" spans="1:41" ht="20" customHeight="1">
+      <c r="AL4" s="48"/>
+      <c r="AM4" s="48"/>
+      <c r="AN4" s="48"/>
+      <c r="AO4" s="48"/>
+    </row>
+    <row r="5" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A5" s="44" t="s">
         <v>10</v>
       </c>
@@ -2113,7 +2128,7 @@
       <c r="AN5" s="44"/>
       <c r="AO5" s="44"/>
     </row>
-    <row r="6" spans="1:41" ht="20" customHeight="1">
+    <row r="6" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A6" s="3"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
@@ -2158,11 +2173,11 @@
       <c r="AN6" s="4"/>
       <c r="AO6" s="5"/>
     </row>
-    <row r="7" spans="1:41" ht="20" customHeight="1">
+    <row r="7" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A7" s="6"/>
       <c r="V7" s="7"/>
       <c r="W7" s="22" t="s">
-        <v>53</v>
+        <v>102</v>
       </c>
       <c r="X7" s="1"/>
       <c r="Y7" s="1"/>
@@ -2179,16 +2194,18 @@
       <c r="AJ7" s="1"/>
       <c r="AK7" s="1"/>
       <c r="AL7" s="14"/>
-      <c r="AM7" s="6"/>
+      <c r="AM7" s="6" t="s">
+        <v>104</v>
+      </c>
       <c r="AO7" s="7"/>
     </row>
-    <row r="8" spans="1:41" ht="20" customHeight="1">
+    <row r="8" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A8" s="6"/>
       <c r="V8" s="7"/>
       <c r="AM8" s="6"/>
       <c r="AO8" s="7"/>
     </row>
-    <row r="9" spans="1:41" ht="20" customHeight="1">
+    <row r="9" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A9" s="6"/>
       <c r="V9" s="7"/>
       <c r="W9" s="22"/>
@@ -2210,7 +2227,7 @@
       <c r="AM9" s="6"/>
       <c r="AO9" s="7"/>
     </row>
-    <row r="10" spans="1:41" ht="20" customHeight="1">
+    <row r="10" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A10" s="6"/>
       <c r="V10" s="7"/>
       <c r="W10" s="22"/>
@@ -2232,7 +2249,7 @@
       <c r="AM10" s="6"/>
       <c r="AO10" s="7"/>
     </row>
-    <row r="11" spans="1:41" ht="20" customHeight="1">
+    <row r="11" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A11" s="6"/>
       <c r="V11" s="7"/>
       <c r="W11" s="22"/>
@@ -2254,7 +2271,7 @@
       <c r="AM11" s="6"/>
       <c r="AO11" s="7"/>
     </row>
-    <row r="12" spans="1:41" ht="20" customHeight="1">
+    <row r="12" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A12" s="6"/>
       <c r="V12" s="7"/>
       <c r="W12" s="22"/>
@@ -2276,7 +2293,7 @@
       <c r="AM12" s="6"/>
       <c r="AO12" s="7"/>
     </row>
-    <row r="13" spans="1:41" ht="20" customHeight="1">
+    <row r="13" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A13" s="6"/>
       <c r="V13" s="7"/>
       <c r="W13" s="22"/>
@@ -2298,7 +2315,7 @@
       <c r="AM13" s="6"/>
       <c r="AO13" s="7"/>
     </row>
-    <row r="14" spans="1:41" ht="20" customHeight="1">
+    <row r="14" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A14" s="6"/>
       <c r="V14" s="7"/>
       <c r="W14" s="22"/>
@@ -2320,7 +2337,7 @@
       <c r="AM14" s="6"/>
       <c r="AO14" s="7"/>
     </row>
-    <row r="15" spans="1:41" ht="20" customHeight="1">
+    <row r="15" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A15" s="6"/>
       <c r="V15" s="7"/>
       <c r="W15" s="22"/>
@@ -2342,7 +2359,7 @@
       <c r="AM15" s="6"/>
       <c r="AO15" s="7"/>
     </row>
-    <row r="16" spans="1:41" ht="20" customHeight="1">
+    <row r="16" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A16" s="6"/>
       <c r="V16" s="7"/>
       <c r="W16" s="22"/>
@@ -2364,7 +2381,7 @@
       <c r="AM16" s="6"/>
       <c r="AO16" s="7"/>
     </row>
-    <row r="17" spans="1:41" ht="20" customHeight="1">
+    <row r="17" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A17" s="6"/>
       <c r="V17" s="7"/>
       <c r="W17" s="22"/>
@@ -2386,7 +2403,7 @@
       <c r="AM17" s="6"/>
       <c r="AO17" s="7"/>
     </row>
-    <row r="18" spans="1:41" ht="20" customHeight="1">
+    <row r="18" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A18" s="6"/>
       <c r="V18" s="7"/>
       <c r="W18" s="22"/>
@@ -2408,7 +2425,7 @@
       <c r="AM18" s="6"/>
       <c r="AO18" s="7"/>
     </row>
-    <row r="19" spans="1:41" ht="20" customHeight="1">
+    <row r="19" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A19" s="8"/>
       <c r="B19" s="9"/>
       <c r="C19" s="9"/>
@@ -2451,21 +2468,21 @@
       <c r="AN19" s="9"/>
       <c r="AO19" s="10"/>
     </row>
-    <row r="20" spans="1:41" ht="20" customHeight="1">
+    <row r="20" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A20" s="44" t="s">
         <v>11</v>
       </c>
       <c r="B20" s="44"/>
-      <c r="C20" s="51" t="s">
+      <c r="C20" s="52" t="s">
         <v>12</v>
       </c>
-      <c r="D20" s="52"/>
-      <c r="E20" s="52"/>
-      <c r="F20" s="52"/>
-      <c r="G20" s="52"/>
-      <c r="H20" s="52"/>
-      <c r="I20" s="52"/>
-      <c r="J20" s="52"/>
+      <c r="D20" s="53"/>
+      <c r="E20" s="53"/>
+      <c r="F20" s="53"/>
+      <c r="G20" s="53"/>
+      <c r="H20" s="53"/>
+      <c r="I20" s="53"/>
+      <c r="J20" s="53"/>
       <c r="K20" s="44" t="s">
         <v>13</v>
       </c>
@@ -2482,35 +2499,35 @@
       <c r="P20" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="Q20" s="51" t="s">
+      <c r="Q20" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="R20" s="52"/>
-      <c r="S20" s="52"/>
-      <c r="T20" s="52"/>
-      <c r="U20" s="52"/>
-      <c r="V20" s="52"/>
-      <c r="W20" s="52"/>
-      <c r="X20" s="52"/>
-      <c r="Y20" s="52"/>
-      <c r="Z20" s="52"/>
-      <c r="AA20" s="52"/>
-      <c r="AB20" s="52"/>
-      <c r="AC20" s="52"/>
-      <c r="AD20" s="52"/>
-      <c r="AE20" s="52"/>
-      <c r="AF20" s="52"/>
-      <c r="AG20" s="52"/>
-      <c r="AH20" s="52"/>
-      <c r="AI20" s="52"/>
-      <c r="AJ20" s="52"/>
-      <c r="AK20" s="52"/>
-      <c r="AL20" s="52"/>
-      <c r="AM20" s="52"/>
-      <c r="AN20" s="52"/>
-      <c r="AO20" s="52"/>
-    </row>
-    <row r="21" spans="1:41" ht="20" customHeight="1">
+      <c r="R20" s="53"/>
+      <c r="S20" s="53"/>
+      <c r="T20" s="53"/>
+      <c r="U20" s="53"/>
+      <c r="V20" s="53"/>
+      <c r="W20" s="53"/>
+      <c r="X20" s="53"/>
+      <c r="Y20" s="53"/>
+      <c r="Z20" s="53"/>
+      <c r="AA20" s="53"/>
+      <c r="AB20" s="53"/>
+      <c r="AC20" s="53"/>
+      <c r="AD20" s="53"/>
+      <c r="AE20" s="53"/>
+      <c r="AF20" s="53"/>
+      <c r="AG20" s="53"/>
+      <c r="AH20" s="53"/>
+      <c r="AI20" s="53"/>
+      <c r="AJ20" s="53"/>
+      <c r="AK20" s="53"/>
+      <c r="AL20" s="53"/>
+      <c r="AM20" s="53"/>
+      <c r="AN20" s="53"/>
+      <c r="AO20" s="53"/>
+    </row>
+    <row r="21" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A21" s="43">
         <v>1</v>
       </c>
@@ -2555,7 +2572,7 @@
       <c r="AN21" s="18"/>
       <c r="AO21" s="19"/>
     </row>
-    <row r="22" spans="1:41" ht="20" customHeight="1">
+    <row r="22" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A22" s="43"/>
       <c r="B22" s="45"/>
       <c r="C22" s="17"/>
@@ -2598,7 +2615,7 @@
       <c r="AN22" s="18"/>
       <c r="AO22" s="19"/>
     </row>
-    <row r="23" spans="1:41" ht="20" customHeight="1">
+    <row r="23" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A23" s="43"/>
       <c r="B23" s="45"/>
       <c r="C23" s="17"/>
@@ -2641,7 +2658,7 @@
       <c r="AN23" s="18"/>
       <c r="AO23" s="19"/>
     </row>
-    <row r="24" spans="1:41" ht="20" customHeight="1">
+    <row r="24" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A24" s="43"/>
       <c r="B24" s="43"/>
       <c r="C24" s="17"/>
@@ -2684,7 +2701,7 @@
       <c r="AN24" s="18"/>
       <c r="AO24" s="19"/>
     </row>
-    <row r="25" spans="1:41" ht="20" customHeight="1">
+    <row r="25" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A25" s="43"/>
       <c r="B25" s="43"/>
       <c r="C25" s="17"/>
@@ -2727,7 +2744,7 @@
       <c r="AN25" s="18"/>
       <c r="AO25" s="19"/>
     </row>
-    <row r="26" spans="1:41" ht="20" customHeight="1">
+    <row r="26" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A26" s="43"/>
       <c r="B26" s="43"/>
       <c r="C26" s="17"/>
@@ -2770,7 +2787,7 @@
       <c r="AN26" s="18"/>
       <c r="AO26" s="19"/>
     </row>
-    <row r="27" spans="1:41" ht="20" customHeight="1">
+    <row r="27" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A27" s="43"/>
       <c r="B27" s="43"/>
       <c r="C27" s="17"/>
@@ -2813,7 +2830,7 @@
       <c r="AN27" s="18"/>
       <c r="AO27" s="19"/>
     </row>
-    <row r="28" spans="1:41" ht="20" customHeight="1">
+    <row r="28" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A28" s="43"/>
       <c r="B28" s="43"/>
       <c r="C28" s="17"/>
@@ -2856,7 +2873,7 @@
       <c r="AN28" s="18"/>
       <c r="AO28" s="19"/>
     </row>
-    <row r="29" spans="1:41" ht="20" customHeight="1">
+    <row r="29" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A29" s="43"/>
       <c r="B29" s="43"/>
       <c r="C29" s="17"/>
@@ -2899,7 +2916,7 @@
       <c r="AN29" s="18"/>
       <c r="AO29" s="19"/>
     </row>
-    <row r="30" spans="1:41" ht="20" customHeight="1">
+    <row r="30" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A30" s="43"/>
       <c r="B30" s="43"/>
       <c r="C30" s="17"/>
@@ -2942,7 +2959,7 @@
       <c r="AN30" s="18"/>
       <c r="AO30" s="19"/>
     </row>
-    <row r="31" spans="1:41" ht="20" customHeight="1">
+    <row r="31" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A31" s="43"/>
       <c r="B31" s="43"/>
       <c r="C31" s="17"/>
@@ -2985,7 +3002,7 @@
       <c r="AN31" s="18"/>
       <c r="AO31" s="19"/>
     </row>
-    <row r="32" spans="1:41" ht="20" customHeight="1">
+    <row r="32" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A32" s="43"/>
       <c r="B32" s="43"/>
       <c r="C32" s="17"/>
@@ -3028,7 +3045,7 @@
       <c r="AN32" s="18"/>
       <c r="AO32" s="19"/>
     </row>
-    <row r="33" spans="1:41" ht="20" customHeight="1">
+    <row r="33" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A33" s="42"/>
       <c r="B33" s="42"/>
       <c r="C33" s="1"/>
@@ -3125,8 +3142,8 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="46" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" scale="46" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -3137,35 +3154,35 @@
   </sheetPr>
   <dimension ref="A1:AO152"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection sqref="A1:N4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="3.7109375" defaultRowHeight="20" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="3.7265625" defaultRowHeight="19.95" customHeight="1" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="8" width="3.7109375" style="2"/>
-    <col min="9" max="9" width="3.7109375" style="2" customWidth="1"/>
+    <col min="1" max="8" width="3.7265625" style="2"/>
+    <col min="9" max="9" width="3.7265625" style="2" customWidth="1"/>
     <col min="10" max="14" width="4" style="2" customWidth="1"/>
-    <col min="15" max="16384" width="3.7109375" style="2"/>
+    <col min="15" max="16384" width="3.7265625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:41" ht="20" customHeight="1">
-      <c r="A1" s="53" t="s">
+    <row r="1" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A1" s="54" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="54"/>
-      <c r="G1" s="54"/>
-      <c r="H1" s="54"/>
-      <c r="I1" s="54"/>
-      <c r="J1" s="54"/>
-      <c r="K1" s="54"/>
-      <c r="L1" s="54"/>
-      <c r="M1" s="54"/>
-      <c r="N1" s="55"/>
+      <c r="B1" s="55"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="55"/>
+      <c r="G1" s="55"/>
+      <c r="H1" s="55"/>
+      <c r="I1" s="55"/>
+      <c r="J1" s="55"/>
+      <c r="K1" s="55"/>
+      <c r="L1" s="55"/>
+      <c r="M1" s="55"/>
+      <c r="N1" s="56"/>
       <c r="O1" s="46" t="s">
         <v>0</v>
       </c>
@@ -3173,16 +3190,16 @@
       <c r="Q1" s="46"/>
       <c r="R1" s="46"/>
       <c r="S1" s="46"/>
-      <c r="T1" s="48" t="s">
+      <c r="T1" s="49" t="s">
         <v>26</v>
       </c>
-      <c r="U1" s="49"/>
-      <c r="V1" s="49"/>
-      <c r="W1" s="49"/>
-      <c r="X1" s="49"/>
-      <c r="Y1" s="49"/>
-      <c r="Z1" s="49"/>
-      <c r="AA1" s="50"/>
+      <c r="U1" s="50"/>
+      <c r="V1" s="50"/>
+      <c r="W1" s="50"/>
+      <c r="X1" s="50"/>
+      <c r="Y1" s="50"/>
+      <c r="Z1" s="50"/>
+      <c r="AA1" s="51"/>
       <c r="AB1" s="46" t="s">
         <v>4</v>
       </c>
@@ -3199,28 +3216,28 @@
       </c>
       <c r="AJ1" s="46"/>
       <c r="AK1" s="46"/>
-      <c r="AL1" s="62">
+      <c r="AL1" s="47">
         <v>45566</v>
       </c>
-      <c r="AM1" s="47"/>
-      <c r="AN1" s="47"/>
-      <c r="AO1" s="47"/>
-    </row>
-    <row r="2" spans="1:41" ht="20" customHeight="1">
-      <c r="A2" s="56"/>
-      <c r="B2" s="57"/>
-      <c r="C2" s="57"/>
-      <c r="D2" s="57"/>
-      <c r="E2" s="57"/>
-      <c r="F2" s="57"/>
-      <c r="G2" s="57"/>
-      <c r="H2" s="57"/>
-      <c r="I2" s="57"/>
-      <c r="J2" s="57"/>
-      <c r="K2" s="57"/>
-      <c r="L2" s="57"/>
-      <c r="M2" s="57"/>
-      <c r="N2" s="58"/>
+      <c r="AM1" s="48"/>
+      <c r="AN1" s="48"/>
+      <c r="AO1" s="48"/>
+    </row>
+    <row r="2" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A2" s="57"/>
+      <c r="B2" s="58"/>
+      <c r="C2" s="58"/>
+      <c r="D2" s="58"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="58"/>
+      <c r="H2" s="58"/>
+      <c r="I2" s="58"/>
+      <c r="J2" s="58"/>
+      <c r="K2" s="58"/>
+      <c r="L2" s="58"/>
+      <c r="M2" s="58"/>
+      <c r="N2" s="59"/>
       <c r="O2" s="46" t="s">
         <v>1</v>
       </c>
@@ -3228,16 +3245,16 @@
       <c r="Q2" s="46"/>
       <c r="R2" s="46"/>
       <c r="S2" s="46"/>
-      <c r="T2" s="48" t="s">
+      <c r="T2" s="49" t="s">
         <v>30</v>
       </c>
-      <c r="U2" s="49"/>
-      <c r="V2" s="49"/>
-      <c r="W2" s="49"/>
-      <c r="X2" s="49"/>
-      <c r="Y2" s="49"/>
-      <c r="Z2" s="49"/>
-      <c r="AA2" s="50"/>
+      <c r="U2" s="50"/>
+      <c r="V2" s="50"/>
+      <c r="W2" s="50"/>
+      <c r="X2" s="50"/>
+      <c r="Y2" s="50"/>
+      <c r="Z2" s="50"/>
+      <c r="AA2" s="51"/>
       <c r="AB2" s="46"/>
       <c r="AC2" s="46"/>
       <c r="AD2" s="46"/>
@@ -3248,26 +3265,26 @@
       <c r="AI2" s="46"/>
       <c r="AJ2" s="46"/>
       <c r="AK2" s="46"/>
-      <c r="AL2" s="47"/>
-      <c r="AM2" s="47"/>
-      <c r="AN2" s="47"/>
-      <c r="AO2" s="47"/>
-    </row>
-    <row r="3" spans="1:41" ht="20" customHeight="1">
-      <c r="A3" s="56"/>
-      <c r="B3" s="57"/>
-      <c r="C3" s="57"/>
-      <c r="D3" s="57"/>
-      <c r="E3" s="57"/>
-      <c r="F3" s="57"/>
-      <c r="G3" s="57"/>
-      <c r="H3" s="57"/>
-      <c r="I3" s="57"/>
-      <c r="J3" s="57"/>
-      <c r="K3" s="57"/>
-      <c r="L3" s="57"/>
-      <c r="M3" s="57"/>
-      <c r="N3" s="58"/>
+      <c r="AL2" s="48"/>
+      <c r="AM2" s="48"/>
+      <c r="AN2" s="48"/>
+      <c r="AO2" s="48"/>
+    </row>
+    <row r="3" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A3" s="57"/>
+      <c r="B3" s="58"/>
+      <c r="C3" s="58"/>
+      <c r="D3" s="58"/>
+      <c r="E3" s="58"/>
+      <c r="F3" s="58"/>
+      <c r="G3" s="58"/>
+      <c r="H3" s="58"/>
+      <c r="I3" s="58"/>
+      <c r="J3" s="58"/>
+      <c r="K3" s="58"/>
+      <c r="L3" s="58"/>
+      <c r="M3" s="58"/>
+      <c r="N3" s="59"/>
       <c r="O3" s="46" t="s">
         <v>3</v>
       </c>
@@ -3276,7 +3293,7 @@
       <c r="R3" s="46"/>
       <c r="S3" s="46"/>
       <c r="T3" s="43" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="U3" s="43"/>
       <c r="V3" s="43"/>
@@ -3299,26 +3316,26 @@
       </c>
       <c r="AJ3" s="46"/>
       <c r="AK3" s="46"/>
-      <c r="AL3" s="47"/>
-      <c r="AM3" s="47"/>
-      <c r="AN3" s="47"/>
-      <c r="AO3" s="47"/>
-    </row>
-    <row r="4" spans="1:41" ht="20" customHeight="1">
-      <c r="A4" s="59"/>
-      <c r="B4" s="60"/>
-      <c r="C4" s="60"/>
-      <c r="D4" s="60"/>
-      <c r="E4" s="60"/>
-      <c r="F4" s="60"/>
-      <c r="G4" s="60"/>
-      <c r="H4" s="60"/>
-      <c r="I4" s="60"/>
-      <c r="J4" s="60"/>
-      <c r="K4" s="60"/>
-      <c r="L4" s="60"/>
-      <c r="M4" s="60"/>
-      <c r="N4" s="61"/>
+      <c r="AL3" s="48"/>
+      <c r="AM3" s="48"/>
+      <c r="AN3" s="48"/>
+      <c r="AO3" s="48"/>
+    </row>
+    <row r="4" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A4" s="60"/>
+      <c r="B4" s="61"/>
+      <c r="C4" s="61"/>
+      <c r="D4" s="61"/>
+      <c r="E4" s="61"/>
+      <c r="F4" s="61"/>
+      <c r="G4" s="61"/>
+      <c r="H4" s="61"/>
+      <c r="I4" s="61"/>
+      <c r="J4" s="61"/>
+      <c r="K4" s="61"/>
+      <c r="L4" s="61"/>
+      <c r="M4" s="61"/>
+      <c r="N4" s="62"/>
       <c r="O4" s="46" t="s">
         <v>2</v>
       </c>
@@ -3327,7 +3344,7 @@
       <c r="R4" s="46"/>
       <c r="S4" s="46"/>
       <c r="T4" s="43" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="U4" s="43"/>
       <c r="V4" s="43"/>
@@ -3346,29 +3363,29 @@
       <c r="AI4" s="46"/>
       <c r="AJ4" s="46"/>
       <c r="AK4" s="46"/>
-      <c r="AL4" s="47"/>
-      <c r="AM4" s="47"/>
-      <c r="AN4" s="47"/>
-      <c r="AO4" s="47"/>
-    </row>
-    <row r="5" spans="1:41" ht="20" customHeight="1">
+      <c r="AL4" s="48"/>
+      <c r="AM4" s="48"/>
+      <c r="AN4" s="48"/>
+      <c r="AO4" s="48"/>
+    </row>
+    <row r="5" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A5" s="44" t="s">
         <v>20</v>
       </c>
       <c r="B5" s="44"/>
       <c r="C5" s="44"/>
-      <c r="D5" s="70" t="s">
-        <v>100</v>
-      </c>
-      <c r="E5" s="71"/>
-      <c r="F5" s="72"/>
+      <c r="D5" s="69" t="s">
+        <v>99</v>
+      </c>
+      <c r="E5" s="70"/>
+      <c r="F5" s="71"/>
       <c r="G5" s="44" t="s">
         <v>21</v>
       </c>
       <c r="H5" s="44"/>
       <c r="I5" s="44"/>
       <c r="J5" s="63" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="K5" s="63"/>
       <c r="L5" s="63"/>
@@ -3402,54 +3419,54 @@
       <c r="AN5" s="11"/>
       <c r="AO5" s="11"/>
     </row>
-    <row r="6" spans="1:41" ht="20" customHeight="1">
-      <c r="A6" s="51" t="s">
+    <row r="6" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A6" s="52" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="52"/>
-      <c r="C6" s="52"/>
-      <c r="D6" s="52"/>
-      <c r="E6" s="52"/>
-      <c r="F6" s="52"/>
-      <c r="G6" s="52"/>
-      <c r="H6" s="52"/>
-      <c r="I6" s="52"/>
-      <c r="J6" s="52"/>
-      <c r="K6" s="52"/>
-      <c r="L6" s="52"/>
-      <c r="M6" s="52"/>
-      <c r="N6" s="52"/>
-      <c r="O6" s="52"/>
-      <c r="P6" s="52"/>
-      <c r="Q6" s="52"/>
-      <c r="R6" s="52"/>
-      <c r="S6" s="52"/>
-      <c r="T6" s="52"/>
-      <c r="U6" s="52"/>
-      <c r="V6" s="52"/>
-      <c r="W6" s="52"/>
-      <c r="X6" s="52"/>
-      <c r="Y6" s="52"/>
-      <c r="Z6" s="52"/>
-      <c r="AA6" s="52"/>
-      <c r="AB6" s="52"/>
-      <c r="AC6" s="52"/>
-      <c r="AD6" s="52"/>
-      <c r="AE6" s="52"/>
-      <c r="AF6" s="52"/>
-      <c r="AG6" s="52"/>
-      <c r="AH6" s="52"/>
-      <c r="AI6" s="52"/>
-      <c r="AJ6" s="52"/>
-      <c r="AK6" s="52"/>
-      <c r="AL6" s="69"/>
+      <c r="B6" s="53"/>
+      <c r="C6" s="53"/>
+      <c r="D6" s="53"/>
+      <c r="E6" s="53"/>
+      <c r="F6" s="53"/>
+      <c r="G6" s="53"/>
+      <c r="H6" s="53"/>
+      <c r="I6" s="53"/>
+      <c r="J6" s="53"/>
+      <c r="K6" s="53"/>
+      <c r="L6" s="53"/>
+      <c r="M6" s="53"/>
+      <c r="N6" s="53"/>
+      <c r="O6" s="53"/>
+      <c r="P6" s="53"/>
+      <c r="Q6" s="53"/>
+      <c r="R6" s="53"/>
+      <c r="S6" s="53"/>
+      <c r="T6" s="53"/>
+      <c r="U6" s="53"/>
+      <c r="V6" s="53"/>
+      <c r="W6" s="53"/>
+      <c r="X6" s="53"/>
+      <c r="Y6" s="53"/>
+      <c r="Z6" s="53"/>
+      <c r="AA6" s="53"/>
+      <c r="AB6" s="53"/>
+      <c r="AC6" s="53"/>
+      <c r="AD6" s="53"/>
+      <c r="AE6" s="53"/>
+      <c r="AF6" s="53"/>
+      <c r="AG6" s="53"/>
+      <c r="AH6" s="53"/>
+      <c r="AI6" s="53"/>
+      <c r="AJ6" s="53"/>
+      <c r="AK6" s="53"/>
+      <c r="AL6" s="72"/>
       <c r="AM6" s="44" t="s">
         <v>9</v>
       </c>
       <c r="AN6" s="44"/>
       <c r="AO6" s="44"/>
     </row>
-    <row r="7" spans="1:41" ht="20" customHeight="1">
+    <row r="7" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A7" s="21"/>
       <c r="B7" s="12"/>
       <c r="C7" s="12"/>
@@ -3492,10 +3509,10 @@
       <c r="AN7" s="4"/>
       <c r="AO7" s="5"/>
     </row>
-    <row r="8" spans="1:41" ht="20" customHeight="1">
+    <row r="8" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A8" s="22"/>
       <c r="B8" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
@@ -3536,15 +3553,15 @@
       <c r="AM8" s="6"/>
       <c r="AO8" s="7"/>
     </row>
-    <row r="9" spans="1:41" ht="20" customHeight="1">
+    <row r="9" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A9" s="22"/>
       <c r="B9" s="1"/>
-      <c r="C9" s="101" t="s">
+      <c r="C9" s="73" t="s">
         <v>27</v>
       </c>
-      <c r="D9" s="102"/>
-      <c r="E9" s="102"/>
-      <c r="F9" s="103"/>
+      <c r="D9" s="74"/>
+      <c r="E9" s="74"/>
+      <c r="F9" s="75"/>
       <c r="G9" s="21"/>
       <c r="H9" s="12"/>
       <c r="I9" s="12"/>
@@ -3580,13 +3597,13 @@
       <c r="AM9" s="6"/>
       <c r="AO9" s="7"/>
     </row>
-    <row r="10" spans="1:41" ht="20" customHeight="1">
+    <row r="10" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A10" s="22"/>
       <c r="B10" s="1"/>
-      <c r="C10" s="104"/>
-      <c r="D10" s="105"/>
-      <c r="E10" s="105"/>
-      <c r="F10" s="106"/>
+      <c r="C10" s="76"/>
+      <c r="D10" s="77"/>
+      <c r="E10" s="77"/>
+      <c r="F10" s="78"/>
       <c r="G10" s="23"/>
       <c r="H10" s="15"/>
       <c r="I10" s="15"/>
@@ -3622,7 +3639,7 @@
       <c r="AM10" s="6"/>
       <c r="AO10" s="7"/>
     </row>
-    <row r="11" spans="1:41" ht="20" customHeight="1">
+    <row r="11" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A11" s="22"/>
       <c r="B11" s="1"/>
       <c r="C11" s="22" t="s">
@@ -3632,7 +3649,7 @@
       <c r="E11" s="1"/>
       <c r="F11" s="14"/>
       <c r="G11" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
@@ -3668,7 +3685,7 @@
       <c r="AM11" s="6"/>
       <c r="AO11" s="7"/>
     </row>
-    <row r="12" spans="1:41" ht="20" customHeight="1">
+    <row r="12" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A12" s="22"/>
       <c r="B12" s="1"/>
       <c r="C12" s="22"/>
@@ -3686,7 +3703,7 @@
       </c>
       <c r="N12" s="1"/>
       <c r="P12" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="R12" s="64"/>
       <c r="S12" s="65"/>
@@ -3713,11 +3730,11 @@
       <c r="AM12" s="6"/>
       <c r="AO12" s="7"/>
     </row>
-    <row r="13" spans="1:41" ht="20" customHeight="1">
+    <row r="13" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A13" s="22"/>
       <c r="B13" s="1"/>
       <c r="C13" s="22" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
@@ -3733,7 +3750,7 @@
       <c r="AM13" s="6"/>
       <c r="AO13" s="7"/>
     </row>
-    <row r="14" spans="1:41" ht="20" customHeight="1">
+    <row r="14" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A14" s="22"/>
       <c r="B14" s="1"/>
       <c r="C14" s="22"/>
@@ -3742,7 +3759,7 @@
       <c r="F14" s="14"/>
       <c r="G14" s="1"/>
       <c r="M14" s="63" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="N14" s="63"/>
       <c r="O14" s="63"/>
@@ -3770,7 +3787,7 @@
       <c r="AM14" s="6"/>
       <c r="AO14" s="7"/>
     </row>
-    <row r="15" spans="1:41" ht="20" customHeight="1">
+    <row r="15" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A15" s="22"/>
       <c r="B15" s="1"/>
       <c r="C15" s="22" t="s">
@@ -3781,7 +3798,7 @@
       <c r="F15" s="14"/>
       <c r="G15" s="1"/>
       <c r="M15" s="63" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="N15" s="63"/>
       <c r="O15" s="63"/>
@@ -3809,7 +3826,7 @@
       <c r="AM15" s="6"/>
       <c r="AO15" s="7"/>
     </row>
-    <row r="16" spans="1:41" ht="20" customHeight="1">
+    <row r="16" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A16" s="22"/>
       <c r="B16" s="1"/>
       <c r="C16" s="22"/>
@@ -3818,7 +3835,7 @@
       <c r="F16" s="14"/>
       <c r="G16" s="1"/>
       <c r="M16" s="63" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="N16" s="63"/>
       <c r="O16" s="63"/>
@@ -3846,7 +3863,7 @@
       <c r="AM16" s="6"/>
       <c r="AO16" s="7"/>
     </row>
-    <row r="17" spans="1:41" ht="20" customHeight="1">
+    <row r="17" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A17" s="22"/>
       <c r="B17" s="1"/>
       <c r="C17" s="22" t="s">
@@ -3857,7 +3874,7 @@
       <c r="F17" s="14"/>
       <c r="G17" s="1"/>
       <c r="M17" s="63" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="N17" s="63"/>
       <c r="O17" s="63"/>
@@ -3885,7 +3902,7 @@
       <c r="AM17" s="6"/>
       <c r="AO17" s="7"/>
     </row>
-    <row r="18" spans="1:41" ht="20" customHeight="1">
+    <row r="18" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A18" s="22"/>
       <c r="B18" s="1"/>
       <c r="C18" s="22"/>
@@ -3894,7 +3911,7 @@
       <c r="F18" s="14"/>
       <c r="G18" s="1"/>
       <c r="M18" s="63" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="N18" s="63"/>
       <c r="O18" s="63"/>
@@ -3922,7 +3939,7 @@
       <c r="AM18" s="6"/>
       <c r="AO18" s="7"/>
     </row>
-    <row r="19" spans="1:41" ht="20" customHeight="1">
+    <row r="19" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A19" s="22"/>
       <c r="B19" s="1"/>
       <c r="C19" s="22"/>
@@ -3931,7 +3948,7 @@
       <c r="F19" s="14"/>
       <c r="G19" s="1"/>
       <c r="M19" s="63" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="N19" s="63"/>
       <c r="O19" s="63"/>
@@ -3959,7 +3976,7 @@
       <c r="AM19" s="6"/>
       <c r="AO19" s="7"/>
     </row>
-    <row r="20" spans="1:41" ht="20" customHeight="1">
+    <row r="20" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A20" s="22"/>
       <c r="B20" s="1"/>
       <c r="C20" s="22"/>
@@ -3968,7 +3985,7 @@
       <c r="F20" s="14"/>
       <c r="G20" s="1"/>
       <c r="M20" s="63" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="N20" s="63"/>
       <c r="O20" s="63"/>
@@ -3996,7 +4013,7 @@
       <c r="AM20" s="6"/>
       <c r="AO20" s="7"/>
     </row>
-    <row r="21" spans="1:41" ht="20" customHeight="1">
+    <row r="21" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A21" s="22"/>
       <c r="B21" s="1"/>
       <c r="C21" s="22"/>
@@ -4005,7 +4022,7 @@
       <c r="F21" s="14"/>
       <c r="G21" s="1"/>
       <c r="M21" s="63" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="N21" s="63"/>
       <c r="O21" s="63"/>
@@ -4033,7 +4050,7 @@
       <c r="AM21" s="6"/>
       <c r="AO21" s="7"/>
     </row>
-    <row r="22" spans="1:41" ht="20" customHeight="1">
+    <row r="22" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A22" s="22"/>
       <c r="B22" s="1"/>
       <c r="C22" s="22"/>
@@ -4042,7 +4059,7 @@
       <c r="F22" s="14"/>
       <c r="G22" s="1"/>
       <c r="M22" s="63" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="N22" s="63"/>
       <c r="O22" s="63"/>
@@ -4070,7 +4087,7 @@
       <c r="AM22" s="6"/>
       <c r="AO22" s="7"/>
     </row>
-    <row r="23" spans="1:41" ht="20" customHeight="1">
+    <row r="23" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A23" s="22"/>
       <c r="B23" s="1"/>
       <c r="C23" s="22"/>
@@ -4079,7 +4096,7 @@
       <c r="F23" s="14"/>
       <c r="G23" s="1"/>
       <c r="M23" s="63" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="N23" s="63"/>
       <c r="O23" s="63"/>
@@ -4107,7 +4124,7 @@
       <c r="AM23" s="6"/>
       <c r="AO23" s="7"/>
     </row>
-    <row r="24" spans="1:41" ht="20" customHeight="1">
+    <row r="24" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A24" s="22"/>
       <c r="B24" s="1"/>
       <c r="C24" s="22"/>
@@ -4125,7 +4142,7 @@
       <c r="AM24" s="6"/>
       <c r="AO24" s="7"/>
     </row>
-    <row r="25" spans="1:41" ht="20" customHeight="1">
+    <row r="25" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A25" s="22"/>
       <c r="B25" s="1"/>
       <c r="C25" s="22"/>
@@ -4143,7 +4160,7 @@
       <c r="AM25" s="6"/>
       <c r="AO25" s="7"/>
     </row>
-    <row r="26" spans="1:41" ht="20" customHeight="1">
+    <row r="26" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A26" s="22"/>
       <c r="B26" s="1"/>
       <c r="C26" s="22"/>
@@ -4164,7 +4181,7 @@
       <c r="AM26" s="6"/>
       <c r="AO26" s="7"/>
     </row>
-    <row r="27" spans="1:41" ht="20" customHeight="1">
+    <row r="27" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A27" s="22"/>
       <c r="B27" s="1"/>
       <c r="C27" s="22"/>
@@ -4189,7 +4206,7 @@
       <c r="AM27" s="6"/>
       <c r="AO27" s="7"/>
     </row>
-    <row r="28" spans="1:41" ht="20" customHeight="1">
+    <row r="28" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A28" s="22"/>
       <c r="B28" s="1"/>
       <c r="C28" s="22"/>
@@ -4214,7 +4231,7 @@
       <c r="AM28" s="6"/>
       <c r="AO28" s="7"/>
     </row>
-    <row r="29" spans="1:41" ht="20" customHeight="1">
+    <row r="29" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A29" s="22"/>
       <c r="B29" s="1"/>
       <c r="C29" s="22"/>
@@ -4256,7 +4273,7 @@
       <c r="AM29" s="6"/>
       <c r="AO29" s="7"/>
     </row>
-    <row r="30" spans="1:41" ht="20" customHeight="1">
+    <row r="30" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A30" s="22"/>
       <c r="B30" s="26"/>
       <c r="C30" s="33"/>
@@ -4298,7 +4315,7 @@
       <c r="AM30" s="6"/>
       <c r="AO30" s="7"/>
     </row>
-    <row r="31" spans="1:41" ht="20" customHeight="1">
+    <row r="31" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A31" s="22"/>
       <c r="B31" s="26"/>
       <c r="C31" s="26"/>
@@ -4340,10 +4357,10 @@
       <c r="AM31" s="6"/>
       <c r="AO31" s="7"/>
     </row>
-    <row r="32" spans="1:41" ht="20" customHeight="1">
+    <row r="32" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A32" s="22"/>
       <c r="B32" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
@@ -4384,15 +4401,15 @@
       <c r="AM32" s="6"/>
       <c r="AO32" s="7"/>
     </row>
-    <row r="33" spans="1:41" ht="20" customHeight="1">
+    <row r="33" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A33" s="22"/>
       <c r="B33" s="1"/>
-      <c r="C33" s="101" t="s">
+      <c r="C33" s="73" t="s">
         <v>27</v>
       </c>
-      <c r="D33" s="102"/>
-      <c r="E33" s="102"/>
-      <c r="F33" s="103"/>
+      <c r="D33" s="74"/>
+      <c r="E33" s="74"/>
+      <c r="F33" s="75"/>
       <c r="G33" s="21"/>
       <c r="H33" s="12"/>
       <c r="I33" s="12"/>
@@ -4428,13 +4445,13 @@
       <c r="AM33" s="6"/>
       <c r="AO33" s="7"/>
     </row>
-    <row r="34" spans="1:41" ht="20" customHeight="1">
+    <row r="34" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A34" s="22"/>
       <c r="B34" s="1"/>
-      <c r="C34" s="104"/>
-      <c r="D34" s="105"/>
-      <c r="E34" s="105"/>
-      <c r="F34" s="106"/>
+      <c r="C34" s="76"/>
+      <c r="D34" s="77"/>
+      <c r="E34" s="77"/>
+      <c r="F34" s="78"/>
       <c r="G34" s="23"/>
       <c r="H34" s="15"/>
       <c r="I34" s="15"/>
@@ -4470,7 +4487,7 @@
       <c r="AM34" s="6"/>
       <c r="AO34" s="7"/>
     </row>
-    <row r="35" spans="1:41" ht="20" customHeight="1">
+    <row r="35" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A35" s="22"/>
       <c r="B35" s="1"/>
       <c r="C35" s="22" t="s">
@@ -4480,7 +4497,7 @@
       <c r="E35" s="1"/>
       <c r="F35" s="14"/>
       <c r="G35" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
@@ -4516,7 +4533,7 @@
       <c r="AM35" s="6"/>
       <c r="AO35" s="7"/>
     </row>
-    <row r="36" spans="1:41" ht="20" customHeight="1">
+    <row r="36" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A36" s="22"/>
       <c r="B36" s="1"/>
       <c r="C36" s="22"/>
@@ -4534,10 +4551,10 @@
       </c>
       <c r="N36" s="1"/>
       <c r="P36" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="R36" s="64" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="S36" s="65"/>
       <c r="T36" s="65"/>
@@ -4563,11 +4580,11 @@
       <c r="AM36" s="6"/>
       <c r="AO36" s="7"/>
     </row>
-    <row r="37" spans="1:41" ht="20" customHeight="1">
+    <row r="37" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A37" s="22"/>
       <c r="B37" s="1"/>
       <c r="C37" s="22" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
@@ -4583,7 +4600,7 @@
       <c r="AM37" s="6"/>
       <c r="AO37" s="7"/>
     </row>
-    <row r="38" spans="1:41" ht="20" customHeight="1">
+    <row r="38" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A38" s="22"/>
       <c r="B38" s="1"/>
       <c r="C38" s="22"/>
@@ -4591,25 +4608,25 @@
       <c r="E38" s="1"/>
       <c r="F38" s="14"/>
       <c r="G38" s="1"/>
-      <c r="M38" s="70" t="s">
-        <v>57</v>
-      </c>
-      <c r="N38" s="71"/>
-      <c r="O38" s="71"/>
-      <c r="P38" s="71"/>
-      <c r="Q38" s="71"/>
-      <c r="R38" s="71"/>
-      <c r="S38" s="71"/>
-      <c r="T38" s="71"/>
-      <c r="U38" s="71"/>
-      <c r="V38" s="71"/>
-      <c r="W38" s="71"/>
-      <c r="X38" s="71"/>
-      <c r="Y38" s="71"/>
-      <c r="Z38" s="71"/>
-      <c r="AA38" s="71"/>
-      <c r="AB38" s="71"/>
-      <c r="AC38" s="72"/>
+      <c r="M38" s="69" t="s">
+        <v>56</v>
+      </c>
+      <c r="N38" s="70"/>
+      <c r="O38" s="70"/>
+      <c r="P38" s="70"/>
+      <c r="Q38" s="70"/>
+      <c r="R38" s="70"/>
+      <c r="S38" s="70"/>
+      <c r="T38" s="70"/>
+      <c r="U38" s="70"/>
+      <c r="V38" s="70"/>
+      <c r="W38" s="70"/>
+      <c r="X38" s="70"/>
+      <c r="Y38" s="70"/>
+      <c r="Z38" s="70"/>
+      <c r="AA38" s="70"/>
+      <c r="AB38" s="70"/>
+      <c r="AC38" s="71"/>
       <c r="AF38"/>
       <c r="AG38"/>
       <c r="AH38"/>
@@ -4620,7 +4637,7 @@
       <c r="AM38" s="6"/>
       <c r="AO38" s="7"/>
     </row>
-    <row r="39" spans="1:41" ht="20" customHeight="1">
+    <row r="39" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A39" s="22"/>
       <c r="B39" s="1"/>
       <c r="C39" s="22" t="s">
@@ -4657,7 +4674,7 @@
       <c r="AM39" s="6"/>
       <c r="AO39" s="7"/>
     </row>
-    <row r="40" spans="1:41" ht="20" customHeight="1">
+    <row r="40" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A40" s="22"/>
       <c r="B40" s="1"/>
       <c r="C40" s="22"/>
@@ -4692,7 +4709,7 @@
       <c r="AM40" s="6"/>
       <c r="AO40" s="7"/>
     </row>
-    <row r="41" spans="1:41" ht="20" customHeight="1">
+    <row r="41" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A41" s="22"/>
       <c r="B41" s="1"/>
       <c r="C41" s="22" t="s">
@@ -4729,7 +4746,7 @@
       <c r="AM41" s="6"/>
       <c r="AO41" s="7"/>
     </row>
-    <row r="42" spans="1:41" ht="20" customHeight="1">
+    <row r="42" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A42" s="22"/>
       <c r="B42" s="1"/>
       <c r="C42" s="22"/>
@@ -4764,7 +4781,7 @@
       <c r="AM42" s="6"/>
       <c r="AO42" s="7"/>
     </row>
-    <row r="43" spans="1:41" ht="20" customHeight="1">
+    <row r="43" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A43" s="22"/>
       <c r="B43" s="1"/>
       <c r="C43" s="22"/>
@@ -4799,7 +4816,7 @@
       <c r="AM43" s="6"/>
       <c r="AO43" s="7"/>
     </row>
-    <row r="44" spans="1:41" ht="20" customHeight="1">
+    <row r="44" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A44" s="22"/>
       <c r="B44" s="1"/>
       <c r="C44" s="22"/>
@@ -4834,7 +4851,7 @@
       <c r="AM44" s="6"/>
       <c r="AO44" s="7"/>
     </row>
-    <row r="45" spans="1:41" ht="20" customHeight="1">
+    <row r="45" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A45" s="22"/>
       <c r="B45" s="1"/>
       <c r="C45" s="22"/>
@@ -4869,7 +4886,7 @@
       <c r="AM45" s="6"/>
       <c r="AO45" s="7"/>
     </row>
-    <row r="46" spans="1:41" ht="20" customHeight="1">
+    <row r="46" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A46" s="22"/>
       <c r="B46" s="1"/>
       <c r="C46" s="22"/>
@@ -4904,7 +4921,7 @@
       <c r="AM46" s="6"/>
       <c r="AO46" s="7"/>
     </row>
-    <row r="47" spans="1:41" ht="20" customHeight="1">
+    <row r="47" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A47" s="22"/>
       <c r="B47" s="1"/>
       <c r="C47" s="22"/>
@@ -4939,7 +4956,7 @@
       <c r="AM47" s="6"/>
       <c r="AO47" s="7"/>
     </row>
-    <row r="48" spans="1:41" ht="20" customHeight="1">
+    <row r="48" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A48" s="22"/>
       <c r="B48" s="1"/>
       <c r="C48" s="22"/>
@@ -4957,7 +4974,7 @@
       <c r="AM48" s="6"/>
       <c r="AO48" s="7"/>
     </row>
-    <row r="49" spans="1:41" ht="20" customHeight="1">
+    <row r="49" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A49" s="22"/>
       <c r="B49" s="1"/>
       <c r="C49" s="22"/>
@@ -4975,7 +4992,7 @@
       <c r="AM49" s="6"/>
       <c r="AO49" s="7"/>
     </row>
-    <row r="50" spans="1:41" ht="20" customHeight="1">
+    <row r="50" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A50" s="22"/>
       <c r="B50" s="1"/>
       <c r="C50" s="22"/>
@@ -4996,7 +5013,7 @@
       <c r="AM50" s="6"/>
       <c r="AO50" s="7"/>
     </row>
-    <row r="51" spans="1:41" ht="20" customHeight="1">
+    <row r="51" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A51" s="22"/>
       <c r="B51" s="1"/>
       <c r="C51" s="22"/>
@@ -5021,7 +5038,7 @@
       <c r="AM51" s="6"/>
       <c r="AO51" s="7"/>
     </row>
-    <row r="52" spans="1:41" ht="20" customHeight="1">
+    <row r="52" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A52" s="22"/>
       <c r="B52" s="1"/>
       <c r="C52" s="22"/>
@@ -5046,7 +5063,7 @@
       <c r="AM52" s="6"/>
       <c r="AO52" s="7"/>
     </row>
-    <row r="53" spans="1:41" ht="20" customHeight="1">
+    <row r="53" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A53" s="22"/>
       <c r="B53" s="1"/>
       <c r="C53" s="22"/>
@@ -5088,7 +5105,7 @@
       <c r="AM53" s="6"/>
       <c r="AO53" s="7"/>
     </row>
-    <row r="54" spans="1:41" ht="20" customHeight="1">
+    <row r="54" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A54" s="22"/>
       <c r="B54" s="26"/>
       <c r="C54" s="33"/>
@@ -5130,7 +5147,7 @@
       <c r="AM54" s="6"/>
       <c r="AO54" s="7"/>
     </row>
-    <row r="55" spans="1:41" ht="20" customHeight="1">
+    <row r="55" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A55" s="22"/>
       <c r="B55" s="26"/>
       <c r="C55" s="26"/>
@@ -5172,10 +5189,10 @@
       <c r="AM55" s="6"/>
       <c r="AO55" s="7"/>
     </row>
-    <row r="56" spans="1:41" ht="20" customHeight="1">
+    <row r="56" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A56" s="22"/>
       <c r="B56" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
@@ -5216,15 +5233,15 @@
       <c r="AM56" s="6"/>
       <c r="AO56" s="7"/>
     </row>
-    <row r="57" spans="1:41" ht="20" customHeight="1">
+    <row r="57" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A57" s="22"/>
       <c r="B57" s="1"/>
-      <c r="C57" s="101" t="s">
+      <c r="C57" s="73" t="s">
         <v>27</v>
       </c>
-      <c r="D57" s="102"/>
-      <c r="E57" s="102"/>
-      <c r="F57" s="103"/>
+      <c r="D57" s="74"/>
+      <c r="E57" s="74"/>
+      <c r="F57" s="75"/>
       <c r="G57" s="21"/>
       <c r="H57" s="12"/>
       <c r="I57" s="12"/>
@@ -5260,13 +5277,13 @@
       <c r="AM57" s="6"/>
       <c r="AO57" s="7"/>
     </row>
-    <row r="58" spans="1:41" ht="20" customHeight="1">
+    <row r="58" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A58" s="22"/>
       <c r="B58" s="1"/>
-      <c r="C58" s="104"/>
-      <c r="D58" s="105"/>
-      <c r="E58" s="105"/>
-      <c r="F58" s="106"/>
+      <c r="C58" s="76"/>
+      <c r="D58" s="77"/>
+      <c r="E58" s="77"/>
+      <c r="F58" s="78"/>
       <c r="G58" s="23"/>
       <c r="H58" s="15"/>
       <c r="I58" s="15"/>
@@ -5302,7 +5319,7 @@
       <c r="AM58" s="6"/>
       <c r="AO58" s="7"/>
     </row>
-    <row r="59" spans="1:41" ht="20" customHeight="1">
+    <row r="59" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A59" s="22"/>
       <c r="B59" s="1"/>
       <c r="C59" s="22" t="s">
@@ -5312,7 +5329,7 @@
       <c r="E59" s="1"/>
       <c r="F59" s="14"/>
       <c r="G59" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H59" s="1"/>
       <c r="I59" s="1"/>
@@ -5348,7 +5365,7 @@
       <c r="AM59" s="6"/>
       <c r="AO59" s="7"/>
     </row>
-    <row r="60" spans="1:41" ht="20" customHeight="1">
+    <row r="60" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A60" s="22"/>
       <c r="B60" s="1"/>
       <c r="C60" s="22"/>
@@ -5366,7 +5383,7 @@
       </c>
       <c r="N60" s="1"/>
       <c r="P60" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="R60" s="64"/>
       <c r="S60" s="65"/>
@@ -5393,18 +5410,18 @@
       <c r="AM60" s="6"/>
       <c r="AO60" s="7"/>
     </row>
-    <row r="61" spans="1:41" ht="20" customHeight="1">
+    <row r="61" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A61" s="22"/>
       <c r="B61" s="1"/>
       <c r="C61" s="22" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D61" s="1"/>
       <c r="E61" s="1"/>
       <c r="F61" s="14"/>
       <c r="G61" s="1"/>
       <c r="P61" s="37" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AF61" s="26"/>
       <c r="AG61" s="26"/>
@@ -5416,7 +5433,7 @@
       <c r="AM61" s="6"/>
       <c r="AO61" s="7"/>
     </row>
-    <row r="62" spans="1:41" ht="20" customHeight="1">
+    <row r="62" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A62" s="22"/>
       <c r="B62" s="1"/>
       <c r="C62" s="22"/>
@@ -5424,25 +5441,25 @@
       <c r="E62" s="1"/>
       <c r="F62" s="14"/>
       <c r="G62" s="1"/>
-      <c r="M62" s="70" t="s">
-        <v>57</v>
-      </c>
-      <c r="N62" s="71"/>
-      <c r="O62" s="71"/>
-      <c r="P62" s="71"/>
-      <c r="Q62" s="71"/>
-      <c r="R62" s="71"/>
-      <c r="S62" s="71"/>
-      <c r="T62" s="71"/>
-      <c r="U62" s="71"/>
-      <c r="V62" s="71"/>
-      <c r="W62" s="71"/>
-      <c r="X62" s="71"/>
-      <c r="Y62" s="71"/>
-      <c r="Z62" s="71"/>
-      <c r="AA62" s="71"/>
-      <c r="AB62" s="71"/>
-      <c r="AC62" s="72"/>
+      <c r="M62" s="69" t="s">
+        <v>56</v>
+      </c>
+      <c r="N62" s="70"/>
+      <c r="O62" s="70"/>
+      <c r="P62" s="70"/>
+      <c r="Q62" s="70"/>
+      <c r="R62" s="70"/>
+      <c r="S62" s="70"/>
+      <c r="T62" s="70"/>
+      <c r="U62" s="70"/>
+      <c r="V62" s="70"/>
+      <c r="W62" s="70"/>
+      <c r="X62" s="70"/>
+      <c r="Y62" s="70"/>
+      <c r="Z62" s="70"/>
+      <c r="AA62" s="70"/>
+      <c r="AB62" s="70"/>
+      <c r="AC62" s="71"/>
       <c r="AF62"/>
       <c r="AG62"/>
       <c r="AH62"/>
@@ -5453,7 +5470,7 @@
       <c r="AM62" s="6"/>
       <c r="AO62" s="7"/>
     </row>
-    <row r="63" spans="1:41" ht="20" customHeight="1">
+    <row r="63" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A63" s="22"/>
       <c r="B63" s="1"/>
       <c r="C63" s="22" t="s">
@@ -5463,25 +5480,25 @@
       <c r="E63" s="1"/>
       <c r="F63" s="14"/>
       <c r="G63" s="1"/>
-      <c r="M63" s="70" t="s">
-        <v>58</v>
-      </c>
-      <c r="N63" s="71"/>
-      <c r="O63" s="71"/>
-      <c r="P63" s="71"/>
-      <c r="Q63" s="71"/>
-      <c r="R63" s="71"/>
-      <c r="S63" s="71"/>
-      <c r="T63" s="71"/>
-      <c r="U63" s="71"/>
-      <c r="V63" s="71"/>
-      <c r="W63" s="71"/>
-      <c r="X63" s="71"/>
-      <c r="Y63" s="71"/>
-      <c r="Z63" s="71"/>
-      <c r="AA63" s="71"/>
-      <c r="AB63" s="71"/>
-      <c r="AC63" s="72"/>
+      <c r="M63" s="69" t="s">
+        <v>57</v>
+      </c>
+      <c r="N63" s="70"/>
+      <c r="O63" s="70"/>
+      <c r="P63" s="70"/>
+      <c r="Q63" s="70"/>
+      <c r="R63" s="70"/>
+      <c r="S63" s="70"/>
+      <c r="T63" s="70"/>
+      <c r="U63" s="70"/>
+      <c r="V63" s="70"/>
+      <c r="W63" s="70"/>
+      <c r="X63" s="70"/>
+      <c r="Y63" s="70"/>
+      <c r="Z63" s="70"/>
+      <c r="AA63" s="70"/>
+      <c r="AB63" s="70"/>
+      <c r="AC63" s="71"/>
       <c r="AF63"/>
       <c r="AG63"/>
       <c r="AH63"/>
@@ -5492,7 +5509,7 @@
       <c r="AM63" s="6"/>
       <c r="AO63" s="7"/>
     </row>
-    <row r="64" spans="1:41" ht="20" customHeight="1">
+    <row r="64" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A64" s="22"/>
       <c r="B64" s="1"/>
       <c r="C64" s="22"/>
@@ -5500,25 +5517,25 @@
       <c r="E64" s="1"/>
       <c r="F64" s="14"/>
       <c r="G64" s="1"/>
-      <c r="M64" s="70" t="s">
-        <v>59</v>
-      </c>
-      <c r="N64" s="71"/>
-      <c r="O64" s="71"/>
-      <c r="P64" s="71"/>
-      <c r="Q64" s="71"/>
-      <c r="R64" s="71"/>
-      <c r="S64" s="71"/>
-      <c r="T64" s="71"/>
-      <c r="U64" s="71"/>
-      <c r="V64" s="71"/>
-      <c r="W64" s="71"/>
-      <c r="X64" s="71"/>
-      <c r="Y64" s="71"/>
-      <c r="Z64" s="71"/>
-      <c r="AA64" s="71"/>
-      <c r="AB64" s="71"/>
-      <c r="AC64" s="72"/>
+      <c r="M64" s="69" t="s">
+        <v>58</v>
+      </c>
+      <c r="N64" s="70"/>
+      <c r="O64" s="70"/>
+      <c r="P64" s="70"/>
+      <c r="Q64" s="70"/>
+      <c r="R64" s="70"/>
+      <c r="S64" s="70"/>
+      <c r="T64" s="70"/>
+      <c r="U64" s="70"/>
+      <c r="V64" s="70"/>
+      <c r="W64" s="70"/>
+      <c r="X64" s="70"/>
+      <c r="Y64" s="70"/>
+      <c r="Z64" s="70"/>
+      <c r="AA64" s="70"/>
+      <c r="AB64" s="70"/>
+      <c r="AC64" s="71"/>
       <c r="AF64"/>
       <c r="AG64"/>
       <c r="AH64"/>
@@ -5529,7 +5546,7 @@
       <c r="AM64" s="6"/>
       <c r="AO64" s="7"/>
     </row>
-    <row r="65" spans="1:41" ht="20" customHeight="1">
+    <row r="65" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A65" s="22"/>
       <c r="B65" s="1"/>
       <c r="C65" s="22" t="s">
@@ -5539,25 +5556,25 @@
       <c r="E65" s="1"/>
       <c r="F65" s="14"/>
       <c r="G65" s="1"/>
-      <c r="M65" s="70" t="s">
-        <v>60</v>
-      </c>
-      <c r="N65" s="71"/>
-      <c r="O65" s="71"/>
-      <c r="P65" s="71"/>
-      <c r="Q65" s="71"/>
-      <c r="R65" s="71"/>
-      <c r="S65" s="71"/>
-      <c r="T65" s="71"/>
-      <c r="U65" s="71"/>
-      <c r="V65" s="71"/>
-      <c r="W65" s="71"/>
-      <c r="X65" s="71"/>
-      <c r="Y65" s="71"/>
-      <c r="Z65" s="71"/>
-      <c r="AA65" s="71"/>
-      <c r="AB65" s="71"/>
-      <c r="AC65" s="72"/>
+      <c r="M65" s="69" t="s">
+        <v>59</v>
+      </c>
+      <c r="N65" s="70"/>
+      <c r="O65" s="70"/>
+      <c r="P65" s="70"/>
+      <c r="Q65" s="70"/>
+      <c r="R65" s="70"/>
+      <c r="S65" s="70"/>
+      <c r="T65" s="70"/>
+      <c r="U65" s="70"/>
+      <c r="V65" s="70"/>
+      <c r="W65" s="70"/>
+      <c r="X65" s="70"/>
+      <c r="Y65" s="70"/>
+      <c r="Z65" s="70"/>
+      <c r="AA65" s="70"/>
+      <c r="AB65" s="70"/>
+      <c r="AC65" s="71"/>
       <c r="AF65"/>
       <c r="AG65"/>
       <c r="AH65"/>
@@ -5568,7 +5585,7 @@
       <c r="AM65" s="6"/>
       <c r="AO65" s="7"/>
     </row>
-    <row r="66" spans="1:41" ht="20" customHeight="1">
+    <row r="66" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A66" s="22"/>
       <c r="B66" s="1"/>
       <c r="C66" s="22"/>
@@ -5576,25 +5593,25 @@
       <c r="E66" s="1"/>
       <c r="F66" s="14"/>
       <c r="G66" s="1"/>
-      <c r="M66" s="70" t="s">
-        <v>55</v>
-      </c>
-      <c r="N66" s="71"/>
-      <c r="O66" s="71"/>
-      <c r="P66" s="71"/>
-      <c r="Q66" s="71"/>
-      <c r="R66" s="71"/>
-      <c r="S66" s="71"/>
-      <c r="T66" s="71"/>
-      <c r="U66" s="71"/>
-      <c r="V66" s="71"/>
-      <c r="W66" s="71"/>
-      <c r="X66" s="71"/>
-      <c r="Y66" s="71"/>
-      <c r="Z66" s="71"/>
-      <c r="AA66" s="71"/>
-      <c r="AB66" s="71"/>
-      <c r="AC66" s="72"/>
+      <c r="M66" s="69" t="s">
+        <v>54</v>
+      </c>
+      <c r="N66" s="70"/>
+      <c r="O66" s="70"/>
+      <c r="P66" s="70"/>
+      <c r="Q66" s="70"/>
+      <c r="R66" s="70"/>
+      <c r="S66" s="70"/>
+      <c r="T66" s="70"/>
+      <c r="U66" s="70"/>
+      <c r="V66" s="70"/>
+      <c r="W66" s="70"/>
+      <c r="X66" s="70"/>
+      <c r="Y66" s="70"/>
+      <c r="Z66" s="70"/>
+      <c r="AA66" s="70"/>
+      <c r="AB66" s="70"/>
+      <c r="AC66" s="71"/>
       <c r="AF66"/>
       <c r="AG66"/>
       <c r="AH66"/>
@@ -5605,7 +5622,7 @@
       <c r="AM66" s="6"/>
       <c r="AO66" s="7"/>
     </row>
-    <row r="67" spans="1:41" ht="20" customHeight="1">
+    <row r="67" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A67" s="22"/>
       <c r="B67" s="1"/>
       <c r="C67" s="22"/>
@@ -5613,25 +5630,25 @@
       <c r="E67" s="1"/>
       <c r="F67" s="14"/>
       <c r="G67" s="1"/>
-      <c r="M67" s="70" t="s">
-        <v>61</v>
-      </c>
-      <c r="N67" s="71"/>
-      <c r="O67" s="71"/>
-      <c r="P67" s="71"/>
-      <c r="Q67" s="71"/>
-      <c r="R67" s="71"/>
-      <c r="S67" s="71"/>
-      <c r="T67" s="71"/>
-      <c r="U67" s="71"/>
-      <c r="V67" s="71"/>
-      <c r="W67" s="71"/>
-      <c r="X67" s="71"/>
-      <c r="Y67" s="71"/>
-      <c r="Z67" s="71"/>
-      <c r="AA67" s="71"/>
-      <c r="AB67" s="71"/>
-      <c r="AC67" s="72"/>
+      <c r="M67" s="69" t="s">
+        <v>60</v>
+      </c>
+      <c r="N67" s="70"/>
+      <c r="O67" s="70"/>
+      <c r="P67" s="70"/>
+      <c r="Q67" s="70"/>
+      <c r="R67" s="70"/>
+      <c r="S67" s="70"/>
+      <c r="T67" s="70"/>
+      <c r="U67" s="70"/>
+      <c r="V67" s="70"/>
+      <c r="W67" s="70"/>
+      <c r="X67" s="70"/>
+      <c r="Y67" s="70"/>
+      <c r="Z67" s="70"/>
+      <c r="AA67" s="70"/>
+      <c r="AB67" s="70"/>
+      <c r="AC67" s="71"/>
       <c r="AF67"/>
       <c r="AG67"/>
       <c r="AH67"/>
@@ -5642,7 +5659,7 @@
       <c r="AM67" s="6"/>
       <c r="AO67" s="7"/>
     </row>
-    <row r="68" spans="1:41" ht="20" customHeight="1">
+    <row r="68" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A68" s="22"/>
       <c r="B68" s="1"/>
       <c r="C68" s="22"/>
@@ -5650,25 +5667,25 @@
       <c r="E68" s="1"/>
       <c r="F68" s="14"/>
       <c r="G68" s="1"/>
-      <c r="M68" s="70" t="s">
-        <v>62</v>
-      </c>
-      <c r="N68" s="71"/>
-      <c r="O68" s="71"/>
-      <c r="P68" s="71"/>
-      <c r="Q68" s="71"/>
-      <c r="R68" s="71"/>
-      <c r="S68" s="71"/>
-      <c r="T68" s="71"/>
-      <c r="U68" s="71"/>
-      <c r="V68" s="71"/>
-      <c r="W68" s="71"/>
-      <c r="X68" s="71"/>
-      <c r="Y68" s="71"/>
-      <c r="Z68" s="71"/>
-      <c r="AA68" s="71"/>
-      <c r="AB68" s="71"/>
-      <c r="AC68" s="72"/>
+      <c r="M68" s="69" t="s">
+        <v>61</v>
+      </c>
+      <c r="N68" s="70"/>
+      <c r="O68" s="70"/>
+      <c r="P68" s="70"/>
+      <c r="Q68" s="70"/>
+      <c r="R68" s="70"/>
+      <c r="S68" s="70"/>
+      <c r="T68" s="70"/>
+      <c r="U68" s="70"/>
+      <c r="V68" s="70"/>
+      <c r="W68" s="70"/>
+      <c r="X68" s="70"/>
+      <c r="Y68" s="70"/>
+      <c r="Z68" s="70"/>
+      <c r="AA68" s="70"/>
+      <c r="AB68" s="70"/>
+      <c r="AC68" s="71"/>
       <c r="AF68"/>
       <c r="AG68"/>
       <c r="AH68"/>
@@ -5679,7 +5696,7 @@
       <c r="AM68" s="6"/>
       <c r="AO68" s="7"/>
     </row>
-    <row r="69" spans="1:41" ht="20" customHeight="1">
+    <row r="69" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A69" s="22"/>
       <c r="B69" s="1"/>
       <c r="C69" s="22"/>
@@ -5687,25 +5704,25 @@
       <c r="E69" s="1"/>
       <c r="F69" s="14"/>
       <c r="G69" s="1"/>
-      <c r="M69" s="70" t="s">
-        <v>63</v>
-      </c>
-      <c r="N69" s="71"/>
-      <c r="O69" s="71"/>
-      <c r="P69" s="71"/>
-      <c r="Q69" s="71"/>
-      <c r="R69" s="71"/>
-      <c r="S69" s="71"/>
-      <c r="T69" s="71"/>
-      <c r="U69" s="71"/>
-      <c r="V69" s="71"/>
-      <c r="W69" s="71"/>
-      <c r="X69" s="71"/>
-      <c r="Y69" s="71"/>
-      <c r="Z69" s="71"/>
-      <c r="AA69" s="71"/>
-      <c r="AB69" s="71"/>
-      <c r="AC69" s="72"/>
+      <c r="M69" s="69" t="s">
+        <v>62</v>
+      </c>
+      <c r="N69" s="70"/>
+      <c r="O69" s="70"/>
+      <c r="P69" s="70"/>
+      <c r="Q69" s="70"/>
+      <c r="R69" s="70"/>
+      <c r="S69" s="70"/>
+      <c r="T69" s="70"/>
+      <c r="U69" s="70"/>
+      <c r="V69" s="70"/>
+      <c r="W69" s="70"/>
+      <c r="X69" s="70"/>
+      <c r="Y69" s="70"/>
+      <c r="Z69" s="70"/>
+      <c r="AA69" s="70"/>
+      <c r="AB69" s="70"/>
+      <c r="AC69" s="71"/>
       <c r="AF69"/>
       <c r="AG69"/>
       <c r="AH69"/>
@@ -5716,7 +5733,7 @@
       <c r="AM69" s="6"/>
       <c r="AO69" s="7"/>
     </row>
-    <row r="70" spans="1:41" ht="20" customHeight="1">
+    <row r="70" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A70" s="22"/>
       <c r="B70" s="1"/>
       <c r="C70" s="22"/>
@@ -5724,25 +5741,25 @@
       <c r="E70" s="1"/>
       <c r="F70" s="14"/>
       <c r="G70" s="1"/>
-      <c r="M70" s="70" t="s">
-        <v>64</v>
-      </c>
-      <c r="N70" s="71"/>
-      <c r="O70" s="71"/>
-      <c r="P70" s="71"/>
-      <c r="Q70" s="71"/>
-      <c r="R70" s="71"/>
-      <c r="S70" s="71"/>
-      <c r="T70" s="71"/>
-      <c r="U70" s="71"/>
-      <c r="V70" s="71"/>
-      <c r="W70" s="71"/>
-      <c r="X70" s="71"/>
-      <c r="Y70" s="71"/>
-      <c r="Z70" s="71"/>
-      <c r="AA70" s="71"/>
-      <c r="AB70" s="71"/>
-      <c r="AC70" s="72"/>
+      <c r="M70" s="69" t="s">
+        <v>63</v>
+      </c>
+      <c r="N70" s="70"/>
+      <c r="O70" s="70"/>
+      <c r="P70" s="70"/>
+      <c r="Q70" s="70"/>
+      <c r="R70" s="70"/>
+      <c r="S70" s="70"/>
+      <c r="T70" s="70"/>
+      <c r="U70" s="70"/>
+      <c r="V70" s="70"/>
+      <c r="W70" s="70"/>
+      <c r="X70" s="70"/>
+      <c r="Y70" s="70"/>
+      <c r="Z70" s="70"/>
+      <c r="AA70" s="70"/>
+      <c r="AB70" s="70"/>
+      <c r="AC70" s="71"/>
       <c r="AF70"/>
       <c r="AG70"/>
       <c r="AH70"/>
@@ -5753,7 +5770,7 @@
       <c r="AM70" s="6"/>
       <c r="AO70" s="7"/>
     </row>
-    <row r="71" spans="1:41" ht="20" customHeight="1">
+    <row r="71" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A71" s="22"/>
       <c r="B71" s="1"/>
       <c r="C71" s="22"/>
@@ -5761,25 +5778,25 @@
       <c r="E71" s="1"/>
       <c r="F71" s="14"/>
       <c r="G71" s="1"/>
-      <c r="M71" s="70" t="s">
-        <v>65</v>
-      </c>
-      <c r="N71" s="71"/>
-      <c r="O71" s="71"/>
-      <c r="P71" s="71"/>
-      <c r="Q71" s="71"/>
-      <c r="R71" s="71"/>
-      <c r="S71" s="71"/>
-      <c r="T71" s="71"/>
-      <c r="U71" s="71"/>
-      <c r="V71" s="71"/>
-      <c r="W71" s="71"/>
-      <c r="X71" s="71"/>
-      <c r="Y71" s="71"/>
-      <c r="Z71" s="71"/>
-      <c r="AA71" s="71"/>
-      <c r="AB71" s="71"/>
-      <c r="AC71" s="72"/>
+      <c r="M71" s="69" t="s">
+        <v>64</v>
+      </c>
+      <c r="N71" s="70"/>
+      <c r="O71" s="70"/>
+      <c r="P71" s="70"/>
+      <c r="Q71" s="70"/>
+      <c r="R71" s="70"/>
+      <c r="S71" s="70"/>
+      <c r="T71" s="70"/>
+      <c r="U71" s="70"/>
+      <c r="V71" s="70"/>
+      <c r="W71" s="70"/>
+      <c r="X71" s="70"/>
+      <c r="Y71" s="70"/>
+      <c r="Z71" s="70"/>
+      <c r="AA71" s="70"/>
+      <c r="AB71" s="70"/>
+      <c r="AC71" s="71"/>
       <c r="AF71"/>
       <c r="AG71"/>
       <c r="AH71"/>
@@ -5790,7 +5807,7 @@
       <c r="AM71" s="6"/>
       <c r="AO71" s="7"/>
     </row>
-    <row r="72" spans="1:41" ht="20" customHeight="1">
+    <row r="72" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A72" s="22"/>
       <c r="B72" s="1"/>
       <c r="C72" s="22"/>
@@ -5808,7 +5825,7 @@
       <c r="AM72" s="6"/>
       <c r="AO72" s="7"/>
     </row>
-    <row r="73" spans="1:41" ht="20" customHeight="1">
+    <row r="73" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A73" s="22"/>
       <c r="B73" s="1"/>
       <c r="C73" s="22"/>
@@ -5826,7 +5843,7 @@
       <c r="AM73" s="6"/>
       <c r="AO73" s="7"/>
     </row>
-    <row r="74" spans="1:41" ht="20" customHeight="1">
+    <row r="74" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A74" s="22"/>
       <c r="B74" s="1"/>
       <c r="C74" s="22"/>
@@ -5847,7 +5864,7 @@
       <c r="AM74" s="6"/>
       <c r="AO74" s="7"/>
     </row>
-    <row r="75" spans="1:41" ht="20" customHeight="1">
+    <row r="75" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A75" s="22"/>
       <c r="B75" s="1"/>
       <c r="C75" s="22"/>
@@ -5872,7 +5889,7 @@
       <c r="AM75" s="6"/>
       <c r="AO75" s="7"/>
     </row>
-    <row r="76" spans="1:41" ht="20" customHeight="1">
+    <row r="76" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A76" s="22"/>
       <c r="B76" s="1"/>
       <c r="C76" s="22"/>
@@ -5897,7 +5914,7 @@
       <c r="AM76" s="6"/>
       <c r="AO76" s="7"/>
     </row>
-    <row r="77" spans="1:41" ht="20" customHeight="1">
+    <row r="77" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A77" s="22"/>
       <c r="B77" s="1"/>
       <c r="C77" s="22"/>
@@ -5939,7 +5956,7 @@
       <c r="AM77" s="6"/>
       <c r="AO77" s="7"/>
     </row>
-    <row r="78" spans="1:41" ht="20" customHeight="1">
+    <row r="78" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A78" s="22"/>
       <c r="B78" s="26"/>
       <c r="C78" s="33"/>
@@ -5981,7 +5998,7 @@
       <c r="AM78" s="6"/>
       <c r="AO78" s="7"/>
     </row>
-    <row r="79" spans="1:41" ht="20" customHeight="1">
+    <row r="79" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A79" s="22"/>
       <c r="B79" s="26"/>
       <c r="C79" s="26"/>
@@ -6023,10 +6040,10 @@
       <c r="AM79" s="6"/>
       <c r="AO79" s="7"/>
     </row>
-    <row r="80" spans="1:41" ht="20" customHeight="1">
+    <row r="80" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A80" s="22"/>
       <c r="B80" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
@@ -6067,15 +6084,15 @@
       <c r="AM80" s="6"/>
       <c r="AO80" s="7"/>
     </row>
-    <row r="81" spans="1:41" ht="20" customHeight="1">
+    <row r="81" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A81" s="22"/>
       <c r="B81" s="1"/>
-      <c r="C81" s="101" t="s">
+      <c r="C81" s="73" t="s">
         <v>27</v>
       </c>
-      <c r="D81" s="102"/>
-      <c r="E81" s="102"/>
-      <c r="F81" s="103"/>
+      <c r="D81" s="74"/>
+      <c r="E81" s="74"/>
+      <c r="F81" s="75"/>
       <c r="G81" s="21"/>
       <c r="H81" s="12"/>
       <c r="I81" s="12"/>
@@ -6111,13 +6128,13 @@
       <c r="AM81" s="6"/>
       <c r="AO81" s="7"/>
     </row>
-    <row r="82" spans="1:41" ht="20" customHeight="1">
+    <row r="82" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A82" s="22"/>
       <c r="B82" s="1"/>
-      <c r="C82" s="104"/>
-      <c r="D82" s="105"/>
-      <c r="E82" s="105"/>
-      <c r="F82" s="106"/>
+      <c r="C82" s="76"/>
+      <c r="D82" s="77"/>
+      <c r="E82" s="77"/>
+      <c r="F82" s="78"/>
       <c r="G82" s="23"/>
       <c r="H82" s="15"/>
       <c r="I82" s="15"/>
@@ -6153,7 +6170,7 @@
       <c r="AM82" s="6"/>
       <c r="AO82" s="7"/>
     </row>
-    <row r="83" spans="1:41" ht="20" customHeight="1">
+    <row r="83" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A83" s="22"/>
       <c r="B83" s="1"/>
       <c r="C83" s="22" t="s">
@@ -6163,7 +6180,7 @@
       <c r="E83" s="1"/>
       <c r="F83" s="14"/>
       <c r="G83" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H83" s="1"/>
       <c r="I83" s="1"/>
@@ -6199,7 +6216,7 @@
       <c r="AM83" s="6"/>
       <c r="AO83" s="7"/>
     </row>
-    <row r="84" spans="1:41" ht="20" customHeight="1">
+    <row r="84" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A84" s="22"/>
       <c r="B84" s="1"/>
       <c r="C84" s="22"/>
@@ -6217,10 +6234,10 @@
       </c>
       <c r="N84" s="1"/>
       <c r="P84" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="R84" s="64" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="S84" s="65"/>
       <c r="T84" s="65"/>
@@ -6244,18 +6261,18 @@
       <c r="AM84" s="6"/>
       <c r="AO84" s="7"/>
     </row>
-    <row r="85" spans="1:41" ht="20" customHeight="1">
+    <row r="85" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A85" s="22"/>
       <c r="B85" s="1"/>
       <c r="C85" s="22" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D85" s="1"/>
       <c r="E85" s="1"/>
       <c r="F85" s="14"/>
       <c r="G85" s="1"/>
       <c r="P85" s="37" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AF85" s="26"/>
       <c r="AG85" s="26"/>
@@ -6267,7 +6284,7 @@
       <c r="AM85" s="6"/>
       <c r="AO85" s="7"/>
     </row>
-    <row r="86" spans="1:41" ht="20" customHeight="1">
+    <row r="86" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A86" s="22"/>
       <c r="B86" s="1"/>
       <c r="C86" s="22"/>
@@ -6275,25 +6292,25 @@
       <c r="E86" s="1"/>
       <c r="F86" s="14"/>
       <c r="G86" s="1"/>
-      <c r="M86" s="70" t="s">
-        <v>57</v>
-      </c>
-      <c r="N86" s="71"/>
-      <c r="O86" s="71"/>
-      <c r="P86" s="71"/>
-      <c r="Q86" s="71"/>
-      <c r="R86" s="71"/>
-      <c r="S86" s="71"/>
-      <c r="T86" s="71"/>
-      <c r="U86" s="71"/>
-      <c r="V86" s="71"/>
-      <c r="W86" s="71"/>
-      <c r="X86" s="71"/>
-      <c r="Y86" s="71"/>
-      <c r="Z86" s="71"/>
-      <c r="AA86" s="71"/>
-      <c r="AB86" s="71"/>
-      <c r="AC86" s="72"/>
+      <c r="M86" s="69" t="s">
+        <v>56</v>
+      </c>
+      <c r="N86" s="70"/>
+      <c r="O86" s="70"/>
+      <c r="P86" s="70"/>
+      <c r="Q86" s="70"/>
+      <c r="R86" s="70"/>
+      <c r="S86" s="70"/>
+      <c r="T86" s="70"/>
+      <c r="U86" s="70"/>
+      <c r="V86" s="70"/>
+      <c r="W86" s="70"/>
+      <c r="X86" s="70"/>
+      <c r="Y86" s="70"/>
+      <c r="Z86" s="70"/>
+      <c r="AA86" s="70"/>
+      <c r="AB86" s="70"/>
+      <c r="AC86" s="71"/>
       <c r="AF86"/>
       <c r="AG86"/>
       <c r="AH86"/>
@@ -6304,7 +6321,7 @@
       <c r="AM86" s="6"/>
       <c r="AO86" s="7"/>
     </row>
-    <row r="87" spans="1:41" ht="20" customHeight="1">
+    <row r="87" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A87" s="22"/>
       <c r="B87" s="1"/>
       <c r="C87" s="22" t="s">
@@ -6314,25 +6331,25 @@
       <c r="E87" s="1"/>
       <c r="F87" s="14"/>
       <c r="G87" s="1"/>
-      <c r="M87" s="70" t="s">
-        <v>58</v>
-      </c>
-      <c r="N87" s="71"/>
-      <c r="O87" s="71"/>
-      <c r="P87" s="71"/>
-      <c r="Q87" s="71"/>
-      <c r="R87" s="71"/>
-      <c r="S87" s="71"/>
-      <c r="T87" s="71"/>
-      <c r="U87" s="71"/>
-      <c r="V87" s="71"/>
-      <c r="W87" s="71"/>
-      <c r="X87" s="71"/>
-      <c r="Y87" s="71"/>
-      <c r="Z87" s="71"/>
-      <c r="AA87" s="71"/>
-      <c r="AB87" s="71"/>
-      <c r="AC87" s="72"/>
+      <c r="M87" s="69" t="s">
+        <v>57</v>
+      </c>
+      <c r="N87" s="70"/>
+      <c r="O87" s="70"/>
+      <c r="P87" s="70"/>
+      <c r="Q87" s="70"/>
+      <c r="R87" s="70"/>
+      <c r="S87" s="70"/>
+      <c r="T87" s="70"/>
+      <c r="U87" s="70"/>
+      <c r="V87" s="70"/>
+      <c r="W87" s="70"/>
+      <c r="X87" s="70"/>
+      <c r="Y87" s="70"/>
+      <c r="Z87" s="70"/>
+      <c r="AA87" s="70"/>
+      <c r="AB87" s="70"/>
+      <c r="AC87" s="71"/>
       <c r="AF87"/>
       <c r="AG87"/>
       <c r="AH87"/>
@@ -6343,7 +6360,7 @@
       <c r="AM87" s="6"/>
       <c r="AO87" s="7"/>
     </row>
-    <row r="88" spans="1:41" ht="20" customHeight="1">
+    <row r="88" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A88" s="22"/>
       <c r="B88" s="1"/>
       <c r="C88" s="22"/>
@@ -6351,25 +6368,25 @@
       <c r="E88" s="1"/>
       <c r="F88" s="14"/>
       <c r="G88" s="1"/>
-      <c r="M88" s="70" t="s">
-        <v>59</v>
-      </c>
-      <c r="N88" s="71"/>
-      <c r="O88" s="71"/>
-      <c r="P88" s="71"/>
-      <c r="Q88" s="71"/>
-      <c r="R88" s="71"/>
-      <c r="S88" s="71"/>
-      <c r="T88" s="71"/>
-      <c r="U88" s="71"/>
-      <c r="V88" s="71"/>
-      <c r="W88" s="71"/>
-      <c r="X88" s="71"/>
-      <c r="Y88" s="71"/>
-      <c r="Z88" s="71"/>
-      <c r="AA88" s="71"/>
-      <c r="AB88" s="71"/>
-      <c r="AC88" s="72"/>
+      <c r="M88" s="69" t="s">
+        <v>58</v>
+      </c>
+      <c r="N88" s="70"/>
+      <c r="O88" s="70"/>
+      <c r="P88" s="70"/>
+      <c r="Q88" s="70"/>
+      <c r="R88" s="70"/>
+      <c r="S88" s="70"/>
+      <c r="T88" s="70"/>
+      <c r="U88" s="70"/>
+      <c r="V88" s="70"/>
+      <c r="W88" s="70"/>
+      <c r="X88" s="70"/>
+      <c r="Y88" s="70"/>
+      <c r="Z88" s="70"/>
+      <c r="AA88" s="70"/>
+      <c r="AB88" s="70"/>
+      <c r="AC88" s="71"/>
       <c r="AF88"/>
       <c r="AG88"/>
       <c r="AH88"/>
@@ -6380,7 +6397,7 @@
       <c r="AM88" s="6"/>
       <c r="AO88" s="7"/>
     </row>
-    <row r="89" spans="1:41" ht="20" customHeight="1">
+    <row r="89" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A89" s="22"/>
       <c r="B89" s="1"/>
       <c r="C89" s="22" t="s">
@@ -6390,25 +6407,25 @@
       <c r="E89" s="1"/>
       <c r="F89" s="14"/>
       <c r="G89" s="1"/>
-      <c r="M89" s="70" t="s">
-        <v>60</v>
-      </c>
-      <c r="N89" s="71"/>
-      <c r="O89" s="71"/>
-      <c r="P89" s="71"/>
-      <c r="Q89" s="71"/>
-      <c r="R89" s="71"/>
-      <c r="S89" s="71"/>
-      <c r="T89" s="71"/>
-      <c r="U89" s="71"/>
-      <c r="V89" s="71"/>
-      <c r="W89" s="71"/>
-      <c r="X89" s="71"/>
-      <c r="Y89" s="71"/>
-      <c r="Z89" s="71"/>
-      <c r="AA89" s="71"/>
-      <c r="AB89" s="71"/>
-      <c r="AC89" s="72"/>
+      <c r="M89" s="69" t="s">
+        <v>59</v>
+      </c>
+      <c r="N89" s="70"/>
+      <c r="O89" s="70"/>
+      <c r="P89" s="70"/>
+      <c r="Q89" s="70"/>
+      <c r="R89" s="70"/>
+      <c r="S89" s="70"/>
+      <c r="T89" s="70"/>
+      <c r="U89" s="70"/>
+      <c r="V89" s="70"/>
+      <c r="W89" s="70"/>
+      <c r="X89" s="70"/>
+      <c r="Y89" s="70"/>
+      <c r="Z89" s="70"/>
+      <c r="AA89" s="70"/>
+      <c r="AB89" s="70"/>
+      <c r="AC89" s="71"/>
       <c r="AF89"/>
       <c r="AG89"/>
       <c r="AH89"/>
@@ -6419,7 +6436,7 @@
       <c r="AM89" s="6"/>
       <c r="AO89" s="7"/>
     </row>
-    <row r="90" spans="1:41" ht="20" customHeight="1">
+    <row r="90" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A90" s="22"/>
       <c r="B90" s="1"/>
       <c r="C90" s="22"/>
@@ -6427,25 +6444,25 @@
       <c r="E90" s="1"/>
       <c r="F90" s="14"/>
       <c r="G90" s="1"/>
-      <c r="M90" s="70" t="s">
-        <v>55</v>
-      </c>
-      <c r="N90" s="71"/>
-      <c r="O90" s="71"/>
-      <c r="P90" s="71"/>
-      <c r="Q90" s="71"/>
-      <c r="R90" s="71"/>
-      <c r="S90" s="71"/>
-      <c r="T90" s="71"/>
-      <c r="U90" s="71"/>
-      <c r="V90" s="71"/>
-      <c r="W90" s="71"/>
-      <c r="X90" s="71"/>
-      <c r="Y90" s="71"/>
-      <c r="Z90" s="71"/>
-      <c r="AA90" s="71"/>
-      <c r="AB90" s="71"/>
-      <c r="AC90" s="72"/>
+      <c r="M90" s="69" t="s">
+        <v>54</v>
+      </c>
+      <c r="N90" s="70"/>
+      <c r="O90" s="70"/>
+      <c r="P90" s="70"/>
+      <c r="Q90" s="70"/>
+      <c r="R90" s="70"/>
+      <c r="S90" s="70"/>
+      <c r="T90" s="70"/>
+      <c r="U90" s="70"/>
+      <c r="V90" s="70"/>
+      <c r="W90" s="70"/>
+      <c r="X90" s="70"/>
+      <c r="Y90" s="70"/>
+      <c r="Z90" s="70"/>
+      <c r="AA90" s="70"/>
+      <c r="AB90" s="70"/>
+      <c r="AC90" s="71"/>
       <c r="AF90"/>
       <c r="AG90"/>
       <c r="AH90"/>
@@ -6456,7 +6473,7 @@
       <c r="AM90" s="6"/>
       <c r="AO90" s="7"/>
     </row>
-    <row r="91" spans="1:41" ht="20" customHeight="1">
+    <row r="91" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A91" s="22"/>
       <c r="B91" s="1"/>
       <c r="C91" s="22"/>
@@ -6464,25 +6481,25 @@
       <c r="E91" s="1"/>
       <c r="F91" s="14"/>
       <c r="G91" s="1"/>
-      <c r="M91" s="70" t="s">
-        <v>61</v>
-      </c>
-      <c r="N91" s="71"/>
-      <c r="O91" s="71"/>
-      <c r="P91" s="71"/>
-      <c r="Q91" s="71"/>
-      <c r="R91" s="71"/>
-      <c r="S91" s="71"/>
-      <c r="T91" s="71"/>
-      <c r="U91" s="71"/>
-      <c r="V91" s="71"/>
-      <c r="W91" s="71"/>
-      <c r="X91" s="71"/>
-      <c r="Y91" s="71"/>
-      <c r="Z91" s="71"/>
-      <c r="AA91" s="71"/>
-      <c r="AB91" s="71"/>
-      <c r="AC91" s="72"/>
+      <c r="M91" s="69" t="s">
+        <v>60</v>
+      </c>
+      <c r="N91" s="70"/>
+      <c r="O91" s="70"/>
+      <c r="P91" s="70"/>
+      <c r="Q91" s="70"/>
+      <c r="R91" s="70"/>
+      <c r="S91" s="70"/>
+      <c r="T91" s="70"/>
+      <c r="U91" s="70"/>
+      <c r="V91" s="70"/>
+      <c r="W91" s="70"/>
+      <c r="X91" s="70"/>
+      <c r="Y91" s="70"/>
+      <c r="Z91" s="70"/>
+      <c r="AA91" s="70"/>
+      <c r="AB91" s="70"/>
+      <c r="AC91" s="71"/>
       <c r="AF91"/>
       <c r="AG91"/>
       <c r="AH91"/>
@@ -6493,7 +6510,7 @@
       <c r="AM91" s="6"/>
       <c r="AO91" s="7"/>
     </row>
-    <row r="92" spans="1:41" ht="20" customHeight="1">
+    <row r="92" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A92" s="22"/>
       <c r="B92" s="1"/>
       <c r="C92" s="22"/>
@@ -6501,25 +6518,25 @@
       <c r="E92" s="1"/>
       <c r="F92" s="14"/>
       <c r="G92" s="1"/>
-      <c r="M92" s="70" t="s">
-        <v>62</v>
-      </c>
-      <c r="N92" s="71"/>
-      <c r="O92" s="71"/>
-      <c r="P92" s="71"/>
-      <c r="Q92" s="71"/>
-      <c r="R92" s="71"/>
-      <c r="S92" s="71"/>
-      <c r="T92" s="71"/>
-      <c r="U92" s="71"/>
-      <c r="V92" s="71"/>
-      <c r="W92" s="71"/>
-      <c r="X92" s="71"/>
-      <c r="Y92" s="71"/>
-      <c r="Z92" s="71"/>
-      <c r="AA92" s="71"/>
-      <c r="AB92" s="71"/>
-      <c r="AC92" s="72"/>
+      <c r="M92" s="69" t="s">
+        <v>61</v>
+      </c>
+      <c r="N92" s="70"/>
+      <c r="O92" s="70"/>
+      <c r="P92" s="70"/>
+      <c r="Q92" s="70"/>
+      <c r="R92" s="70"/>
+      <c r="S92" s="70"/>
+      <c r="T92" s="70"/>
+      <c r="U92" s="70"/>
+      <c r="V92" s="70"/>
+      <c r="W92" s="70"/>
+      <c r="X92" s="70"/>
+      <c r="Y92" s="70"/>
+      <c r="Z92" s="70"/>
+      <c r="AA92" s="70"/>
+      <c r="AB92" s="70"/>
+      <c r="AC92" s="71"/>
       <c r="AF92"/>
       <c r="AG92"/>
       <c r="AH92"/>
@@ -6530,7 +6547,7 @@
       <c r="AM92" s="6"/>
       <c r="AO92" s="7"/>
     </row>
-    <row r="93" spans="1:41" ht="20" customHeight="1">
+    <row r="93" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A93" s="22"/>
       <c r="B93" s="1"/>
       <c r="C93" s="22"/>
@@ -6538,25 +6555,25 @@
       <c r="E93" s="1"/>
       <c r="F93" s="14"/>
       <c r="G93" s="1"/>
-      <c r="M93" s="70" t="s">
-        <v>63</v>
-      </c>
-      <c r="N93" s="71"/>
-      <c r="O93" s="71"/>
-      <c r="P93" s="71"/>
-      <c r="Q93" s="71"/>
-      <c r="R93" s="71"/>
-      <c r="S93" s="71"/>
-      <c r="T93" s="71"/>
-      <c r="U93" s="71"/>
-      <c r="V93" s="71"/>
-      <c r="W93" s="71"/>
-      <c r="X93" s="71"/>
-      <c r="Y93" s="71"/>
-      <c r="Z93" s="71"/>
-      <c r="AA93" s="71"/>
-      <c r="AB93" s="71"/>
-      <c r="AC93" s="72"/>
+      <c r="M93" s="69" t="s">
+        <v>62</v>
+      </c>
+      <c r="N93" s="70"/>
+      <c r="O93" s="70"/>
+      <c r="P93" s="70"/>
+      <c r="Q93" s="70"/>
+      <c r="R93" s="70"/>
+      <c r="S93" s="70"/>
+      <c r="T93" s="70"/>
+      <c r="U93" s="70"/>
+      <c r="V93" s="70"/>
+      <c r="W93" s="70"/>
+      <c r="X93" s="70"/>
+      <c r="Y93" s="70"/>
+      <c r="Z93" s="70"/>
+      <c r="AA93" s="70"/>
+      <c r="AB93" s="70"/>
+      <c r="AC93" s="71"/>
       <c r="AF93"/>
       <c r="AG93"/>
       <c r="AH93"/>
@@ -6567,7 +6584,7 @@
       <c r="AM93" s="6"/>
       <c r="AO93" s="7"/>
     </row>
-    <row r="94" spans="1:41" ht="20" customHeight="1">
+    <row r="94" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A94" s="22"/>
       <c r="B94" s="1"/>
       <c r="C94" s="22"/>
@@ -6575,25 +6592,25 @@
       <c r="E94" s="1"/>
       <c r="F94" s="14"/>
       <c r="G94" s="1"/>
-      <c r="M94" s="70" t="s">
-        <v>64</v>
-      </c>
-      <c r="N94" s="71"/>
-      <c r="O94" s="71"/>
-      <c r="P94" s="71"/>
-      <c r="Q94" s="71"/>
-      <c r="R94" s="71"/>
-      <c r="S94" s="71"/>
-      <c r="T94" s="71"/>
-      <c r="U94" s="71"/>
-      <c r="V94" s="71"/>
-      <c r="W94" s="71"/>
-      <c r="X94" s="71"/>
-      <c r="Y94" s="71"/>
-      <c r="Z94" s="71"/>
-      <c r="AA94" s="71"/>
-      <c r="AB94" s="71"/>
-      <c r="AC94" s="72"/>
+      <c r="M94" s="69" t="s">
+        <v>63</v>
+      </c>
+      <c r="N94" s="70"/>
+      <c r="O94" s="70"/>
+      <c r="P94" s="70"/>
+      <c r="Q94" s="70"/>
+      <c r="R94" s="70"/>
+      <c r="S94" s="70"/>
+      <c r="T94" s="70"/>
+      <c r="U94" s="70"/>
+      <c r="V94" s="70"/>
+      <c r="W94" s="70"/>
+      <c r="X94" s="70"/>
+      <c r="Y94" s="70"/>
+      <c r="Z94" s="70"/>
+      <c r="AA94" s="70"/>
+      <c r="AB94" s="70"/>
+      <c r="AC94" s="71"/>
       <c r="AF94"/>
       <c r="AG94"/>
       <c r="AH94"/>
@@ -6604,7 +6621,7 @@
       <c r="AM94" s="6"/>
       <c r="AO94" s="7"/>
     </row>
-    <row r="95" spans="1:41" ht="20" customHeight="1">
+    <row r="95" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A95" s="22"/>
       <c r="B95" s="1"/>
       <c r="C95" s="22"/>
@@ -6612,25 +6629,25 @@
       <c r="E95" s="1"/>
       <c r="F95" s="14"/>
       <c r="G95" s="1"/>
-      <c r="M95" s="70" t="s">
-        <v>65</v>
-      </c>
-      <c r="N95" s="71"/>
-      <c r="O95" s="71"/>
-      <c r="P95" s="71"/>
-      <c r="Q95" s="71"/>
-      <c r="R95" s="71"/>
-      <c r="S95" s="71"/>
-      <c r="T95" s="71"/>
-      <c r="U95" s="71"/>
-      <c r="V95" s="71"/>
-      <c r="W95" s="71"/>
-      <c r="X95" s="71"/>
-      <c r="Y95" s="71"/>
-      <c r="Z95" s="71"/>
-      <c r="AA95" s="71"/>
-      <c r="AB95" s="71"/>
-      <c r="AC95" s="72"/>
+      <c r="M95" s="69" t="s">
+        <v>64</v>
+      </c>
+      <c r="N95" s="70"/>
+      <c r="O95" s="70"/>
+      <c r="P95" s="70"/>
+      <c r="Q95" s="70"/>
+      <c r="R95" s="70"/>
+      <c r="S95" s="70"/>
+      <c r="T95" s="70"/>
+      <c r="U95" s="70"/>
+      <c r="V95" s="70"/>
+      <c r="W95" s="70"/>
+      <c r="X95" s="70"/>
+      <c r="Y95" s="70"/>
+      <c r="Z95" s="70"/>
+      <c r="AA95" s="70"/>
+      <c r="AB95" s="70"/>
+      <c r="AC95" s="71"/>
       <c r="AF95"/>
       <c r="AG95"/>
       <c r="AH95"/>
@@ -6641,7 +6658,7 @@
       <c r="AM95" s="6"/>
       <c r="AO95" s="7"/>
     </row>
-    <row r="96" spans="1:41" ht="20" customHeight="1">
+    <row r="96" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A96" s="22"/>
       <c r="B96" s="1"/>
       <c r="C96" s="22"/>
@@ -6659,7 +6676,7 @@
       <c r="AM96" s="6"/>
       <c r="AO96" s="7"/>
     </row>
-    <row r="97" spans="1:41" ht="20" customHeight="1">
+    <row r="97" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A97" s="22"/>
       <c r="B97" s="1"/>
       <c r="C97" s="22"/>
@@ -6677,7 +6694,7 @@
       <c r="AM97" s="6"/>
       <c r="AO97" s="7"/>
     </row>
-    <row r="98" spans="1:41" ht="20" customHeight="1">
+    <row r="98" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A98" s="22"/>
       <c r="B98" s="1"/>
       <c r="C98" s="22"/>
@@ -6698,7 +6715,7 @@
       <c r="AM98" s="6"/>
       <c r="AO98" s="7"/>
     </row>
-    <row r="99" spans="1:41" ht="20" customHeight="1">
+    <row r="99" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A99" s="22"/>
       <c r="B99" s="1"/>
       <c r="C99" s="22"/>
@@ -6723,7 +6740,7 @@
       <c r="AM99" s="6"/>
       <c r="AO99" s="7"/>
     </row>
-    <row r="100" spans="1:41" ht="20" customHeight="1">
+    <row r="100" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A100" s="22"/>
       <c r="B100" s="1"/>
       <c r="C100" s="22"/>
@@ -6748,7 +6765,7 @@
       <c r="AM100" s="6"/>
       <c r="AO100" s="7"/>
     </row>
-    <row r="101" spans="1:41" ht="20" customHeight="1">
+    <row r="101" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A101" s="22"/>
       <c r="B101" s="1"/>
       <c r="C101" s="22"/>
@@ -6790,7 +6807,7 @@
       <c r="AM101" s="6"/>
       <c r="AO101" s="7"/>
     </row>
-    <row r="102" spans="1:41" ht="20" customHeight="1">
+    <row r="102" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A102" s="22"/>
       <c r="B102" s="26"/>
       <c r="C102" s="33"/>
@@ -6832,7 +6849,7 @@
       <c r="AM102" s="6"/>
       <c r="AO102" s="7"/>
     </row>
-    <row r="103" spans="1:41" ht="20" customHeight="1">
+    <row r="103" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A103" s="22"/>
       <c r="B103" s="26"/>
       <c r="C103" s="26"/>
@@ -6874,10 +6891,10 @@
       <c r="AM103" s="6"/>
       <c r="AO103" s="7"/>
     </row>
-    <row r="104" spans="1:41" ht="20" customHeight="1">
+    <row r="104" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A104" s="22"/>
       <c r="B104" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C104" s="1"/>
       <c r="D104" s="1"/>
@@ -6918,15 +6935,15 @@
       <c r="AM104" s="6"/>
       <c r="AO104" s="7"/>
     </row>
-    <row r="105" spans="1:41" ht="20" customHeight="1">
+    <row r="105" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A105" s="22"/>
       <c r="B105" s="1"/>
-      <c r="C105" s="101" t="s">
+      <c r="C105" s="73" t="s">
         <v>27</v>
       </c>
-      <c r="D105" s="102"/>
-      <c r="E105" s="102"/>
-      <c r="F105" s="103"/>
+      <c r="D105" s="74"/>
+      <c r="E105" s="74"/>
+      <c r="F105" s="75"/>
       <c r="G105" s="21"/>
       <c r="H105" s="12"/>
       <c r="I105" s="12"/>
@@ -6962,13 +6979,13 @@
       <c r="AM105" s="6"/>
       <c r="AO105" s="7"/>
     </row>
-    <row r="106" spans="1:41" ht="20" customHeight="1">
+    <row r="106" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A106" s="22"/>
       <c r="B106" s="1"/>
-      <c r="C106" s="104"/>
-      <c r="D106" s="105"/>
-      <c r="E106" s="105"/>
-      <c r="F106" s="106"/>
+      <c r="C106" s="76"/>
+      <c r="D106" s="77"/>
+      <c r="E106" s="77"/>
+      <c r="F106" s="78"/>
       <c r="G106" s="23"/>
       <c r="H106" s="15"/>
       <c r="I106" s="15"/>
@@ -7004,7 +7021,7 @@
       <c r="AM106" s="6"/>
       <c r="AO106" s="7"/>
     </row>
-    <row r="107" spans="1:41" ht="20" customHeight="1">
+    <row r="107" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A107" s="22"/>
       <c r="B107" s="1"/>
       <c r="C107" s="22" t="s">
@@ -7014,7 +7031,7 @@
       <c r="E107" s="1"/>
       <c r="F107" s="14"/>
       <c r="G107" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H107" s="1"/>
       <c r="I107" s="1"/>
@@ -7050,7 +7067,7 @@
       <c r="AM107" s="6"/>
       <c r="AO107" s="7"/>
     </row>
-    <row r="108" spans="1:41" ht="20" customHeight="1">
+    <row r="108" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A108" s="22"/>
       <c r="B108" s="1"/>
       <c r="C108" s="22"/>
@@ -7068,10 +7085,10 @@
       </c>
       <c r="N108" s="1"/>
       <c r="P108" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="R108" s="64" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="S108" s="65"/>
       <c r="T108" s="65"/>
@@ -7098,11 +7115,11 @@
       <c r="AM108" s="6"/>
       <c r="AO108" s="7"/>
     </row>
-    <row r="109" spans="1:41" ht="20" customHeight="1">
+    <row r="109" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A109" s="22"/>
       <c r="B109" s="1"/>
       <c r="C109" s="22" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D109" s="1"/>
       <c r="E109" s="1"/>
@@ -7121,7 +7138,7 @@
       <c r="AM109" s="6"/>
       <c r="AO109" s="7"/>
     </row>
-    <row r="110" spans="1:41" ht="20" customHeight="1">
+    <row r="110" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A110" s="22"/>
       <c r="B110" s="1"/>
       <c r="C110" s="22"/>
@@ -7129,25 +7146,25 @@
       <c r="E110" s="1"/>
       <c r="F110" s="14"/>
       <c r="G110" s="1"/>
-      <c r="M110" s="70" t="s">
-        <v>57</v>
-      </c>
-      <c r="N110" s="71"/>
-      <c r="O110" s="71"/>
-      <c r="P110" s="71"/>
-      <c r="Q110" s="71"/>
-      <c r="R110" s="71"/>
-      <c r="S110" s="71"/>
-      <c r="T110" s="71"/>
-      <c r="U110" s="71"/>
-      <c r="V110" s="71"/>
-      <c r="W110" s="71"/>
-      <c r="X110" s="71"/>
-      <c r="Y110" s="71"/>
-      <c r="Z110" s="71"/>
-      <c r="AA110" s="71"/>
-      <c r="AB110" s="71"/>
-      <c r="AC110" s="72"/>
+      <c r="M110" s="69" t="s">
+        <v>56</v>
+      </c>
+      <c r="N110" s="70"/>
+      <c r="O110" s="70"/>
+      <c r="P110" s="70"/>
+      <c r="Q110" s="70"/>
+      <c r="R110" s="70"/>
+      <c r="S110" s="70"/>
+      <c r="T110" s="70"/>
+      <c r="U110" s="70"/>
+      <c r="V110" s="70"/>
+      <c r="W110" s="70"/>
+      <c r="X110" s="70"/>
+      <c r="Y110" s="70"/>
+      <c r="Z110" s="70"/>
+      <c r="AA110" s="70"/>
+      <c r="AB110" s="70"/>
+      <c r="AC110" s="71"/>
       <c r="AF110"/>
       <c r="AG110"/>
       <c r="AH110"/>
@@ -7158,7 +7175,7 @@
       <c r="AM110" s="6"/>
       <c r="AO110" s="7"/>
     </row>
-    <row r="111" spans="1:41" ht="20" customHeight="1">
+    <row r="111" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A111" s="22"/>
       <c r="B111" s="1"/>
       <c r="C111" s="22" t="s">
@@ -7168,25 +7185,25 @@
       <c r="E111" s="1"/>
       <c r="F111" s="14"/>
       <c r="G111" s="1"/>
-      <c r="M111" s="70" t="s">
-        <v>58</v>
-      </c>
-      <c r="N111" s="71"/>
-      <c r="O111" s="71"/>
-      <c r="P111" s="71"/>
-      <c r="Q111" s="71"/>
-      <c r="R111" s="71"/>
-      <c r="S111" s="71"/>
-      <c r="T111" s="71"/>
-      <c r="U111" s="71"/>
-      <c r="V111" s="71"/>
-      <c r="W111" s="71"/>
-      <c r="X111" s="71"/>
-      <c r="Y111" s="71"/>
-      <c r="Z111" s="71"/>
-      <c r="AA111" s="71"/>
-      <c r="AB111" s="71"/>
-      <c r="AC111" s="72"/>
+      <c r="M111" s="69" t="s">
+        <v>57</v>
+      </c>
+      <c r="N111" s="70"/>
+      <c r="O111" s="70"/>
+      <c r="P111" s="70"/>
+      <c r="Q111" s="70"/>
+      <c r="R111" s="70"/>
+      <c r="S111" s="70"/>
+      <c r="T111" s="70"/>
+      <c r="U111" s="70"/>
+      <c r="V111" s="70"/>
+      <c r="W111" s="70"/>
+      <c r="X111" s="70"/>
+      <c r="Y111" s="70"/>
+      <c r="Z111" s="70"/>
+      <c r="AA111" s="70"/>
+      <c r="AB111" s="70"/>
+      <c r="AC111" s="71"/>
       <c r="AF111"/>
       <c r="AG111"/>
       <c r="AH111"/>
@@ -7197,7 +7214,7 @@
       <c r="AM111" s="6"/>
       <c r="AO111" s="7"/>
     </row>
-    <row r="112" spans="1:41" ht="20" customHeight="1">
+    <row r="112" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A112" s="22"/>
       <c r="B112" s="1"/>
       <c r="C112" s="22"/>
@@ -7205,25 +7222,25 @@
       <c r="E112" s="1"/>
       <c r="F112" s="14"/>
       <c r="G112" s="1"/>
-      <c r="M112" s="70" t="s">
-        <v>59</v>
-      </c>
-      <c r="N112" s="71"/>
-      <c r="O112" s="71"/>
-      <c r="P112" s="71"/>
-      <c r="Q112" s="71"/>
-      <c r="R112" s="71"/>
-      <c r="S112" s="71"/>
-      <c r="T112" s="71"/>
-      <c r="U112" s="71"/>
-      <c r="V112" s="71"/>
-      <c r="W112" s="71"/>
-      <c r="X112" s="71"/>
-      <c r="Y112" s="71"/>
-      <c r="Z112" s="71"/>
-      <c r="AA112" s="71"/>
-      <c r="AB112" s="71"/>
-      <c r="AC112" s="72"/>
+      <c r="M112" s="69" t="s">
+        <v>58</v>
+      </c>
+      <c r="N112" s="70"/>
+      <c r="O112" s="70"/>
+      <c r="P112" s="70"/>
+      <c r="Q112" s="70"/>
+      <c r="R112" s="70"/>
+      <c r="S112" s="70"/>
+      <c r="T112" s="70"/>
+      <c r="U112" s="70"/>
+      <c r="V112" s="70"/>
+      <c r="W112" s="70"/>
+      <c r="X112" s="70"/>
+      <c r="Y112" s="70"/>
+      <c r="Z112" s="70"/>
+      <c r="AA112" s="70"/>
+      <c r="AB112" s="70"/>
+      <c r="AC112" s="71"/>
       <c r="AF112"/>
       <c r="AG112"/>
       <c r="AH112"/>
@@ -7234,7 +7251,7 @@
       <c r="AM112" s="6"/>
       <c r="AO112" s="7"/>
     </row>
-    <row r="113" spans="1:41" ht="20" customHeight="1">
+    <row r="113" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A113" s="22"/>
       <c r="B113" s="1"/>
       <c r="C113" s="22" t="s">
@@ -7244,25 +7261,25 @@
       <c r="E113" s="1"/>
       <c r="F113" s="14"/>
       <c r="G113" s="1"/>
-      <c r="M113" s="70" t="s">
-        <v>60</v>
-      </c>
-      <c r="N113" s="71"/>
-      <c r="O113" s="71"/>
-      <c r="P113" s="71"/>
-      <c r="Q113" s="71"/>
-      <c r="R113" s="71"/>
-      <c r="S113" s="71"/>
-      <c r="T113" s="71"/>
-      <c r="U113" s="71"/>
-      <c r="V113" s="71"/>
-      <c r="W113" s="71"/>
-      <c r="X113" s="71"/>
-      <c r="Y113" s="71"/>
-      <c r="Z113" s="71"/>
-      <c r="AA113" s="71"/>
-      <c r="AB113" s="71"/>
-      <c r="AC113" s="72"/>
+      <c r="M113" s="69" t="s">
+        <v>59</v>
+      </c>
+      <c r="N113" s="70"/>
+      <c r="O113" s="70"/>
+      <c r="P113" s="70"/>
+      <c r="Q113" s="70"/>
+      <c r="R113" s="70"/>
+      <c r="S113" s="70"/>
+      <c r="T113" s="70"/>
+      <c r="U113" s="70"/>
+      <c r="V113" s="70"/>
+      <c r="W113" s="70"/>
+      <c r="X113" s="70"/>
+      <c r="Y113" s="70"/>
+      <c r="Z113" s="70"/>
+      <c r="AA113" s="70"/>
+      <c r="AB113" s="70"/>
+      <c r="AC113" s="71"/>
       <c r="AF113"/>
       <c r="AG113"/>
       <c r="AH113"/>
@@ -7273,7 +7290,7 @@
       <c r="AM113" s="6"/>
       <c r="AO113" s="7"/>
     </row>
-    <row r="114" spans="1:41" ht="20" customHeight="1">
+    <row r="114" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A114" s="22"/>
       <c r="B114" s="1"/>
       <c r="C114" s="22"/>
@@ -7281,25 +7298,25 @@
       <c r="E114" s="1"/>
       <c r="F114" s="14"/>
       <c r="G114" s="1"/>
-      <c r="M114" s="70" t="s">
-        <v>55</v>
-      </c>
-      <c r="N114" s="71"/>
-      <c r="O114" s="71"/>
-      <c r="P114" s="71"/>
-      <c r="Q114" s="71"/>
-      <c r="R114" s="71"/>
-      <c r="S114" s="71"/>
-      <c r="T114" s="71"/>
-      <c r="U114" s="71"/>
-      <c r="V114" s="71"/>
-      <c r="W114" s="71"/>
-      <c r="X114" s="71"/>
-      <c r="Y114" s="71"/>
-      <c r="Z114" s="71"/>
-      <c r="AA114" s="71"/>
-      <c r="AB114" s="71"/>
-      <c r="AC114" s="72"/>
+      <c r="M114" s="69" t="s">
+        <v>54</v>
+      </c>
+      <c r="N114" s="70"/>
+      <c r="O114" s="70"/>
+      <c r="P114" s="70"/>
+      <c r="Q114" s="70"/>
+      <c r="R114" s="70"/>
+      <c r="S114" s="70"/>
+      <c r="T114" s="70"/>
+      <c r="U114" s="70"/>
+      <c r="V114" s="70"/>
+      <c r="W114" s="70"/>
+      <c r="X114" s="70"/>
+      <c r="Y114" s="70"/>
+      <c r="Z114" s="70"/>
+      <c r="AA114" s="70"/>
+      <c r="AB114" s="70"/>
+      <c r="AC114" s="71"/>
       <c r="AF114"/>
       <c r="AG114"/>
       <c r="AH114"/>
@@ -7310,7 +7327,7 @@
       <c r="AM114" s="6"/>
       <c r="AO114" s="7"/>
     </row>
-    <row r="115" spans="1:41" ht="20" customHeight="1">
+    <row r="115" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A115" s="22"/>
       <c r="B115" s="1"/>
       <c r="C115" s="22"/>
@@ -7318,25 +7335,25 @@
       <c r="E115" s="1"/>
       <c r="F115" s="14"/>
       <c r="G115" s="1"/>
-      <c r="M115" s="70" t="s">
-        <v>61</v>
-      </c>
-      <c r="N115" s="71"/>
-      <c r="O115" s="71"/>
-      <c r="P115" s="71"/>
-      <c r="Q115" s="71"/>
-      <c r="R115" s="71"/>
-      <c r="S115" s="71"/>
-      <c r="T115" s="71"/>
-      <c r="U115" s="71"/>
-      <c r="V115" s="71"/>
-      <c r="W115" s="71"/>
-      <c r="X115" s="71"/>
-      <c r="Y115" s="71"/>
-      <c r="Z115" s="71"/>
-      <c r="AA115" s="71"/>
-      <c r="AB115" s="71"/>
-      <c r="AC115" s="72"/>
+      <c r="M115" s="69" t="s">
+        <v>60</v>
+      </c>
+      <c r="N115" s="70"/>
+      <c r="O115" s="70"/>
+      <c r="P115" s="70"/>
+      <c r="Q115" s="70"/>
+      <c r="R115" s="70"/>
+      <c r="S115" s="70"/>
+      <c r="T115" s="70"/>
+      <c r="U115" s="70"/>
+      <c r="V115" s="70"/>
+      <c r="W115" s="70"/>
+      <c r="X115" s="70"/>
+      <c r="Y115" s="70"/>
+      <c r="Z115" s="70"/>
+      <c r="AA115" s="70"/>
+      <c r="AB115" s="70"/>
+      <c r="AC115" s="71"/>
       <c r="AF115"/>
       <c r="AG115"/>
       <c r="AH115"/>
@@ -7347,7 +7364,7 @@
       <c r="AM115" s="6"/>
       <c r="AO115" s="7"/>
     </row>
-    <row r="116" spans="1:41" ht="20" customHeight="1">
+    <row r="116" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A116" s="22"/>
       <c r="B116" s="1"/>
       <c r="C116" s="22"/>
@@ -7355,25 +7372,25 @@
       <c r="E116" s="1"/>
       <c r="F116" s="14"/>
       <c r="G116" s="1"/>
-      <c r="M116" s="70" t="s">
-        <v>62</v>
-      </c>
-      <c r="N116" s="71"/>
-      <c r="O116" s="71"/>
-      <c r="P116" s="71"/>
-      <c r="Q116" s="71"/>
-      <c r="R116" s="71"/>
-      <c r="S116" s="71"/>
-      <c r="T116" s="71"/>
-      <c r="U116" s="71"/>
-      <c r="V116" s="71"/>
-      <c r="W116" s="71"/>
-      <c r="X116" s="71"/>
-      <c r="Y116" s="71"/>
-      <c r="Z116" s="71"/>
-      <c r="AA116" s="71"/>
-      <c r="AB116" s="71"/>
-      <c r="AC116" s="72"/>
+      <c r="M116" s="69" t="s">
+        <v>61</v>
+      </c>
+      <c r="N116" s="70"/>
+      <c r="O116" s="70"/>
+      <c r="P116" s="70"/>
+      <c r="Q116" s="70"/>
+      <c r="R116" s="70"/>
+      <c r="S116" s="70"/>
+      <c r="T116" s="70"/>
+      <c r="U116" s="70"/>
+      <c r="V116" s="70"/>
+      <c r="W116" s="70"/>
+      <c r="X116" s="70"/>
+      <c r="Y116" s="70"/>
+      <c r="Z116" s="70"/>
+      <c r="AA116" s="70"/>
+      <c r="AB116" s="70"/>
+      <c r="AC116" s="71"/>
       <c r="AF116"/>
       <c r="AG116"/>
       <c r="AH116"/>
@@ -7384,7 +7401,7 @@
       <c r="AM116" s="6"/>
       <c r="AO116" s="7"/>
     </row>
-    <row r="117" spans="1:41" ht="20" customHeight="1">
+    <row r="117" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A117" s="22"/>
       <c r="B117" s="1"/>
       <c r="C117" s="22"/>
@@ -7392,25 +7409,25 @@
       <c r="E117" s="1"/>
       <c r="F117" s="14"/>
       <c r="G117" s="1"/>
-      <c r="M117" s="70" t="s">
-        <v>63</v>
-      </c>
-      <c r="N117" s="71"/>
-      <c r="O117" s="71"/>
-      <c r="P117" s="71"/>
-      <c r="Q117" s="71"/>
-      <c r="R117" s="71"/>
-      <c r="S117" s="71"/>
-      <c r="T117" s="71"/>
-      <c r="U117" s="71"/>
-      <c r="V117" s="71"/>
-      <c r="W117" s="71"/>
-      <c r="X117" s="71"/>
-      <c r="Y117" s="71"/>
-      <c r="Z117" s="71"/>
-      <c r="AA117" s="71"/>
-      <c r="AB117" s="71"/>
-      <c r="AC117" s="72"/>
+      <c r="M117" s="69" t="s">
+        <v>62</v>
+      </c>
+      <c r="N117" s="70"/>
+      <c r="O117" s="70"/>
+      <c r="P117" s="70"/>
+      <c r="Q117" s="70"/>
+      <c r="R117" s="70"/>
+      <c r="S117" s="70"/>
+      <c r="T117" s="70"/>
+      <c r="U117" s="70"/>
+      <c r="V117" s="70"/>
+      <c r="W117" s="70"/>
+      <c r="X117" s="70"/>
+      <c r="Y117" s="70"/>
+      <c r="Z117" s="70"/>
+      <c r="AA117" s="70"/>
+      <c r="AB117" s="70"/>
+      <c r="AC117" s="71"/>
       <c r="AF117"/>
       <c r="AG117"/>
       <c r="AH117"/>
@@ -7421,7 +7438,7 @@
       <c r="AM117" s="6"/>
       <c r="AO117" s="7"/>
     </row>
-    <row r="118" spans="1:41" ht="20" customHeight="1">
+    <row r="118" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A118" s="22"/>
       <c r="B118" s="1"/>
       <c r="C118" s="22"/>
@@ -7429,25 +7446,25 @@
       <c r="E118" s="1"/>
       <c r="F118" s="14"/>
       <c r="G118" s="1"/>
-      <c r="M118" s="70" t="s">
-        <v>64</v>
-      </c>
-      <c r="N118" s="71"/>
-      <c r="O118" s="71"/>
-      <c r="P118" s="71"/>
-      <c r="Q118" s="71"/>
-      <c r="R118" s="71"/>
-      <c r="S118" s="71"/>
-      <c r="T118" s="71"/>
-      <c r="U118" s="71"/>
-      <c r="V118" s="71"/>
-      <c r="W118" s="71"/>
-      <c r="X118" s="71"/>
-      <c r="Y118" s="71"/>
-      <c r="Z118" s="71"/>
-      <c r="AA118" s="71"/>
-      <c r="AB118" s="71"/>
-      <c r="AC118" s="72"/>
+      <c r="M118" s="69" t="s">
+        <v>63</v>
+      </c>
+      <c r="N118" s="70"/>
+      <c r="O118" s="70"/>
+      <c r="P118" s="70"/>
+      <c r="Q118" s="70"/>
+      <c r="R118" s="70"/>
+      <c r="S118" s="70"/>
+      <c r="T118" s="70"/>
+      <c r="U118" s="70"/>
+      <c r="V118" s="70"/>
+      <c r="W118" s="70"/>
+      <c r="X118" s="70"/>
+      <c r="Y118" s="70"/>
+      <c r="Z118" s="70"/>
+      <c r="AA118" s="70"/>
+      <c r="AB118" s="70"/>
+      <c r="AC118" s="71"/>
       <c r="AF118"/>
       <c r="AG118"/>
       <c r="AH118"/>
@@ -7458,7 +7475,7 @@
       <c r="AM118" s="6"/>
       <c r="AO118" s="7"/>
     </row>
-    <row r="119" spans="1:41" ht="20" customHeight="1">
+    <row r="119" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A119" s="22"/>
       <c r="B119" s="1"/>
       <c r="C119" s="22"/>
@@ -7466,25 +7483,25 @@
       <c r="E119" s="1"/>
       <c r="F119" s="14"/>
       <c r="G119" s="1"/>
-      <c r="M119" s="70" t="s">
-        <v>65</v>
-      </c>
-      <c r="N119" s="71"/>
-      <c r="O119" s="71"/>
-      <c r="P119" s="71"/>
-      <c r="Q119" s="71"/>
-      <c r="R119" s="71"/>
-      <c r="S119" s="71"/>
-      <c r="T119" s="71"/>
-      <c r="U119" s="71"/>
-      <c r="V119" s="71"/>
-      <c r="W119" s="71"/>
-      <c r="X119" s="71"/>
-      <c r="Y119" s="71"/>
-      <c r="Z119" s="71"/>
-      <c r="AA119" s="71"/>
-      <c r="AB119" s="71"/>
-      <c r="AC119" s="72"/>
+      <c r="M119" s="69" t="s">
+        <v>64</v>
+      </c>
+      <c r="N119" s="70"/>
+      <c r="O119" s="70"/>
+      <c r="P119" s="70"/>
+      <c r="Q119" s="70"/>
+      <c r="R119" s="70"/>
+      <c r="S119" s="70"/>
+      <c r="T119" s="70"/>
+      <c r="U119" s="70"/>
+      <c r="V119" s="70"/>
+      <c r="W119" s="70"/>
+      <c r="X119" s="70"/>
+      <c r="Y119" s="70"/>
+      <c r="Z119" s="70"/>
+      <c r="AA119" s="70"/>
+      <c r="AB119" s="70"/>
+      <c r="AC119" s="71"/>
       <c r="AF119"/>
       <c r="AG119"/>
       <c r="AH119"/>
@@ -7495,7 +7512,7 @@
       <c r="AM119" s="6"/>
       <c r="AO119" s="7"/>
     </row>
-    <row r="120" spans="1:41" ht="20" customHeight="1">
+    <row r="120" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A120" s="22"/>
       <c r="B120" s="1"/>
       <c r="C120" s="22"/>
@@ -7513,7 +7530,7 @@
       <c r="AM120" s="6"/>
       <c r="AO120" s="7"/>
     </row>
-    <row r="121" spans="1:41" ht="20" customHeight="1">
+    <row r="121" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A121" s="22"/>
       <c r="B121" s="1"/>
       <c r="C121" s="22"/>
@@ -7531,7 +7548,7 @@
       <c r="AM121" s="6"/>
       <c r="AO121" s="7"/>
     </row>
-    <row r="122" spans="1:41" ht="20" customHeight="1">
+    <row r="122" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A122" s="22"/>
       <c r="B122" s="1"/>
       <c r="C122" s="22"/>
@@ -7559,7 +7576,7 @@
       <c r="AM122" s="6"/>
       <c r="AO122" s="7"/>
     </row>
-    <row r="123" spans="1:41" ht="20" customHeight="1">
+    <row r="123" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A123" s="22"/>
       <c r="B123" s="1"/>
       <c r="C123" s="22"/>
@@ -7591,7 +7608,7 @@
       <c r="AM123" s="6"/>
       <c r="AO123" s="7"/>
     </row>
-    <row r="124" spans="1:41" ht="20" customHeight="1">
+    <row r="124" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A124" s="22"/>
       <c r="B124" s="1"/>
       <c r="C124" s="22"/>
@@ -7622,7 +7639,7 @@
       <c r="AM124" s="6"/>
       <c r="AO124" s="7"/>
     </row>
-    <row r="125" spans="1:41" ht="20" customHeight="1">
+    <row r="125" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A125" s="22"/>
       <c r="B125" s="1"/>
       <c r="C125" s="22"/>
@@ -7664,7 +7681,7 @@
       <c r="AM125" s="6"/>
       <c r="AO125" s="7"/>
     </row>
-    <row r="126" spans="1:41" ht="20" customHeight="1">
+    <row r="126" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A126" s="22"/>
       <c r="B126" s="26"/>
       <c r="C126" s="33"/>
@@ -7706,7 +7723,7 @@
       <c r="AM126" s="6"/>
       <c r="AO126" s="7"/>
     </row>
-    <row r="127" spans="1:41" ht="20" customHeight="1">
+    <row r="127" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A127" s="22"/>
       <c r="B127" s="26"/>
       <c r="C127" s="26"/>
@@ -7748,10 +7765,10 @@
       <c r="AM127" s="6"/>
       <c r="AO127" s="7"/>
     </row>
-    <row r="128" spans="1:41" ht="20" customHeight="1">
+    <row r="128" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A128" s="22"/>
       <c r="B128" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C128" s="1"/>
       <c r="D128" s="1"/>
@@ -7792,15 +7809,15 @@
       <c r="AM128" s="6"/>
       <c r="AO128" s="7"/>
     </row>
-    <row r="129" spans="1:41" ht="20" customHeight="1">
+    <row r="129" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A129" s="22"/>
       <c r="B129" s="1"/>
-      <c r="C129" s="101" t="s">
+      <c r="C129" s="73" t="s">
         <v>27</v>
       </c>
-      <c r="D129" s="102"/>
-      <c r="E129" s="102"/>
-      <c r="F129" s="103"/>
+      <c r="D129" s="74"/>
+      <c r="E129" s="74"/>
+      <c r="F129" s="75"/>
       <c r="G129" s="21"/>
       <c r="H129" s="12"/>
       <c r="I129" s="12"/>
@@ -7836,13 +7853,13 @@
       <c r="AM129" s="6"/>
       <c r="AO129" s="7"/>
     </row>
-    <row r="130" spans="1:41" ht="20" customHeight="1">
+    <row r="130" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A130" s="22"/>
       <c r="B130" s="1"/>
-      <c r="C130" s="104"/>
-      <c r="D130" s="105"/>
-      <c r="E130" s="105"/>
-      <c r="F130" s="106"/>
+      <c r="C130" s="76"/>
+      <c r="D130" s="77"/>
+      <c r="E130" s="77"/>
+      <c r="F130" s="78"/>
       <c r="G130" s="23"/>
       <c r="H130" s="15"/>
       <c r="I130" s="15"/>
@@ -7878,7 +7895,7 @@
       <c r="AM130" s="6"/>
       <c r="AO130" s="7"/>
     </row>
-    <row r="131" spans="1:41" ht="20" customHeight="1">
+    <row r="131" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A131" s="22"/>
       <c r="B131" s="1"/>
       <c r="C131" s="22" t="s">
@@ -7888,7 +7905,7 @@
       <c r="E131" s="1"/>
       <c r="F131" s="14"/>
       <c r="G131" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H131" s="1"/>
       <c r="I131" s="1"/>
@@ -7924,7 +7941,7 @@
       <c r="AM131" s="6"/>
       <c r="AO131" s="7"/>
     </row>
-    <row r="132" spans="1:41" ht="20" customHeight="1">
+    <row r="132" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A132" s="22"/>
       <c r="B132" s="1"/>
       <c r="C132" s="22"/>
@@ -7942,7 +7959,7 @@
       </c>
       <c r="N132" s="1"/>
       <c r="P132" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="R132" s="64"/>
       <c r="S132" s="65"/>
@@ -7970,11 +7987,11 @@
       <c r="AM132" s="6"/>
       <c r="AO132" s="7"/>
     </row>
-    <row r="133" spans="1:41" ht="20" customHeight="1">
+    <row r="133" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A133" s="22"/>
       <c r="B133" s="1"/>
       <c r="C133" s="22" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D133" s="1"/>
       <c r="E133" s="1"/>
@@ -7990,7 +8007,7 @@
       <c r="AM133" s="6"/>
       <c r="AO133" s="7"/>
     </row>
-    <row r="134" spans="1:41" ht="20" customHeight="1">
+    <row r="134" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A134" s="22"/>
       <c r="B134" s="1"/>
       <c r="C134" s="22"/>
@@ -7999,7 +8016,7 @@
       <c r="F134" s="14"/>
       <c r="G134" s="1"/>
       <c r="M134" s="63" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="N134" s="63"/>
       <c r="O134" s="63"/>
@@ -8027,7 +8044,7 @@
       <c r="AM134" s="6"/>
       <c r="AO134" s="7"/>
     </row>
-    <row r="135" spans="1:41" ht="20" customHeight="1">
+    <row r="135" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A135" s="22"/>
       <c r="B135" s="1"/>
       <c r="C135" s="22" t="s">
@@ -8038,7 +8055,7 @@
       <c r="F135" s="14"/>
       <c r="G135" s="1"/>
       <c r="M135" s="63" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="N135" s="63"/>
       <c r="O135" s="63"/>
@@ -8066,7 +8083,7 @@
       <c r="AM135" s="6"/>
       <c r="AO135" s="7"/>
     </row>
-    <row r="136" spans="1:41" ht="20" customHeight="1">
+    <row r="136" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A136" s="22"/>
       <c r="B136" s="1"/>
       <c r="C136" s="22"/>
@@ -8075,7 +8092,7 @@
       <c r="F136" s="14"/>
       <c r="G136" s="1"/>
       <c r="M136" s="63" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="N136" s="63"/>
       <c r="O136" s="63"/>
@@ -8103,7 +8120,7 @@
       <c r="AM136" s="6"/>
       <c r="AO136" s="7"/>
     </row>
-    <row r="137" spans="1:41" ht="20" customHeight="1">
+    <row r="137" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A137" s="22"/>
       <c r="B137" s="1"/>
       <c r="C137" s="22" t="s">
@@ -8114,7 +8131,7 @@
       <c r="F137" s="14"/>
       <c r="G137" s="1"/>
       <c r="M137" s="63" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="N137" s="63"/>
       <c r="O137" s="63"/>
@@ -8142,7 +8159,7 @@
       <c r="AM137" s="6"/>
       <c r="AO137" s="7"/>
     </row>
-    <row r="138" spans="1:41" ht="20" customHeight="1">
+    <row r="138" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A138" s="22"/>
       <c r="B138" s="1"/>
       <c r="C138" s="22"/>
@@ -8151,7 +8168,7 @@
       <c r="F138" s="14"/>
       <c r="G138" s="1"/>
       <c r="M138" s="63" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="N138" s="63"/>
       <c r="O138" s="63"/>
@@ -8179,7 +8196,7 @@
       <c r="AM138" s="6"/>
       <c r="AO138" s="7"/>
     </row>
-    <row r="139" spans="1:41" ht="20" customHeight="1">
+    <row r="139" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A139" s="22"/>
       <c r="B139" s="1"/>
       <c r="C139" s="22"/>
@@ -8188,7 +8205,7 @@
       <c r="F139" s="14"/>
       <c r="G139" s="1"/>
       <c r="M139" s="63" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="N139" s="63"/>
       <c r="O139" s="63"/>
@@ -8216,7 +8233,7 @@
       <c r="AM139" s="6"/>
       <c r="AO139" s="7"/>
     </row>
-    <row r="140" spans="1:41" ht="20" customHeight="1">
+    <row r="140" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A140" s="22"/>
       <c r="B140" s="1"/>
       <c r="C140" s="22"/>
@@ -8225,7 +8242,7 @@
       <c r="F140" s="14"/>
       <c r="G140" s="1"/>
       <c r="M140" s="63" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="N140" s="63"/>
       <c r="O140" s="63"/>
@@ -8253,7 +8270,7 @@
       <c r="AM140" s="6"/>
       <c r="AO140" s="7"/>
     </row>
-    <row r="141" spans="1:41" ht="20" customHeight="1">
+    <row r="141" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A141" s="22"/>
       <c r="B141" s="1"/>
       <c r="C141" s="22"/>
@@ -8262,7 +8279,7 @@
       <c r="F141" s="14"/>
       <c r="G141" s="1"/>
       <c r="M141" s="63" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="N141" s="63"/>
       <c r="O141" s="63"/>
@@ -8290,7 +8307,7 @@
       <c r="AM141" s="6"/>
       <c r="AO141" s="7"/>
     </row>
-    <row r="142" spans="1:41" ht="20" customHeight="1">
+    <row r="142" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A142" s="22"/>
       <c r="B142" s="1"/>
       <c r="C142" s="22"/>
@@ -8299,7 +8316,7 @@
       <c r="F142" s="14"/>
       <c r="G142" s="1"/>
       <c r="M142" s="63" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="N142" s="63"/>
       <c r="O142" s="63"/>
@@ -8327,7 +8344,7 @@
       <c r="AM142" s="6"/>
       <c r="AO142" s="7"/>
     </row>
-    <row r="143" spans="1:41" ht="20" customHeight="1">
+    <row r="143" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A143" s="22"/>
       <c r="B143" s="1"/>
       <c r="C143" s="22"/>
@@ -8336,7 +8353,7 @@
       <c r="F143" s="14"/>
       <c r="G143" s="1"/>
       <c r="M143" s="63" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="N143" s="63"/>
       <c r="O143" s="63"/>
@@ -8364,7 +8381,7 @@
       <c r="AM143" s="6"/>
       <c r="AO143" s="7"/>
     </row>
-    <row r="144" spans="1:41" ht="20" customHeight="1">
+    <row r="144" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A144" s="22"/>
       <c r="B144" s="1"/>
       <c r="C144" s="22"/>
@@ -8382,7 +8399,7 @@
       <c r="AM144" s="6"/>
       <c r="AO144" s="7"/>
     </row>
-    <row r="145" spans="1:41" ht="20" customHeight="1">
+    <row r="145" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A145" s="22"/>
       <c r="B145" s="1"/>
       <c r="C145" s="22"/>
@@ -8400,7 +8417,7 @@
       <c r="AM145" s="6"/>
       <c r="AO145" s="7"/>
     </row>
-    <row r="146" spans="1:41" ht="20" customHeight="1">
+    <row r="146" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A146" s="22"/>
       <c r="B146" s="1"/>
       <c r="C146" s="22"/>
@@ -8428,7 +8445,7 @@
       <c r="AM146" s="6"/>
       <c r="AO146" s="7"/>
     </row>
-    <row r="147" spans="1:41" ht="20" customHeight="1">
+    <row r="147" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A147" s="22"/>
       <c r="B147" s="1"/>
       <c r="C147" s="22"/>
@@ -8460,7 +8477,7 @@
       <c r="AM147" s="6"/>
       <c r="AO147" s="7"/>
     </row>
-    <row r="148" spans="1:41" ht="20" customHeight="1">
+    <row r="148" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A148" s="22"/>
       <c r="B148" s="1"/>
       <c r="C148" s="22"/>
@@ -8491,7 +8508,7 @@
       <c r="AM148" s="6"/>
       <c r="AO148" s="7"/>
     </row>
-    <row r="149" spans="1:41" ht="20" customHeight="1">
+    <row r="149" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A149" s="22"/>
       <c r="B149" s="1"/>
       <c r="C149" s="22"/>
@@ -8533,7 +8550,7 @@
       <c r="AM149" s="6"/>
       <c r="AO149" s="7"/>
     </row>
-    <row r="150" spans="1:41" ht="20" customHeight="1">
+    <row r="150" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A150" s="22"/>
       <c r="B150" s="26"/>
       <c r="C150" s="33"/>
@@ -8575,7 +8592,7 @@
       <c r="AM150" s="6"/>
       <c r="AO150" s="7"/>
     </row>
-    <row r="151" spans="1:41" ht="20" customHeight="1">
+    <row r="151" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A151" s="22"/>
       <c r="B151" s="26"/>
       <c r="C151" s="26"/>
@@ -8617,7 +8634,7 @@
       <c r="AM151" s="6"/>
       <c r="AO151" s="7"/>
     </row>
-    <row r="152" spans="1:41" ht="20" customHeight="1">
+    <row r="152" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A152" s="22"/>
       <c r="B152" s="26"/>
       <c r="C152" s="26"/>
@@ -8756,7 +8773,7 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="24" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <pageSetup paperSize="9" scale="24" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -8767,242 +8784,242 @@
   </sheetPr>
   <dimension ref="A1:AO49"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection sqref="A1:N4"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6:AE6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="3.7109375" defaultRowHeight="20" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="3.7265625" defaultRowHeight="19.95" customHeight="1" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="9" width="3.7109375" style="2"/>
+    <col min="1" max="9" width="3.7265625" style="2"/>
     <col min="10" max="14" width="4" style="2" customWidth="1"/>
-    <col min="15" max="16384" width="3.7109375" style="2"/>
+    <col min="15" max="16384" width="3.7265625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:41" ht="20" customHeight="1">
-      <c r="A1" s="53" t="s">
-        <v>102</v>
-      </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="54"/>
-      <c r="G1" s="54"/>
-      <c r="H1" s="54"/>
-      <c r="I1" s="54"/>
-      <c r="J1" s="54"/>
-      <c r="K1" s="54"/>
-      <c r="L1" s="54"/>
-      <c r="M1" s="54"/>
-      <c r="N1" s="55"/>
-      <c r="O1" s="73" t="s">
+    <row r="1" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A1" s="54" t="s">
+        <v>101</v>
+      </c>
+      <c r="B1" s="55"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="55"/>
+      <c r="G1" s="55"/>
+      <c r="H1" s="55"/>
+      <c r="I1" s="55"/>
+      <c r="J1" s="55"/>
+      <c r="K1" s="55"/>
+      <c r="L1" s="55"/>
+      <c r="M1" s="55"/>
+      <c r="N1" s="56"/>
+      <c r="O1" s="106" t="s">
         <v>0</v>
       </c>
-      <c r="P1" s="74"/>
-      <c r="Q1" s="74"/>
-      <c r="R1" s="74"/>
-      <c r="S1" s="75"/>
-      <c r="T1" s="48" t="s">
+      <c r="P1" s="107"/>
+      <c r="Q1" s="107"/>
+      <c r="R1" s="107"/>
+      <c r="S1" s="108"/>
+      <c r="T1" s="49" t="s">
         <v>26</v>
       </c>
-      <c r="U1" s="49"/>
-      <c r="V1" s="49"/>
-      <c r="W1" s="49"/>
-      <c r="X1" s="49"/>
-      <c r="Y1" s="49"/>
-      <c r="Z1" s="49"/>
-      <c r="AA1" s="50"/>
-      <c r="AB1" s="76" t="s">
+      <c r="U1" s="50"/>
+      <c r="V1" s="50"/>
+      <c r="W1" s="50"/>
+      <c r="X1" s="50"/>
+      <c r="Y1" s="50"/>
+      <c r="Z1" s="50"/>
+      <c r="AA1" s="51"/>
+      <c r="AB1" s="94" t="s">
         <v>4</v>
       </c>
-      <c r="AC1" s="77"/>
-      <c r="AD1" s="78"/>
-      <c r="AE1" s="82" t="s">
+      <c r="AC1" s="95"/>
+      <c r="AD1" s="96"/>
+      <c r="AE1" s="92" t="s">
         <v>31</v>
       </c>
       <c r="AF1" s="42"/>
       <c r="AG1" s="42"/>
-      <c r="AH1" s="83"/>
-      <c r="AI1" s="76" t="s">
+      <c r="AH1" s="93"/>
+      <c r="AI1" s="94" t="s">
         <v>6</v>
       </c>
-      <c r="AJ1" s="77"/>
-      <c r="AK1" s="78"/>
-      <c r="AL1" s="89">
+      <c r="AJ1" s="95"/>
+      <c r="AK1" s="96"/>
+      <c r="AL1" s="124">
         <v>45566</v>
       </c>
-      <c r="AM1" s="90"/>
-      <c r="AN1" s="90"/>
-      <c r="AO1" s="91"/>
-    </row>
-    <row r="2" spans="1:41" ht="20" customHeight="1">
-      <c r="A2" s="56"/>
-      <c r="B2" s="57"/>
-      <c r="C2" s="57"/>
-      <c r="D2" s="57"/>
-      <c r="E2" s="57"/>
-      <c r="F2" s="57"/>
-      <c r="G2" s="57"/>
-      <c r="H2" s="57"/>
-      <c r="I2" s="57"/>
-      <c r="J2" s="57"/>
-      <c r="K2" s="57"/>
-      <c r="L2" s="57"/>
-      <c r="M2" s="57"/>
-      <c r="N2" s="58"/>
-      <c r="O2" s="73" t="s">
+      <c r="AM1" s="125"/>
+      <c r="AN1" s="125"/>
+      <c r="AO1" s="126"/>
+    </row>
+    <row r="2" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A2" s="57"/>
+      <c r="B2" s="58"/>
+      <c r="C2" s="58"/>
+      <c r="D2" s="58"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="58"/>
+      <c r="H2" s="58"/>
+      <c r="I2" s="58"/>
+      <c r="J2" s="58"/>
+      <c r="K2" s="58"/>
+      <c r="L2" s="58"/>
+      <c r="M2" s="58"/>
+      <c r="N2" s="59"/>
+      <c r="O2" s="106" t="s">
         <v>1</v>
       </c>
-      <c r="P2" s="74"/>
-      <c r="Q2" s="74"/>
-      <c r="R2" s="74"/>
-      <c r="S2" s="75"/>
-      <c r="T2" s="48" t="s">
+      <c r="P2" s="107"/>
+      <c r="Q2" s="107"/>
+      <c r="R2" s="107"/>
+      <c r="S2" s="108"/>
+      <c r="T2" s="49" t="s">
         <v>30</v>
       </c>
-      <c r="U2" s="49"/>
-      <c r="V2" s="49"/>
-      <c r="W2" s="49"/>
-      <c r="X2" s="49"/>
-      <c r="Y2" s="49"/>
-      <c r="Z2" s="49"/>
-      <c r="AA2" s="50"/>
-      <c r="AB2" s="79"/>
-      <c r="AC2" s="80"/>
-      <c r="AD2" s="81"/>
-      <c r="AE2" s="84"/>
-      <c r="AF2" s="85"/>
-      <c r="AG2" s="85"/>
-      <c r="AH2" s="86"/>
-      <c r="AI2" s="79"/>
-      <c r="AJ2" s="80"/>
-      <c r="AK2" s="81"/>
-      <c r="AL2" s="92"/>
-      <c r="AM2" s="93"/>
-      <c r="AN2" s="93"/>
-      <c r="AO2" s="94"/>
-    </row>
-    <row r="3" spans="1:41" ht="20" customHeight="1">
-      <c r="A3" s="56"/>
-      <c r="B3" s="57"/>
-      <c r="C3" s="57"/>
-      <c r="D3" s="57"/>
-      <c r="E3" s="57"/>
-      <c r="F3" s="57"/>
-      <c r="G3" s="57"/>
-      <c r="H3" s="57"/>
-      <c r="I3" s="57"/>
-      <c r="J3" s="57"/>
-      <c r="K3" s="57"/>
-      <c r="L3" s="57"/>
-      <c r="M3" s="57"/>
-      <c r="N3" s="58"/>
-      <c r="O3" s="73" t="s">
+      <c r="U2" s="50"/>
+      <c r="V2" s="50"/>
+      <c r="W2" s="50"/>
+      <c r="X2" s="50"/>
+      <c r="Y2" s="50"/>
+      <c r="Z2" s="50"/>
+      <c r="AA2" s="51"/>
+      <c r="AB2" s="97"/>
+      <c r="AC2" s="98"/>
+      <c r="AD2" s="99"/>
+      <c r="AE2" s="89"/>
+      <c r="AF2" s="90"/>
+      <c r="AG2" s="90"/>
+      <c r="AH2" s="91"/>
+      <c r="AI2" s="97"/>
+      <c r="AJ2" s="98"/>
+      <c r="AK2" s="99"/>
+      <c r="AL2" s="127"/>
+      <c r="AM2" s="128"/>
+      <c r="AN2" s="128"/>
+      <c r="AO2" s="129"/>
+    </row>
+    <row r="3" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A3" s="57"/>
+      <c r="B3" s="58"/>
+      <c r="C3" s="58"/>
+      <c r="D3" s="58"/>
+      <c r="E3" s="58"/>
+      <c r="F3" s="58"/>
+      <c r="G3" s="58"/>
+      <c r="H3" s="58"/>
+      <c r="I3" s="58"/>
+      <c r="J3" s="58"/>
+      <c r="K3" s="58"/>
+      <c r="L3" s="58"/>
+      <c r="M3" s="58"/>
+      <c r="N3" s="59"/>
+      <c r="O3" s="106" t="s">
         <v>3</v>
       </c>
-      <c r="P3" s="74"/>
-      <c r="Q3" s="74"/>
-      <c r="R3" s="74"/>
-      <c r="S3" s="75"/>
+      <c r="P3" s="107"/>
+      <c r="Q3" s="107"/>
+      <c r="R3" s="107"/>
+      <c r="S3" s="108"/>
       <c r="T3" s="45" t="s">
-        <v>99</v>
-      </c>
-      <c r="U3" s="87"/>
-      <c r="V3" s="87"/>
-      <c r="W3" s="87"/>
-      <c r="X3" s="87"/>
-      <c r="Y3" s="87"/>
-      <c r="Z3" s="87"/>
-      <c r="AA3" s="88"/>
-      <c r="AB3" s="76" t="s">
+        <v>98</v>
+      </c>
+      <c r="U3" s="115"/>
+      <c r="V3" s="115"/>
+      <c r="W3" s="115"/>
+      <c r="X3" s="115"/>
+      <c r="Y3" s="115"/>
+      <c r="Z3" s="115"/>
+      <c r="AA3" s="116"/>
+      <c r="AB3" s="94" t="s">
         <v>5</v>
       </c>
-      <c r="AC3" s="77"/>
-      <c r="AD3" s="78"/>
-      <c r="AE3" s="82"/>
+      <c r="AC3" s="95"/>
+      <c r="AD3" s="96"/>
+      <c r="AE3" s="92"/>
       <c r="AF3" s="42"/>
       <c r="AG3" s="42"/>
-      <c r="AH3" s="83"/>
-      <c r="AI3" s="76" t="s">
+      <c r="AH3" s="93"/>
+      <c r="AI3" s="94" t="s">
         <v>7</v>
       </c>
-      <c r="AJ3" s="77"/>
-      <c r="AK3" s="78"/>
-      <c r="AL3" s="95"/>
-      <c r="AM3" s="96"/>
-      <c r="AN3" s="96"/>
-      <c r="AO3" s="97"/>
-    </row>
-    <row r="4" spans="1:41" ht="20" customHeight="1">
-      <c r="A4" s="59"/>
-      <c r="B4" s="60"/>
-      <c r="C4" s="60"/>
-      <c r="D4" s="60"/>
-      <c r="E4" s="60"/>
-      <c r="F4" s="60"/>
-      <c r="G4" s="60"/>
-      <c r="H4" s="60"/>
-      <c r="I4" s="60"/>
-      <c r="J4" s="60"/>
-      <c r="K4" s="60"/>
-      <c r="L4" s="60"/>
-      <c r="M4" s="60"/>
-      <c r="N4" s="61"/>
-      <c r="O4" s="73" t="s">
+      <c r="AJ3" s="95"/>
+      <c r="AK3" s="96"/>
+      <c r="AL3" s="100"/>
+      <c r="AM3" s="101"/>
+      <c r="AN3" s="101"/>
+      <c r="AO3" s="102"/>
+    </row>
+    <row r="4" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A4" s="60"/>
+      <c r="B4" s="61"/>
+      <c r="C4" s="61"/>
+      <c r="D4" s="61"/>
+      <c r="E4" s="61"/>
+      <c r="F4" s="61"/>
+      <c r="G4" s="61"/>
+      <c r="H4" s="61"/>
+      <c r="I4" s="61"/>
+      <c r="J4" s="61"/>
+      <c r="K4" s="61"/>
+      <c r="L4" s="61"/>
+      <c r="M4" s="61"/>
+      <c r="N4" s="62"/>
+      <c r="O4" s="106" t="s">
         <v>2</v>
       </c>
-      <c r="P4" s="74"/>
-      <c r="Q4" s="74"/>
-      <c r="R4" s="74"/>
-      <c r="S4" s="75"/>
+      <c r="P4" s="107"/>
+      <c r="Q4" s="107"/>
+      <c r="R4" s="107"/>
+      <c r="S4" s="108"/>
       <c r="T4" s="45" t="s">
-        <v>98</v>
-      </c>
-      <c r="U4" s="87"/>
-      <c r="V4" s="87"/>
-      <c r="W4" s="87"/>
-      <c r="X4" s="87"/>
-      <c r="Y4" s="87"/>
-      <c r="Z4" s="87"/>
-      <c r="AA4" s="88"/>
-      <c r="AB4" s="79"/>
-      <c r="AC4" s="80"/>
-      <c r="AD4" s="81"/>
-      <c r="AE4" s="84"/>
-      <c r="AF4" s="85"/>
-      <c r="AG4" s="85"/>
-      <c r="AH4" s="86"/>
-      <c r="AI4" s="79"/>
-      <c r="AJ4" s="80"/>
-      <c r="AK4" s="81"/>
-      <c r="AL4" s="98"/>
-      <c r="AM4" s="99"/>
-      <c r="AN4" s="99"/>
-      <c r="AO4" s="100"/>
-    </row>
-    <row r="5" spans="1:41" ht="20" customHeight="1">
-      <c r="A5" s="51" t="s">
+        <v>97</v>
+      </c>
+      <c r="U4" s="115"/>
+      <c r="V4" s="115"/>
+      <c r="W4" s="115"/>
+      <c r="X4" s="115"/>
+      <c r="Y4" s="115"/>
+      <c r="Z4" s="115"/>
+      <c r="AA4" s="116"/>
+      <c r="AB4" s="97"/>
+      <c r="AC4" s="98"/>
+      <c r="AD4" s="99"/>
+      <c r="AE4" s="89"/>
+      <c r="AF4" s="90"/>
+      <c r="AG4" s="90"/>
+      <c r="AH4" s="91"/>
+      <c r="AI4" s="97"/>
+      <c r="AJ4" s="98"/>
+      <c r="AK4" s="99"/>
+      <c r="AL4" s="103"/>
+      <c r="AM4" s="104"/>
+      <c r="AN4" s="104"/>
+      <c r="AO4" s="105"/>
+    </row>
+    <row r="5" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A5" s="52" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="52"/>
-      <c r="C5" s="69"/>
-      <c r="D5" s="70" t="s">
-        <v>100</v>
-      </c>
-      <c r="E5" s="71"/>
-      <c r="F5" s="72"/>
-      <c r="G5" s="51" t="s">
+      <c r="B5" s="53"/>
+      <c r="C5" s="72"/>
+      <c r="D5" s="69" t="s">
+        <v>99</v>
+      </c>
+      <c r="E5" s="70"/>
+      <c r="F5" s="71"/>
+      <c r="G5" s="52" t="s">
         <v>21</v>
       </c>
-      <c r="H5" s="52"/>
-      <c r="I5" s="69"/>
-      <c r="J5" s="70" t="s">
-        <v>97</v>
-      </c>
-      <c r="K5" s="71"/>
-      <c r="L5" s="71"/>
-      <c r="M5" s="71"/>
-      <c r="N5" s="72"/>
+      <c r="H5" s="53"/>
+      <c r="I5" s="72"/>
+      <c r="J5" s="69" t="s">
+        <v>96</v>
+      </c>
+      <c r="K5" s="70"/>
+      <c r="L5" s="70"/>
+      <c r="M5" s="70"/>
+      <c r="N5" s="71"/>
       <c r="O5" s="11"/>
       <c r="P5" s="11"/>
       <c r="Q5" s="11"/>
@@ -9031,65 +9048,65 @@
       <c r="AN5" s="11"/>
       <c r="AO5" s="11"/>
     </row>
-    <row r="6" spans="1:41" ht="20" customHeight="1">
-      <c r="A6" s="117" t="s">
+    <row r="6" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A6" s="109" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="117"/>
-      <c r="C6" s="117"/>
-      <c r="D6" s="117"/>
-      <c r="E6" s="117"/>
-      <c r="F6" s="117"/>
-      <c r="G6" s="117"/>
-      <c r="H6" s="120" t="s">
+      <c r="B6" s="109"/>
+      <c r="C6" s="109"/>
+      <c r="D6" s="109"/>
+      <c r="E6" s="109"/>
+      <c r="F6" s="109"/>
+      <c r="G6" s="109"/>
+      <c r="H6" s="112" t="s">
         <v>25</v>
       </c>
-      <c r="I6" s="121"/>
-      <c r="J6" s="121"/>
-      <c r="K6" s="121"/>
-      <c r="L6" s="121"/>
-      <c r="M6" s="121"/>
-      <c r="N6" s="121"/>
-      <c r="O6" s="121"/>
-      <c r="P6" s="121"/>
-      <c r="Q6" s="121"/>
-      <c r="R6" s="121"/>
-      <c r="S6" s="121"/>
-      <c r="T6" s="121"/>
-      <c r="U6" s="121"/>
-      <c r="V6" s="121"/>
-      <c r="W6" s="121"/>
-      <c r="X6" s="121"/>
-      <c r="Y6" s="121"/>
-      <c r="Z6" s="121"/>
-      <c r="AA6" s="121"/>
-      <c r="AB6" s="121"/>
-      <c r="AC6" s="121"/>
-      <c r="AD6" s="121"/>
-      <c r="AE6" s="122"/>
-      <c r="AF6" s="117" t="s">
+      <c r="I6" s="113"/>
+      <c r="J6" s="113"/>
+      <c r="K6" s="113"/>
+      <c r="L6" s="113"/>
+      <c r="M6" s="113"/>
+      <c r="N6" s="113"/>
+      <c r="O6" s="113"/>
+      <c r="P6" s="113"/>
+      <c r="Q6" s="113"/>
+      <c r="R6" s="113"/>
+      <c r="S6" s="113"/>
+      <c r="T6" s="113"/>
+      <c r="U6" s="113"/>
+      <c r="V6" s="113"/>
+      <c r="W6" s="113"/>
+      <c r="X6" s="113"/>
+      <c r="Y6" s="113"/>
+      <c r="Z6" s="113"/>
+      <c r="AA6" s="113"/>
+      <c r="AB6" s="113"/>
+      <c r="AC6" s="113"/>
+      <c r="AD6" s="113"/>
+      <c r="AE6" s="114"/>
+      <c r="AF6" s="109" t="s">
         <v>24</v>
       </c>
-      <c r="AG6" s="117"/>
-      <c r="AH6" s="117"/>
-      <c r="AI6" s="117"/>
-      <c r="AJ6" s="117"/>
-      <c r="AK6" s="117"/>
-      <c r="AL6" s="117"/>
+      <c r="AG6" s="109"/>
+      <c r="AH6" s="109"/>
+      <c r="AI6" s="109"/>
+      <c r="AJ6" s="109"/>
+      <c r="AK6" s="109"/>
+      <c r="AL6" s="109"/>
       <c r="AM6" s="44" t="s">
         <v>9</v>
       </c>
       <c r="AN6" s="44"/>
       <c r="AO6" s="44"/>
     </row>
-    <row r="7" spans="1:41" ht="20" customHeight="1">
-      <c r="A7" s="118"/>
-      <c r="B7" s="119"/>
-      <c r="C7" s="119"/>
-      <c r="D7" s="119"/>
-      <c r="E7" s="119"/>
-      <c r="F7" s="119"/>
-      <c r="G7" s="119"/>
+    <row r="7" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A7" s="110"/>
+      <c r="B7" s="111"/>
+      <c r="C7" s="111"/>
+      <c r="D7" s="111"/>
+      <c r="E7" s="111"/>
+      <c r="F7" s="111"/>
+      <c r="G7" s="111"/>
       <c r="H7" s="21"/>
       <c r="I7" s="12"/>
       <c r="J7" s="12"/>
@@ -9120,19 +9137,19 @@
       <c r="AI7" s="42"/>
       <c r="AJ7" s="42"/>
       <c r="AK7" s="42"/>
-      <c r="AL7" s="83"/>
+      <c r="AL7" s="93"/>
       <c r="AM7" s="12"/>
       <c r="AN7" s="12"/>
       <c r="AO7" s="13"/>
     </row>
-    <row r="8" spans="1:41" ht="20" customHeight="1">
-      <c r="A8" s="115"/>
-      <c r="B8" s="116"/>
-      <c r="C8" s="116"/>
-      <c r="D8" s="116"/>
-      <c r="E8" s="116"/>
-      <c r="F8" s="116"/>
-      <c r="G8" s="116"/>
+    <row r="8" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A8" s="87"/>
+      <c r="B8" s="88"/>
+      <c r="C8" s="88"/>
+      <c r="D8" s="88"/>
+      <c r="E8" s="88"/>
+      <c r="F8" s="88"/>
+      <c r="G8" s="88"/>
       <c r="H8" s="22"/>
       <c r="I8" s="1" t="s">
         <v>33</v>
@@ -9159,25 +9176,25 @@
       <c r="AC8" s="1"/>
       <c r="AD8" s="1"/>
       <c r="AE8" s="14"/>
-      <c r="AF8" s="108"/>
-      <c r="AG8" s="108"/>
-      <c r="AH8" s="108"/>
-      <c r="AI8" s="108"/>
-      <c r="AJ8" s="108"/>
-      <c r="AK8" s="108"/>
-      <c r="AL8" s="114"/>
+      <c r="AF8" s="80"/>
+      <c r="AG8" s="80"/>
+      <c r="AH8" s="80"/>
+      <c r="AI8" s="80"/>
+      <c r="AJ8" s="80"/>
+      <c r="AK8" s="80"/>
+      <c r="AL8" s="86"/>
       <c r="AM8" s="1"/>
       <c r="AN8" s="1"/>
       <c r="AO8" s="14"/>
     </row>
-    <row r="9" spans="1:41" ht="20" customHeight="1">
-      <c r="A9" s="115"/>
-      <c r="B9" s="116"/>
-      <c r="C9" s="116"/>
-      <c r="D9" s="116"/>
-      <c r="E9" s="116"/>
-      <c r="F9" s="116"/>
-      <c r="G9" s="116"/>
+    <row r="9" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A9" s="87"/>
+      <c r="B9" s="88"/>
+      <c r="C9" s="88"/>
+      <c r="D9" s="88"/>
+      <c r="E9" s="88"/>
+      <c r="F9" s="88"/>
+      <c r="G9" s="88"/>
       <c r="H9" s="22"/>
       <c r="I9" s="25"/>
       <c r="J9" s="25"/>
@@ -9202,29 +9219,29 @@
       <c r="AC9" s="1"/>
       <c r="AD9" s="1"/>
       <c r="AE9" s="14"/>
-      <c r="AF9" s="108"/>
-      <c r="AG9" s="108"/>
-      <c r="AH9" s="108"/>
-      <c r="AI9" s="108"/>
-      <c r="AJ9" s="108"/>
-      <c r="AK9" s="108"/>
-      <c r="AL9" s="114"/>
+      <c r="AF9" s="80"/>
+      <c r="AG9" s="80"/>
+      <c r="AH9" s="80"/>
+      <c r="AI9" s="80"/>
+      <c r="AJ9" s="80"/>
+      <c r="AK9" s="80"/>
+      <c r="AL9" s="86"/>
       <c r="AM9" s="1"/>
       <c r="AN9" s="1"/>
       <c r="AO9" s="14"/>
     </row>
-    <row r="10" spans="1:41" ht="20" customHeight="1">
-      <c r="A10" s="115"/>
-      <c r="B10" s="116"/>
-      <c r="C10" s="116"/>
-      <c r="D10" s="116"/>
-      <c r="E10" s="116"/>
-      <c r="F10" s="116"/>
-      <c r="G10" s="116"/>
+    <row r="10" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A10" s="87"/>
+      <c r="B10" s="88"/>
+      <c r="C10" s="88"/>
+      <c r="D10" s="88"/>
+      <c r="E10" s="88"/>
+      <c r="F10" s="88"/>
+      <c r="G10" s="88"/>
       <c r="H10" s="22"/>
       <c r="I10" s="25"/>
       <c r="J10" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K10" s="25"/>
       <c r="L10" s="25"/>
@@ -9247,25 +9264,25 @@
       <c r="AC10" s="1"/>
       <c r="AD10" s="1"/>
       <c r="AE10" s="14"/>
-      <c r="AF10" s="108"/>
-      <c r="AG10" s="108"/>
-      <c r="AH10" s="108"/>
-      <c r="AI10" s="108"/>
-      <c r="AJ10" s="108"/>
-      <c r="AK10" s="108"/>
-      <c r="AL10" s="114"/>
+      <c r="AF10" s="80"/>
+      <c r="AG10" s="80"/>
+      <c r="AH10" s="80"/>
+      <c r="AI10" s="80"/>
+      <c r="AJ10" s="80"/>
+      <c r="AK10" s="80"/>
+      <c r="AL10" s="86"/>
       <c r="AM10" s="1"/>
       <c r="AN10" s="1"/>
       <c r="AO10" s="14"/>
     </row>
-    <row r="11" spans="1:41" ht="20" customHeight="1">
-      <c r="A11" s="115"/>
-      <c r="B11" s="116"/>
-      <c r="C11" s="116"/>
-      <c r="D11" s="116"/>
-      <c r="E11" s="116"/>
-      <c r="F11" s="116"/>
-      <c r="G11" s="116"/>
+    <row r="11" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A11" s="87"/>
+      <c r="B11" s="88"/>
+      <c r="C11" s="88"/>
+      <c r="D11" s="88"/>
+      <c r="E11" s="88"/>
+      <c r="F11" s="88"/>
+      <c r="G11" s="88"/>
       <c r="H11" s="22"/>
       <c r="I11" s="25"/>
       <c r="J11" s="25"/>
@@ -9290,30 +9307,30 @@
       <c r="AC11" s="1"/>
       <c r="AD11" s="1"/>
       <c r="AE11" s="14"/>
-      <c r="AF11" s="108"/>
-      <c r="AG11" s="108"/>
-      <c r="AH11" s="108"/>
-      <c r="AI11" s="108"/>
-      <c r="AJ11" s="108"/>
-      <c r="AK11" s="108"/>
-      <c r="AL11" s="114"/>
+      <c r="AF11" s="80"/>
+      <c r="AG11" s="80"/>
+      <c r="AH11" s="80"/>
+      <c r="AI11" s="80"/>
+      <c r="AJ11" s="80"/>
+      <c r="AK11" s="80"/>
+      <c r="AL11" s="86"/>
       <c r="AM11" s="1"/>
       <c r="AN11" s="1"/>
       <c r="AO11" s="14"/>
     </row>
-    <row r="12" spans="1:41" ht="20" customHeight="1">
-      <c r="A12" s="115"/>
-      <c r="B12" s="116"/>
-      <c r="C12" s="116"/>
-      <c r="D12" s="116"/>
-      <c r="E12" s="116"/>
-      <c r="F12" s="116"/>
-      <c r="G12" s="116"/>
+    <row r="12" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A12" s="87"/>
+      <c r="B12" s="88"/>
+      <c r="C12" s="88"/>
+      <c r="D12" s="88"/>
+      <c r="E12" s="88"/>
+      <c r="F12" s="88"/>
+      <c r="G12" s="88"/>
       <c r="H12" s="22"/>
       <c r="I12" s="25"/>
       <c r="J12" s="25"/>
       <c r="K12" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="L12" s="25"/>
       <c r="M12" s="25"/>
@@ -9335,31 +9352,31 @@
       <c r="AC12" s="1"/>
       <c r="AD12" s="1"/>
       <c r="AE12" s="14"/>
-      <c r="AF12" s="108"/>
-      <c r="AG12" s="108"/>
-      <c r="AH12" s="108"/>
-      <c r="AI12" s="108"/>
-      <c r="AJ12" s="108"/>
-      <c r="AK12" s="108"/>
-      <c r="AL12" s="114"/>
+      <c r="AF12" s="80"/>
+      <c r="AG12" s="80"/>
+      <c r="AH12" s="80"/>
+      <c r="AI12" s="80"/>
+      <c r="AJ12" s="80"/>
+      <c r="AK12" s="80"/>
+      <c r="AL12" s="86"/>
       <c r="AM12" s="1"/>
       <c r="AN12" s="1"/>
       <c r="AO12" s="14"/>
     </row>
-    <row r="13" spans="1:41" ht="20" customHeight="1">
-      <c r="A13" s="107"/>
-      <c r="B13" s="108"/>
-      <c r="C13" s="108"/>
-      <c r="D13" s="108"/>
-      <c r="E13" s="108"/>
-      <c r="F13" s="108"/>
-      <c r="G13" s="108"/>
+    <row r="13" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A13" s="79"/>
+      <c r="B13" s="80"/>
+      <c r="C13" s="80"/>
+      <c r="D13" s="80"/>
+      <c r="E13" s="80"/>
+      <c r="F13" s="80"/>
+      <c r="G13" s="80"/>
       <c r="H13" s="22"/>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
       <c r="L13" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="M13" s="1"/>
       <c r="N13" s="1"/>
@@ -9380,31 +9397,31 @@
       <c r="AC13" s="1"/>
       <c r="AD13" s="1"/>
       <c r="AE13" s="14"/>
-      <c r="AF13" s="108"/>
-      <c r="AG13" s="108"/>
-      <c r="AH13" s="108"/>
-      <c r="AI13" s="108"/>
-      <c r="AJ13" s="108"/>
-      <c r="AK13" s="108"/>
-      <c r="AL13" s="114"/>
+      <c r="AF13" s="80"/>
+      <c r="AG13" s="80"/>
+      <c r="AH13" s="80"/>
+      <c r="AI13" s="80"/>
+      <c r="AJ13" s="80"/>
+      <c r="AK13" s="80"/>
+      <c r="AL13" s="86"/>
       <c r="AM13" s="1"/>
       <c r="AN13" s="1"/>
       <c r="AO13" s="14"/>
     </row>
-    <row r="14" spans="1:41" ht="20" customHeight="1">
-      <c r="A14" s="107"/>
-      <c r="B14" s="108"/>
-      <c r="C14" s="108"/>
-      <c r="D14" s="108"/>
-      <c r="E14" s="108"/>
-      <c r="F14" s="108"/>
-      <c r="G14" s="108"/>
+    <row r="14" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A14" s="79"/>
+      <c r="B14" s="80"/>
+      <c r="C14" s="80"/>
+      <c r="D14" s="80"/>
+      <c r="E14" s="80"/>
+      <c r="F14" s="80"/>
+      <c r="G14" s="80"/>
       <c r="H14" s="22"/>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
       <c r="K14" s="27"/>
       <c r="L14" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="M14" s="1"/>
       <c r="N14" s="1"/>
@@ -9425,31 +9442,31 @@
       <c r="AC14" s="1"/>
       <c r="AD14" s="1"/>
       <c r="AE14" s="14"/>
-      <c r="AF14" s="108"/>
-      <c r="AG14" s="108"/>
-      <c r="AH14" s="108"/>
-      <c r="AI14" s="108"/>
-      <c r="AJ14" s="108"/>
-      <c r="AK14" s="108"/>
-      <c r="AL14" s="114"/>
+      <c r="AF14" s="80"/>
+      <c r="AG14" s="80"/>
+      <c r="AH14" s="80"/>
+      <c r="AI14" s="80"/>
+      <c r="AJ14" s="80"/>
+      <c r="AK14" s="80"/>
+      <c r="AL14" s="86"/>
       <c r="AM14" s="1"/>
       <c r="AN14" s="1"/>
       <c r="AO14" s="14"/>
     </row>
-    <row r="15" spans="1:41" ht="20" customHeight="1">
-      <c r="A15" s="107"/>
-      <c r="B15" s="108"/>
-      <c r="C15" s="108"/>
-      <c r="D15" s="108"/>
-      <c r="E15" s="108"/>
-      <c r="F15" s="108"/>
-      <c r="G15" s="108"/>
+    <row r="15" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A15" s="79"/>
+      <c r="B15" s="80"/>
+      <c r="C15" s="80"/>
+      <c r="D15" s="80"/>
+      <c r="E15" s="80"/>
+      <c r="F15" s="80"/>
+      <c r="G15" s="80"/>
       <c r="H15" s="22"/>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
       <c r="L15" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="M15" s="1"/>
       <c r="N15" s="1"/>
@@ -9470,31 +9487,31 @@
       <c r="AC15" s="1"/>
       <c r="AD15" s="1"/>
       <c r="AE15" s="14"/>
-      <c r="AF15" s="108"/>
-      <c r="AG15" s="108"/>
-      <c r="AH15" s="108"/>
-      <c r="AI15" s="108"/>
-      <c r="AJ15" s="108"/>
-      <c r="AK15" s="108"/>
-      <c r="AL15" s="114"/>
+      <c r="AF15" s="80"/>
+      <c r="AG15" s="80"/>
+      <c r="AH15" s="80"/>
+      <c r="AI15" s="80"/>
+      <c r="AJ15" s="80"/>
+      <c r="AK15" s="80"/>
+      <c r="AL15" s="86"/>
       <c r="AM15" s="1"/>
       <c r="AN15" s="1"/>
       <c r="AO15" s="14"/>
     </row>
-    <row r="16" spans="1:41" ht="20" customHeight="1">
-      <c r="A16" s="107"/>
-      <c r="B16" s="108"/>
-      <c r="C16" s="108"/>
-      <c r="D16" s="108"/>
-      <c r="E16" s="108"/>
-      <c r="F16" s="108"/>
-      <c r="G16" s="108"/>
+    <row r="16" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A16" s="79"/>
+      <c r="B16" s="80"/>
+      <c r="C16" s="80"/>
+      <c r="D16" s="80"/>
+      <c r="E16" s="80"/>
+      <c r="F16" s="80"/>
+      <c r="G16" s="80"/>
       <c r="H16" s="22"/>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
       <c r="L16" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="M16" s="1"/>
       <c r="N16" s="1"/>
@@ -9515,31 +9532,31 @@
       <c r="AC16" s="1"/>
       <c r="AD16" s="1"/>
       <c r="AE16" s="14"/>
-      <c r="AF16" s="108"/>
-      <c r="AG16" s="108"/>
-      <c r="AH16" s="108"/>
-      <c r="AI16" s="108"/>
-      <c r="AJ16" s="108"/>
-      <c r="AK16" s="108"/>
-      <c r="AL16" s="114"/>
+      <c r="AF16" s="80"/>
+      <c r="AG16" s="80"/>
+      <c r="AH16" s="80"/>
+      <c r="AI16" s="80"/>
+      <c r="AJ16" s="80"/>
+      <c r="AK16" s="80"/>
+      <c r="AL16" s="86"/>
       <c r="AM16" s="1"/>
       <c r="AN16" s="1"/>
       <c r="AO16" s="14"/>
     </row>
-    <row r="17" spans="1:41" ht="20" customHeight="1">
-      <c r="A17" s="107"/>
-      <c r="B17" s="108"/>
-      <c r="C17" s="108"/>
-      <c r="D17" s="108"/>
-      <c r="E17" s="108"/>
-      <c r="F17" s="108"/>
-      <c r="G17" s="108"/>
+    <row r="17" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A17" s="79"/>
+      <c r="B17" s="80"/>
+      <c r="C17" s="80"/>
+      <c r="D17" s="80"/>
+      <c r="E17" s="80"/>
+      <c r="F17" s="80"/>
+      <c r="G17" s="80"/>
       <c r="H17" s="22"/>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
       <c r="L17" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="M17" s="1"/>
       <c r="N17" s="1"/>
@@ -9560,18 +9577,18 @@
       <c r="AC17" s="1"/>
       <c r="AD17" s="1"/>
       <c r="AE17" s="14"/>
-      <c r="AF17" s="108"/>
-      <c r="AG17" s="108"/>
-      <c r="AH17" s="108"/>
-      <c r="AI17" s="108"/>
-      <c r="AJ17" s="108"/>
-      <c r="AK17" s="108"/>
-      <c r="AL17" s="114"/>
+      <c r="AF17" s="80"/>
+      <c r="AG17" s="80"/>
+      <c r="AH17" s="80"/>
+      <c r="AI17" s="80"/>
+      <c r="AJ17" s="80"/>
+      <c r="AK17" s="80"/>
+      <c r="AL17" s="86"/>
       <c r="AM17" s="1"/>
       <c r="AN17" s="1"/>
       <c r="AO17" s="14"/>
     </row>
-    <row r="18" spans="1:41" ht="20" customHeight="1">
+    <row r="18" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A18" s="38"/>
       <c r="B18" s="39"/>
       <c r="C18" s="39"/>
@@ -9584,7 +9601,7 @@
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
       <c r="L18" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="M18" s="1"/>
       <c r="N18" s="1"/>
@@ -9616,7 +9633,7 @@
       <c r="AN18" s="1"/>
       <c r="AO18" s="14"/>
     </row>
-    <row r="19" spans="1:41" ht="20" customHeight="1">
+    <row r="19" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A19" s="38"/>
       <c r="B19" s="39"/>
       <c r="C19" s="39"/>
@@ -9629,7 +9646,7 @@
       <c r="J19" s="1"/>
       <c r="K19" s="27"/>
       <c r="L19" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M19" s="1"/>
       <c r="N19" s="1"/>
@@ -9661,20 +9678,20 @@
       <c r="AN19" s="1"/>
       <c r="AO19" s="14"/>
     </row>
-    <row r="20" spans="1:41" ht="20" customHeight="1">
-      <c r="A20" s="107"/>
-      <c r="B20" s="108"/>
-      <c r="C20" s="108"/>
-      <c r="D20" s="108"/>
-      <c r="E20" s="108"/>
-      <c r="F20" s="108"/>
-      <c r="G20" s="108"/>
+    <row r="20" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A20" s="79"/>
+      <c r="B20" s="80"/>
+      <c r="C20" s="80"/>
+      <c r="D20" s="80"/>
+      <c r="E20" s="80"/>
+      <c r="F20" s="80"/>
+      <c r="G20" s="80"/>
       <c r="H20" s="22"/>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
       <c r="L20" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="M20" s="1"/>
       <c r="N20" s="1"/>
@@ -9695,31 +9712,31 @@
       <c r="AC20" s="1"/>
       <c r="AD20" s="1"/>
       <c r="AE20" s="14"/>
-      <c r="AF20" s="108"/>
-      <c r="AG20" s="108"/>
-      <c r="AH20" s="108"/>
-      <c r="AI20" s="108"/>
-      <c r="AJ20" s="108"/>
-      <c r="AK20" s="108"/>
-      <c r="AL20" s="114"/>
+      <c r="AF20" s="80"/>
+      <c r="AG20" s="80"/>
+      <c r="AH20" s="80"/>
+      <c r="AI20" s="80"/>
+      <c r="AJ20" s="80"/>
+      <c r="AK20" s="80"/>
+      <c r="AL20" s="86"/>
       <c r="AM20" s="1"/>
       <c r="AN20" s="1"/>
       <c r="AO20" s="14"/>
     </row>
-    <row r="21" spans="1:41" ht="20" customHeight="1">
-      <c r="A21" s="107"/>
-      <c r="B21" s="108"/>
-      <c r="C21" s="108"/>
-      <c r="D21" s="108"/>
-      <c r="E21" s="108"/>
-      <c r="F21" s="108"/>
-      <c r="G21" s="108"/>
+    <row r="21" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A21" s="79"/>
+      <c r="B21" s="80"/>
+      <c r="C21" s="80"/>
+      <c r="D21" s="80"/>
+      <c r="E21" s="80"/>
+      <c r="F21" s="80"/>
+      <c r="G21" s="80"/>
       <c r="H21" s="22"/>
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
       <c r="L21" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="M21" s="1"/>
       <c r="N21" s="1"/>
@@ -9740,31 +9757,31 @@
       <c r="AC21" s="1"/>
       <c r="AD21" s="1"/>
       <c r="AE21" s="14"/>
-      <c r="AF21" s="108"/>
-      <c r="AG21" s="108"/>
-      <c r="AH21" s="108"/>
-      <c r="AI21" s="108"/>
-      <c r="AJ21" s="108"/>
-      <c r="AK21" s="108"/>
-      <c r="AL21" s="114"/>
+      <c r="AF21" s="80"/>
+      <c r="AG21" s="80"/>
+      <c r="AH21" s="80"/>
+      <c r="AI21" s="80"/>
+      <c r="AJ21" s="80"/>
+      <c r="AK21" s="80"/>
+      <c r="AL21" s="86"/>
       <c r="AM21" s="1"/>
       <c r="AN21" s="1"/>
       <c r="AO21" s="14"/>
     </row>
-    <row r="22" spans="1:41" ht="20" customHeight="1">
-      <c r="A22" s="107"/>
-      <c r="B22" s="108"/>
-      <c r="C22" s="108"/>
-      <c r="D22" s="108"/>
-      <c r="E22" s="108"/>
-      <c r="F22" s="108"/>
-      <c r="G22" s="108"/>
+    <row r="22" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A22" s="79"/>
+      <c r="B22" s="80"/>
+      <c r="C22" s="80"/>
+      <c r="D22" s="80"/>
+      <c r="E22" s="80"/>
+      <c r="F22" s="80"/>
+      <c r="G22" s="80"/>
       <c r="H22" s="22"/>
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
       <c r="L22" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="M22" s="1"/>
       <c r="N22" s="1"/>
@@ -9785,25 +9802,25 @@
       <c r="AC22" s="1"/>
       <c r="AD22" s="1"/>
       <c r="AE22" s="14"/>
-      <c r="AF22" s="108"/>
-      <c r="AG22" s="108"/>
-      <c r="AH22" s="108"/>
-      <c r="AI22" s="108"/>
-      <c r="AJ22" s="108"/>
-      <c r="AK22" s="108"/>
-      <c r="AL22" s="114"/>
+      <c r="AF22" s="80"/>
+      <c r="AG22" s="80"/>
+      <c r="AH22" s="80"/>
+      <c r="AI22" s="80"/>
+      <c r="AJ22" s="80"/>
+      <c r="AK22" s="80"/>
+      <c r="AL22" s="86"/>
       <c r="AM22" s="1"/>
       <c r="AN22" s="1"/>
       <c r="AO22" s="14"/>
     </row>
-    <row r="23" spans="1:41" ht="20" customHeight="1">
-      <c r="A23" s="107"/>
-      <c r="B23" s="108"/>
-      <c r="C23" s="108"/>
-      <c r="D23" s="108"/>
-      <c r="E23" s="108"/>
-      <c r="F23" s="108"/>
-      <c r="G23" s="108"/>
+    <row r="23" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A23" s="79"/>
+      <c r="B23" s="80"/>
+      <c r="C23" s="80"/>
+      <c r="D23" s="80"/>
+      <c r="E23" s="80"/>
+      <c r="F23" s="80"/>
+      <c r="G23" s="80"/>
       <c r="H23" s="22"/>
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
@@ -9828,25 +9845,25 @@
       <c r="AC23" s="1"/>
       <c r="AD23" s="1"/>
       <c r="AE23" s="14"/>
-      <c r="AF23" s="108"/>
-      <c r="AG23" s="108"/>
-      <c r="AH23" s="108"/>
-      <c r="AI23" s="108"/>
-      <c r="AJ23" s="108"/>
-      <c r="AK23" s="108"/>
-      <c r="AL23" s="114"/>
+      <c r="AF23" s="80"/>
+      <c r="AG23" s="80"/>
+      <c r="AH23" s="80"/>
+      <c r="AI23" s="80"/>
+      <c r="AJ23" s="80"/>
+      <c r="AK23" s="80"/>
+      <c r="AL23" s="86"/>
       <c r="AM23" s="1"/>
       <c r="AN23" s="1"/>
       <c r="AO23" s="14"/>
     </row>
-    <row r="24" spans="1:41" ht="20" customHeight="1">
-      <c r="A24" s="107"/>
-      <c r="B24" s="108"/>
-      <c r="C24" s="108"/>
-      <c r="D24" s="108"/>
-      <c r="E24" s="108"/>
-      <c r="F24" s="108"/>
-      <c r="G24" s="108"/>
+    <row r="24" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A24" s="79"/>
+      <c r="B24" s="80"/>
+      <c r="C24" s="80"/>
+      <c r="D24" s="80"/>
+      <c r="E24" s="80"/>
+      <c r="F24" s="80"/>
+      <c r="G24" s="80"/>
       <c r="H24" s="22"/>
       <c r="I24" s="1" t="s">
         <v>37</v>
@@ -9873,25 +9890,25 @@
       <c r="AC24" s="1"/>
       <c r="AD24" s="1"/>
       <c r="AE24" s="14"/>
-      <c r="AF24" s="108"/>
-      <c r="AG24" s="108"/>
-      <c r="AH24" s="108"/>
-      <c r="AI24" s="108"/>
-      <c r="AJ24" s="108"/>
-      <c r="AK24" s="108"/>
-      <c r="AL24" s="114"/>
+      <c r="AF24" s="80"/>
+      <c r="AG24" s="80"/>
+      <c r="AH24" s="80"/>
+      <c r="AI24" s="80"/>
+      <c r="AJ24" s="80"/>
+      <c r="AK24" s="80"/>
+      <c r="AL24" s="86"/>
       <c r="AM24" s="1"/>
       <c r="AN24" s="1"/>
       <c r="AO24" s="14"/>
     </row>
-    <row r="25" spans="1:41" ht="20" customHeight="1">
-      <c r="A25" s="107"/>
-      <c r="B25" s="108"/>
-      <c r="C25" s="108"/>
-      <c r="D25" s="108"/>
-      <c r="E25" s="108"/>
-      <c r="F25" s="108"/>
-      <c r="G25" s="108"/>
+    <row r="25" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A25" s="79"/>
+      <c r="B25" s="80"/>
+      <c r="C25" s="80"/>
+      <c r="D25" s="80"/>
+      <c r="E25" s="80"/>
+      <c r="F25" s="80"/>
+      <c r="G25" s="80"/>
       <c r="H25" s="22"/>
       <c r="I25" s="25"/>
       <c r="J25" s="25"/>
@@ -9916,25 +9933,25 @@
       <c r="AC25" s="1"/>
       <c r="AD25" s="1"/>
       <c r="AE25" s="14"/>
-      <c r="AF25" s="108"/>
-      <c r="AG25" s="108"/>
-      <c r="AH25" s="108"/>
-      <c r="AI25" s="108"/>
-      <c r="AJ25" s="108"/>
-      <c r="AK25" s="108"/>
-      <c r="AL25" s="114"/>
+      <c r="AF25" s="80"/>
+      <c r="AG25" s="80"/>
+      <c r="AH25" s="80"/>
+      <c r="AI25" s="80"/>
+      <c r="AJ25" s="80"/>
+      <c r="AK25" s="80"/>
+      <c r="AL25" s="86"/>
       <c r="AM25" s="1"/>
       <c r="AN25" s="1"/>
       <c r="AO25" s="14"/>
     </row>
-    <row r="26" spans="1:41" ht="20" customHeight="1">
-      <c r="A26" s="107"/>
-      <c r="B26" s="108"/>
-      <c r="C26" s="108"/>
-      <c r="D26" s="108"/>
-      <c r="E26" s="108"/>
-      <c r="F26" s="108"/>
-      <c r="G26" s="108"/>
+    <row r="26" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A26" s="79"/>
+      <c r="B26" s="80"/>
+      <c r="C26" s="80"/>
+      <c r="D26" s="80"/>
+      <c r="E26" s="80"/>
+      <c r="F26" s="80"/>
+      <c r="G26" s="80"/>
       <c r="H26" s="22"/>
       <c r="I26" s="25"/>
       <c r="J26" s="1" t="s">
@@ -9961,30 +9978,30 @@
       <c r="AC26" s="1"/>
       <c r="AD26" s="1"/>
       <c r="AE26" s="14"/>
-      <c r="AF26" s="108"/>
-      <c r="AG26" s="108"/>
-      <c r="AH26" s="108"/>
-      <c r="AI26" s="108"/>
-      <c r="AJ26" s="108"/>
-      <c r="AK26" s="108"/>
-      <c r="AL26" s="114"/>
+      <c r="AF26" s="80"/>
+      <c r="AG26" s="80"/>
+      <c r="AH26" s="80"/>
+      <c r="AI26" s="80"/>
+      <c r="AJ26" s="80"/>
+      <c r="AK26" s="80"/>
+      <c r="AL26" s="86"/>
       <c r="AM26" s="1"/>
       <c r="AN26" s="1"/>
       <c r="AO26" s="14"/>
     </row>
-    <row r="27" spans="1:41" ht="20" customHeight="1">
-      <c r="A27" s="107"/>
-      <c r="B27" s="108"/>
-      <c r="C27" s="108"/>
-      <c r="D27" s="108"/>
-      <c r="E27" s="108"/>
-      <c r="F27" s="108"/>
-      <c r="G27" s="108"/>
+    <row r="27" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A27" s="79"/>
+      <c r="B27" s="80"/>
+      <c r="C27" s="80"/>
+      <c r="D27" s="80"/>
+      <c r="E27" s="80"/>
+      <c r="F27" s="80"/>
+      <c r="G27" s="80"/>
       <c r="H27" s="22"/>
       <c r="I27" s="1"/>
       <c r="J27" s="1"/>
       <c r="K27" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L27" s="1"/>
       <c r="M27" s="1"/>
@@ -10006,48 +10023,48 @@
       <c r="AC27" s="1"/>
       <c r="AD27" s="1"/>
       <c r="AE27" s="14"/>
-      <c r="AF27" s="108"/>
-      <c r="AG27" s="108"/>
-      <c r="AH27" s="108"/>
-      <c r="AI27" s="108"/>
-      <c r="AJ27" s="108"/>
-      <c r="AK27" s="108"/>
-      <c r="AL27" s="114"/>
+      <c r="AF27" s="80"/>
+      <c r="AG27" s="80"/>
+      <c r="AH27" s="80"/>
+      <c r="AI27" s="80"/>
+      <c r="AJ27" s="80"/>
+      <c r="AK27" s="80"/>
+      <c r="AL27" s="86"/>
       <c r="AM27" s="1"/>
       <c r="AN27" s="1"/>
       <c r="AO27" s="14"/>
     </row>
-    <row r="28" spans="1:41" ht="20" customHeight="1">
-      <c r="A28" s="107"/>
-      <c r="B28" s="108"/>
-      <c r="C28" s="108"/>
-      <c r="D28" s="108"/>
-      <c r="E28" s="108"/>
-      <c r="F28" s="108"/>
-      <c r="G28" s="108"/>
+    <row r="28" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A28" s="79"/>
+      <c r="B28" s="80"/>
+      <c r="C28" s="80"/>
+      <c r="D28" s="80"/>
+      <c r="E28" s="80"/>
+      <c r="F28" s="80"/>
+      <c r="G28" s="80"/>
       <c r="H28" s="22"/>
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
-      <c r="K28" s="126" t="s">
+      <c r="K28" s="120" t="s">
         <v>39</v>
       </c>
-      <c r="L28" s="126"/>
-      <c r="M28" s="126"/>
-      <c r="N28" s="126"/>
-      <c r="O28" s="126"/>
-      <c r="P28" s="127" t="s">
+      <c r="L28" s="120"/>
+      <c r="M28" s="120"/>
+      <c r="N28" s="120"/>
+      <c r="O28" s="120"/>
+      <c r="P28" s="121" t="s">
         <v>40</v>
       </c>
-      <c r="Q28" s="128"/>
-      <c r="R28" s="128"/>
-      <c r="S28" s="128"/>
-      <c r="T28" s="128"/>
-      <c r="U28" s="128"/>
-      <c r="V28" s="128"/>
-      <c r="W28" s="128"/>
-      <c r="X28" s="128"/>
-      <c r="Y28" s="128"/>
-      <c r="Z28" s="129"/>
+      <c r="Q28" s="122"/>
+      <c r="R28" s="122"/>
+      <c r="S28" s="122"/>
+      <c r="T28" s="122"/>
+      <c r="U28" s="122"/>
+      <c r="V28" s="122"/>
+      <c r="W28" s="122"/>
+      <c r="X28" s="122"/>
+      <c r="Y28" s="122"/>
+      <c r="Z28" s="123"/>
       <c r="AA28" s="46" t="s">
         <v>43</v>
       </c>
@@ -10055,46 +10072,46 @@
       <c r="AC28" s="46"/>
       <c r="AD28" s="46"/>
       <c r="AE28" s="14"/>
-      <c r="AF28" s="108"/>
-      <c r="AG28" s="108"/>
-      <c r="AH28" s="108"/>
-      <c r="AI28" s="108"/>
-      <c r="AJ28" s="108"/>
-      <c r="AK28" s="108"/>
-      <c r="AL28" s="114"/>
+      <c r="AF28" s="80"/>
+      <c r="AG28" s="80"/>
+      <c r="AH28" s="80"/>
+      <c r="AI28" s="80"/>
+      <c r="AJ28" s="80"/>
+      <c r="AK28" s="80"/>
+      <c r="AL28" s="86"/>
       <c r="AM28" s="1"/>
       <c r="AN28" s="1"/>
       <c r="AO28" s="14"/>
     </row>
-    <row r="29" spans="1:41" ht="20" customHeight="1">
-      <c r="A29" s="107"/>
-      <c r="B29" s="108"/>
-      <c r="C29" s="108"/>
-      <c r="D29" s="108"/>
-      <c r="E29" s="108"/>
-      <c r="F29" s="108"/>
-      <c r="G29" s="108"/>
+    <row r="29" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A29" s="79"/>
+      <c r="B29" s="80"/>
+      <c r="C29" s="80"/>
+      <c r="D29" s="80"/>
+      <c r="E29" s="80"/>
+      <c r="F29" s="80"/>
+      <c r="G29" s="80"/>
       <c r="H29" s="22"/>
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
-      <c r="K29" s="110"/>
-      <c r="L29" s="110"/>
-      <c r="M29" s="110"/>
-      <c r="N29" s="110"/>
-      <c r="O29" s="110"/>
-      <c r="P29" s="111" t="s">
-        <v>85</v>
-      </c>
-      <c r="Q29" s="112"/>
-      <c r="R29" s="112"/>
-      <c r="S29" s="112"/>
-      <c r="T29" s="112"/>
-      <c r="U29" s="112"/>
-      <c r="V29" s="112"/>
-      <c r="W29" s="112"/>
-      <c r="X29" s="112"/>
-      <c r="Y29" s="112"/>
-      <c r="Z29" s="113"/>
+      <c r="K29" s="82"/>
+      <c r="L29" s="82"/>
+      <c r="M29" s="82"/>
+      <c r="N29" s="82"/>
+      <c r="O29" s="82"/>
+      <c r="P29" s="83" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q29" s="84"/>
+      <c r="R29" s="84"/>
+      <c r="S29" s="84"/>
+      <c r="T29" s="84"/>
+      <c r="U29" s="84"/>
+      <c r="V29" s="84"/>
+      <c r="W29" s="84"/>
+      <c r="X29" s="84"/>
+      <c r="Y29" s="84"/>
+      <c r="Z29" s="85"/>
       <c r="AA29" s="43" t="s">
         <v>44</v>
       </c>
@@ -10102,97 +10119,97 @@
       <c r="AC29" s="43"/>
       <c r="AD29" s="43"/>
       <c r="AE29" s="14"/>
-      <c r="AF29" s="108"/>
-      <c r="AG29" s="108"/>
-      <c r="AH29" s="108"/>
-      <c r="AI29" s="108"/>
-      <c r="AJ29" s="108"/>
-      <c r="AK29" s="108"/>
-      <c r="AL29" s="114"/>
+      <c r="AF29" s="80"/>
+      <c r="AG29" s="80"/>
+      <c r="AH29" s="80"/>
+      <c r="AI29" s="80"/>
+      <c r="AJ29" s="80"/>
+      <c r="AK29" s="80"/>
+      <c r="AL29" s="86"/>
       <c r="AM29" s="1"/>
       <c r="AN29" s="1"/>
       <c r="AO29" s="14"/>
     </row>
-    <row r="30" spans="1:41" ht="20" customHeight="1">
-      <c r="A30" s="107"/>
-      <c r="B30" s="108"/>
-      <c r="C30" s="108"/>
-      <c r="D30" s="108"/>
-      <c r="E30" s="108"/>
-      <c r="F30" s="108"/>
-      <c r="G30" s="108"/>
+    <row r="30" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A30" s="79"/>
+      <c r="B30" s="80"/>
+      <c r="C30" s="80"/>
+      <c r="D30" s="80"/>
+      <c r="E30" s="80"/>
+      <c r="F30" s="80"/>
+      <c r="G30" s="80"/>
       <c r="H30" s="22"/>
       <c r="I30" s="1"/>
       <c r="J30" s="1"/>
-      <c r="K30" s="110" t="s">
-        <v>87</v>
-      </c>
-      <c r="L30" s="110"/>
-      <c r="M30" s="110"/>
-      <c r="N30" s="110"/>
-      <c r="O30" s="110"/>
-      <c r="P30" s="111" t="s">
-        <v>89</v>
-      </c>
-      <c r="Q30" s="112"/>
-      <c r="R30" s="112"/>
-      <c r="S30" s="112"/>
-      <c r="T30" s="112"/>
-      <c r="U30" s="112"/>
-      <c r="V30" s="112"/>
-      <c r="W30" s="112"/>
-      <c r="X30" s="112"/>
-      <c r="Y30" s="112"/>
-      <c r="Z30" s="113"/>
-      <c r="AA30" s="123" t="s">
+      <c r="K30" s="82" t="s">
         <v>86</v>
       </c>
-      <c r="AB30" s="124"/>
-      <c r="AC30" s="124"/>
-      <c r="AD30" s="125"/>
+      <c r="L30" s="82"/>
+      <c r="M30" s="82"/>
+      <c r="N30" s="82"/>
+      <c r="O30" s="82"/>
+      <c r="P30" s="83" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q30" s="84"/>
+      <c r="R30" s="84"/>
+      <c r="S30" s="84"/>
+      <c r="T30" s="84"/>
+      <c r="U30" s="84"/>
+      <c r="V30" s="84"/>
+      <c r="W30" s="84"/>
+      <c r="X30" s="84"/>
+      <c r="Y30" s="84"/>
+      <c r="Z30" s="85"/>
+      <c r="AA30" s="117" t="s">
+        <v>85</v>
+      </c>
+      <c r="AB30" s="118"/>
+      <c r="AC30" s="118"/>
+      <c r="AD30" s="119"/>
       <c r="AE30" s="14"/>
-      <c r="AF30" s="108"/>
-      <c r="AG30" s="108"/>
-      <c r="AH30" s="108"/>
-      <c r="AI30" s="108"/>
-      <c r="AJ30" s="108"/>
-      <c r="AK30" s="108"/>
-      <c r="AL30" s="114"/>
+      <c r="AF30" s="80"/>
+      <c r="AG30" s="80"/>
+      <c r="AH30" s="80"/>
+      <c r="AI30" s="80"/>
+      <c r="AJ30" s="80"/>
+      <c r="AK30" s="80"/>
+      <c r="AL30" s="86"/>
       <c r="AM30" s="1"/>
       <c r="AN30" s="1"/>
       <c r="AO30" s="14"/>
     </row>
-    <row r="31" spans="1:41" ht="20" customHeight="1">
-      <c r="A31" s="107"/>
-      <c r="B31" s="108"/>
-      <c r="C31" s="108"/>
-      <c r="D31" s="108"/>
-      <c r="E31" s="108"/>
-      <c r="F31" s="108"/>
-      <c r="G31" s="108"/>
+    <row r="31" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A31" s="79"/>
+      <c r="B31" s="80"/>
+      <c r="C31" s="80"/>
+      <c r="D31" s="80"/>
+      <c r="E31" s="80"/>
+      <c r="F31" s="80"/>
+      <c r="G31" s="80"/>
       <c r="H31" s="22"/>
       <c r="I31" s="1"/>
       <c r="J31" s="1"/>
-      <c r="K31" s="110" t="s">
+      <c r="K31" s="82" t="s">
         <v>42</v>
       </c>
-      <c r="L31" s="110"/>
-      <c r="M31" s="110"/>
-      <c r="N31" s="110"/>
-      <c r="O31" s="110"/>
-      <c r="P31" s="111" t="s">
+      <c r="L31" s="82"/>
+      <c r="M31" s="82"/>
+      <c r="N31" s="82"/>
+      <c r="O31" s="82"/>
+      <c r="P31" s="83" t="s">
         <v>41</v>
       </c>
-      <c r="Q31" s="112"/>
-      <c r="R31" s="112"/>
-      <c r="S31" s="112"/>
-      <c r="T31" s="112"/>
-      <c r="U31" s="112"/>
-      <c r="V31" s="112"/>
-      <c r="W31" s="112"/>
-      <c r="X31" s="112"/>
-      <c r="Y31" s="112"/>
-      <c r="Z31" s="113"/>
+      <c r="Q31" s="84"/>
+      <c r="R31" s="84"/>
+      <c r="S31" s="84"/>
+      <c r="T31" s="84"/>
+      <c r="U31" s="84"/>
+      <c r="V31" s="84"/>
+      <c r="W31" s="84"/>
+      <c r="X31" s="84"/>
+      <c r="Y31" s="84"/>
+      <c r="Z31" s="85"/>
       <c r="AA31" s="43" t="s">
         <v>45</v>
       </c>
@@ -10200,495 +10217,495 @@
       <c r="AC31" s="43"/>
       <c r="AD31" s="43"/>
       <c r="AE31" s="14"/>
-      <c r="AF31" s="108"/>
-      <c r="AG31" s="108"/>
-      <c r="AH31" s="108"/>
-      <c r="AI31" s="108"/>
-      <c r="AJ31" s="108"/>
-      <c r="AK31" s="108"/>
-      <c r="AL31" s="114"/>
+      <c r="AF31" s="80"/>
+      <c r="AG31" s="80"/>
+      <c r="AH31" s="80"/>
+      <c r="AI31" s="80"/>
+      <c r="AJ31" s="80"/>
+      <c r="AK31" s="80"/>
+      <c r="AL31" s="86"/>
       <c r="AM31" s="1"/>
       <c r="AN31" s="1"/>
       <c r="AO31" s="14"/>
     </row>
-    <row r="32" spans="1:41" ht="20" customHeight="1">
-      <c r="A32" s="107"/>
-      <c r="B32" s="108"/>
-      <c r="C32" s="108"/>
-      <c r="D32" s="108"/>
-      <c r="E32" s="108"/>
-      <c r="F32" s="108"/>
-      <c r="G32" s="108"/>
+    <row r="32" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A32" s="79"/>
+      <c r="B32" s="80"/>
+      <c r="C32" s="80"/>
+      <c r="D32" s="80"/>
+      <c r="E32" s="80"/>
+      <c r="F32" s="80"/>
+      <c r="G32" s="80"/>
       <c r="H32" s="22"/>
       <c r="I32" s="1"/>
       <c r="J32" s="1"/>
-      <c r="K32" s="110" t="s">
+      <c r="K32" s="82" t="s">
         <v>46</v>
       </c>
-      <c r="L32" s="110"/>
-      <c r="M32" s="110"/>
-      <c r="N32" s="110"/>
-      <c r="O32" s="110"/>
-      <c r="P32" s="111" t="s">
+      <c r="L32" s="82"/>
+      <c r="M32" s="82"/>
+      <c r="N32" s="82"/>
+      <c r="O32" s="82"/>
+      <c r="P32" s="83" t="s">
         <v>41</v>
       </c>
-      <c r="Q32" s="112"/>
-      <c r="R32" s="112"/>
-      <c r="S32" s="112"/>
-      <c r="T32" s="112"/>
-      <c r="U32" s="112"/>
-      <c r="V32" s="112"/>
-      <c r="W32" s="112"/>
-      <c r="X32" s="112"/>
-      <c r="Y32" s="112"/>
-      <c r="Z32" s="113"/>
+      <c r="Q32" s="84"/>
+      <c r="R32" s="84"/>
+      <c r="S32" s="84"/>
+      <c r="T32" s="84"/>
+      <c r="U32" s="84"/>
+      <c r="V32" s="84"/>
+      <c r="W32" s="84"/>
+      <c r="X32" s="84"/>
+      <c r="Y32" s="84"/>
+      <c r="Z32" s="85"/>
       <c r="AA32" s="43"/>
       <c r="AB32" s="43"/>
       <c r="AC32" s="43"/>
       <c r="AD32" s="43"/>
       <c r="AE32" s="14"/>
-      <c r="AF32" s="108"/>
-      <c r="AG32" s="108"/>
-      <c r="AH32" s="108"/>
-      <c r="AI32" s="108"/>
-      <c r="AJ32" s="108"/>
-      <c r="AK32" s="108"/>
-      <c r="AL32" s="114"/>
+      <c r="AF32" s="80"/>
+      <c r="AG32" s="80"/>
+      <c r="AH32" s="80"/>
+      <c r="AI32" s="80"/>
+      <c r="AJ32" s="80"/>
+      <c r="AK32" s="80"/>
+      <c r="AL32" s="86"/>
       <c r="AM32" s="1"/>
       <c r="AN32" s="1"/>
       <c r="AO32" s="14"/>
     </row>
-    <row r="33" spans="1:41" ht="20" customHeight="1">
-      <c r="A33" s="107"/>
-      <c r="B33" s="108"/>
-      <c r="C33" s="108"/>
-      <c r="D33" s="108"/>
-      <c r="E33" s="108"/>
-      <c r="F33" s="108"/>
-      <c r="G33" s="108"/>
+    <row r="33" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A33" s="79"/>
+      <c r="B33" s="80"/>
+      <c r="C33" s="80"/>
+      <c r="D33" s="80"/>
+      <c r="E33" s="80"/>
+      <c r="F33" s="80"/>
+      <c r="G33" s="80"/>
       <c r="H33" s="22"/>
       <c r="I33" s="1"/>
       <c r="J33" s="1"/>
-      <c r="K33" s="110" t="s">
+      <c r="K33" s="82" t="s">
         <v>47</v>
       </c>
-      <c r="L33" s="110"/>
-      <c r="M33" s="110"/>
-      <c r="N33" s="110"/>
-      <c r="O33" s="110"/>
-      <c r="P33" s="111" t="s">
+      <c r="L33" s="82"/>
+      <c r="M33" s="82"/>
+      <c r="N33" s="82"/>
+      <c r="O33" s="82"/>
+      <c r="P33" s="83" t="s">
         <v>41</v>
       </c>
-      <c r="Q33" s="112"/>
-      <c r="R33" s="112"/>
-      <c r="S33" s="112"/>
-      <c r="T33" s="112"/>
-      <c r="U33" s="112"/>
-      <c r="V33" s="112"/>
-      <c r="W33" s="112"/>
-      <c r="X33" s="112"/>
-      <c r="Y33" s="112"/>
-      <c r="Z33" s="113"/>
+      <c r="Q33" s="84"/>
+      <c r="R33" s="84"/>
+      <c r="S33" s="84"/>
+      <c r="T33" s="84"/>
+      <c r="U33" s="84"/>
+      <c r="V33" s="84"/>
+      <c r="W33" s="84"/>
+      <c r="X33" s="84"/>
+      <c r="Y33" s="84"/>
+      <c r="Z33" s="85"/>
       <c r="AA33" s="43"/>
       <c r="AB33" s="43"/>
       <c r="AC33" s="43"/>
       <c r="AD33" s="43"/>
       <c r="AE33" s="14"/>
-      <c r="AF33" s="108"/>
-      <c r="AG33" s="108"/>
-      <c r="AH33" s="108"/>
-      <c r="AI33" s="108"/>
-      <c r="AJ33" s="108"/>
-      <c r="AK33" s="108"/>
-      <c r="AL33" s="114"/>
+      <c r="AF33" s="80"/>
+      <c r="AG33" s="80"/>
+      <c r="AH33" s="80"/>
+      <c r="AI33" s="80"/>
+      <c r="AJ33" s="80"/>
+      <c r="AK33" s="80"/>
+      <c r="AL33" s="86"/>
       <c r="AM33" s="1"/>
       <c r="AN33" s="1"/>
       <c r="AO33" s="14"/>
     </row>
-    <row r="34" spans="1:41" ht="20" customHeight="1">
-      <c r="A34" s="107"/>
-      <c r="B34" s="108"/>
-      <c r="C34" s="108"/>
-      <c r="D34" s="108"/>
-      <c r="E34" s="108"/>
-      <c r="F34" s="108"/>
-      <c r="G34" s="108"/>
+    <row r="34" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A34" s="79"/>
+      <c r="B34" s="80"/>
+      <c r="C34" s="80"/>
+      <c r="D34" s="80"/>
+      <c r="E34" s="80"/>
+      <c r="F34" s="80"/>
+      <c r="G34" s="80"/>
       <c r="H34" s="22"/>
       <c r="I34" s="1"/>
       <c r="J34" s="1"/>
-      <c r="K34" s="110" t="s">
-        <v>92</v>
-      </c>
-      <c r="L34" s="110"/>
-      <c r="M34" s="110"/>
-      <c r="N34" s="110"/>
-      <c r="O34" s="110"/>
-      <c r="P34" s="111" t="s">
+      <c r="K34" s="82" t="s">
+        <v>91</v>
+      </c>
+      <c r="L34" s="82"/>
+      <c r="M34" s="82"/>
+      <c r="N34" s="82"/>
+      <c r="O34" s="82"/>
+      <c r="P34" s="83" t="s">
         <v>41</v>
       </c>
-      <c r="Q34" s="112"/>
-      <c r="R34" s="112"/>
-      <c r="S34" s="112"/>
-      <c r="T34" s="112"/>
-      <c r="U34" s="112"/>
-      <c r="V34" s="112"/>
-      <c r="W34" s="112"/>
-      <c r="X34" s="112"/>
-      <c r="Y34" s="112"/>
-      <c r="Z34" s="113"/>
+      <c r="Q34" s="84"/>
+      <c r="R34" s="84"/>
+      <c r="S34" s="84"/>
+      <c r="T34" s="84"/>
+      <c r="U34" s="84"/>
+      <c r="V34" s="84"/>
+      <c r="W34" s="84"/>
+      <c r="X34" s="84"/>
+      <c r="Y34" s="84"/>
+      <c r="Z34" s="85"/>
       <c r="AA34" s="43"/>
       <c r="AB34" s="43"/>
       <c r="AC34" s="43"/>
       <c r="AD34" s="43"/>
       <c r="AE34" s="14"/>
-      <c r="AF34" s="108"/>
-      <c r="AG34" s="108"/>
-      <c r="AH34" s="108"/>
-      <c r="AI34" s="108"/>
-      <c r="AJ34" s="108"/>
-      <c r="AK34" s="108"/>
-      <c r="AL34" s="114"/>
+      <c r="AF34" s="80"/>
+      <c r="AG34" s="80"/>
+      <c r="AH34" s="80"/>
+      <c r="AI34" s="80"/>
+      <c r="AJ34" s="80"/>
+      <c r="AK34" s="80"/>
+      <c r="AL34" s="86"/>
       <c r="AM34" s="1"/>
       <c r="AN34" s="1"/>
       <c r="AO34" s="14"/>
     </row>
-    <row r="35" spans="1:41" ht="20" customHeight="1">
-      <c r="A35" s="107"/>
-      <c r="B35" s="108"/>
-      <c r="C35" s="108"/>
-      <c r="D35" s="108"/>
-      <c r="E35" s="108"/>
-      <c r="F35" s="108"/>
-      <c r="G35" s="108"/>
+    <row r="35" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A35" s="79"/>
+      <c r="B35" s="80"/>
+      <c r="C35" s="80"/>
+      <c r="D35" s="80"/>
+      <c r="E35" s="80"/>
+      <c r="F35" s="80"/>
+      <c r="G35" s="80"/>
       <c r="H35" s="22"/>
       <c r="I35" s="1"/>
       <c r="J35" s="1"/>
-      <c r="K35" s="110" t="s">
-        <v>93</v>
-      </c>
-      <c r="L35" s="110"/>
-      <c r="M35" s="110"/>
-      <c r="N35" s="110"/>
-      <c r="O35" s="110"/>
-      <c r="P35" s="111" t="s">
+      <c r="K35" s="82" t="s">
+        <v>92</v>
+      </c>
+      <c r="L35" s="82"/>
+      <c r="M35" s="82"/>
+      <c r="N35" s="82"/>
+      <c r="O35" s="82"/>
+      <c r="P35" s="83" t="s">
         <v>41</v>
       </c>
-      <c r="Q35" s="112"/>
-      <c r="R35" s="112"/>
-      <c r="S35" s="112"/>
-      <c r="T35" s="112"/>
-      <c r="U35" s="112"/>
-      <c r="V35" s="112"/>
-      <c r="W35" s="112"/>
-      <c r="X35" s="112"/>
-      <c r="Y35" s="112"/>
-      <c r="Z35" s="113"/>
+      <c r="Q35" s="84"/>
+      <c r="R35" s="84"/>
+      <c r="S35" s="84"/>
+      <c r="T35" s="84"/>
+      <c r="U35" s="84"/>
+      <c r="V35" s="84"/>
+      <c r="W35" s="84"/>
+      <c r="X35" s="84"/>
+      <c r="Y35" s="84"/>
+      <c r="Z35" s="85"/>
       <c r="AA35" s="43"/>
       <c r="AB35" s="43"/>
       <c r="AC35" s="43"/>
       <c r="AD35" s="43"/>
       <c r="AE35" s="14"/>
-      <c r="AF35" s="108"/>
-      <c r="AG35" s="108"/>
-      <c r="AH35" s="108"/>
-      <c r="AI35" s="108"/>
-      <c r="AJ35" s="108"/>
-      <c r="AK35" s="108"/>
-      <c r="AL35" s="114"/>
+      <c r="AF35" s="80"/>
+      <c r="AG35" s="80"/>
+      <c r="AH35" s="80"/>
+      <c r="AI35" s="80"/>
+      <c r="AJ35" s="80"/>
+      <c r="AK35" s="80"/>
+      <c r="AL35" s="86"/>
       <c r="AM35" s="1"/>
       <c r="AN35" s="1"/>
       <c r="AO35" s="14"/>
     </row>
-    <row r="36" spans="1:41" ht="20" customHeight="1">
-      <c r="A36" s="107"/>
-      <c r="B36" s="108"/>
-      <c r="C36" s="108"/>
-      <c r="D36" s="108"/>
-      <c r="E36" s="108"/>
-      <c r="F36" s="108"/>
-      <c r="G36" s="108"/>
+    <row r="36" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A36" s="79"/>
+      <c r="B36" s="80"/>
+      <c r="C36" s="80"/>
+      <c r="D36" s="80"/>
+      <c r="E36" s="80"/>
+      <c r="F36" s="80"/>
+      <c r="G36" s="80"/>
       <c r="H36" s="22"/>
       <c r="I36" s="1"/>
       <c r="J36" s="1"/>
-      <c r="K36" s="109" t="s">
+      <c r="K36" s="81" t="s">
         <v>48</v>
       </c>
-      <c r="L36" s="110"/>
-      <c r="M36" s="110"/>
-      <c r="N36" s="110"/>
-      <c r="O36" s="110"/>
-      <c r="P36" s="111" t="s">
+      <c r="L36" s="82"/>
+      <c r="M36" s="82"/>
+      <c r="N36" s="82"/>
+      <c r="O36" s="82"/>
+      <c r="P36" s="83" t="s">
         <v>41</v>
       </c>
-      <c r="Q36" s="112"/>
-      <c r="R36" s="112"/>
-      <c r="S36" s="112"/>
-      <c r="T36" s="112"/>
-      <c r="U36" s="112"/>
-      <c r="V36" s="112"/>
-      <c r="W36" s="112"/>
-      <c r="X36" s="112"/>
-      <c r="Y36" s="112"/>
-      <c r="Z36" s="113"/>
+      <c r="Q36" s="84"/>
+      <c r="R36" s="84"/>
+      <c r="S36" s="84"/>
+      <c r="T36" s="84"/>
+      <c r="U36" s="84"/>
+      <c r="V36" s="84"/>
+      <c r="W36" s="84"/>
+      <c r="X36" s="84"/>
+      <c r="Y36" s="84"/>
+      <c r="Z36" s="85"/>
       <c r="AA36" s="43"/>
       <c r="AB36" s="43"/>
       <c r="AC36" s="43"/>
       <c r="AD36" s="43"/>
       <c r="AE36" s="14"/>
-      <c r="AF36" s="108"/>
-      <c r="AG36" s="108"/>
-      <c r="AH36" s="108"/>
-      <c r="AI36" s="108"/>
-      <c r="AJ36" s="108"/>
-      <c r="AK36" s="108"/>
-      <c r="AL36" s="114"/>
+      <c r="AF36" s="80"/>
+      <c r="AG36" s="80"/>
+      <c r="AH36" s="80"/>
+      <c r="AI36" s="80"/>
+      <c r="AJ36" s="80"/>
+      <c r="AK36" s="80"/>
+      <c r="AL36" s="86"/>
       <c r="AM36" s="1"/>
       <c r="AN36" s="1"/>
       <c r="AO36" s="14"/>
     </row>
-    <row r="37" spans="1:41" ht="20" customHeight="1">
-      <c r="A37" s="107"/>
-      <c r="B37" s="108"/>
-      <c r="C37" s="108"/>
-      <c r="D37" s="108"/>
-      <c r="E37" s="108"/>
-      <c r="F37" s="108"/>
-      <c r="G37" s="108"/>
+    <row r="37" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A37" s="79"/>
+      <c r="B37" s="80"/>
+      <c r="C37" s="80"/>
+      <c r="D37" s="80"/>
+      <c r="E37" s="80"/>
+      <c r="F37" s="80"/>
+      <c r="G37" s="80"/>
       <c r="H37" s="22"/>
       <c r="I37" s="1"/>
       <c r="J37" s="1"/>
-      <c r="K37" s="109" t="s">
-        <v>96</v>
-      </c>
-      <c r="L37" s="110"/>
-      <c r="M37" s="110"/>
-      <c r="N37" s="110"/>
-      <c r="O37" s="110"/>
-      <c r="P37" s="111" t="s">
+      <c r="K37" s="81" t="s">
+        <v>95</v>
+      </c>
+      <c r="L37" s="82"/>
+      <c r="M37" s="82"/>
+      <c r="N37" s="82"/>
+      <c r="O37" s="82"/>
+      <c r="P37" s="83" t="s">
         <v>41</v>
       </c>
-      <c r="Q37" s="112"/>
-      <c r="R37" s="112"/>
-      <c r="S37" s="112"/>
-      <c r="T37" s="112"/>
-      <c r="U37" s="112"/>
-      <c r="V37" s="112"/>
-      <c r="W37" s="112"/>
-      <c r="X37" s="112"/>
-      <c r="Y37" s="112"/>
-      <c r="Z37" s="113"/>
+      <c r="Q37" s="84"/>
+      <c r="R37" s="84"/>
+      <c r="S37" s="84"/>
+      <c r="T37" s="84"/>
+      <c r="U37" s="84"/>
+      <c r="V37" s="84"/>
+      <c r="W37" s="84"/>
+      <c r="X37" s="84"/>
+      <c r="Y37" s="84"/>
+      <c r="Z37" s="85"/>
       <c r="AA37" s="43"/>
       <c r="AB37" s="43"/>
       <c r="AC37" s="43"/>
       <c r="AD37" s="43"/>
       <c r="AE37" s="14"/>
-      <c r="AF37" s="108"/>
-      <c r="AG37" s="108"/>
-      <c r="AH37" s="108"/>
-      <c r="AI37" s="108"/>
-      <c r="AJ37" s="108"/>
-      <c r="AK37" s="108"/>
-      <c r="AL37" s="114"/>
+      <c r="AF37" s="80"/>
+      <c r="AG37" s="80"/>
+      <c r="AH37" s="80"/>
+      <c r="AI37" s="80"/>
+      <c r="AJ37" s="80"/>
+      <c r="AK37" s="80"/>
+      <c r="AL37" s="86"/>
       <c r="AM37" s="1"/>
       <c r="AN37" s="1"/>
       <c r="AO37" s="14"/>
     </row>
-    <row r="38" spans="1:41" ht="20" customHeight="1">
-      <c r="A38" s="107"/>
-      <c r="B38" s="108"/>
-      <c r="C38" s="108"/>
-      <c r="D38" s="108"/>
-      <c r="E38" s="108"/>
-      <c r="F38" s="108"/>
-      <c r="G38" s="108"/>
+    <row r="38" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A38" s="79"/>
+      <c r="B38" s="80"/>
+      <c r="C38" s="80"/>
+      <c r="D38" s="80"/>
+      <c r="E38" s="80"/>
+      <c r="F38" s="80"/>
+      <c r="G38" s="80"/>
       <c r="H38" s="22"/>
       <c r="I38" s="1"/>
       <c r="J38" s="1"/>
-      <c r="K38" s="109" t="s">
-        <v>95</v>
-      </c>
-      <c r="L38" s="110"/>
-      <c r="M38" s="110"/>
-      <c r="N38" s="110"/>
-      <c r="O38" s="110"/>
-      <c r="P38" s="111" t="s">
+      <c r="K38" s="81" t="s">
+        <v>94</v>
+      </c>
+      <c r="L38" s="82"/>
+      <c r="M38" s="82"/>
+      <c r="N38" s="82"/>
+      <c r="O38" s="82"/>
+      <c r="P38" s="83" t="s">
         <v>41</v>
       </c>
-      <c r="Q38" s="112"/>
-      <c r="R38" s="112"/>
-      <c r="S38" s="112"/>
-      <c r="T38" s="112"/>
-      <c r="U38" s="112"/>
-      <c r="V38" s="112"/>
-      <c r="W38" s="112"/>
-      <c r="X38" s="112"/>
-      <c r="Y38" s="112"/>
-      <c r="Z38" s="113"/>
+      <c r="Q38" s="84"/>
+      <c r="R38" s="84"/>
+      <c r="S38" s="84"/>
+      <c r="T38" s="84"/>
+      <c r="U38" s="84"/>
+      <c r="V38" s="84"/>
+      <c r="W38" s="84"/>
+      <c r="X38" s="84"/>
+      <c r="Y38" s="84"/>
+      <c r="Z38" s="85"/>
       <c r="AA38" s="43"/>
       <c r="AB38" s="43"/>
       <c r="AC38" s="43"/>
       <c r="AD38" s="43"/>
       <c r="AE38" s="14"/>
-      <c r="AF38" s="108"/>
-      <c r="AG38" s="108"/>
-      <c r="AH38" s="108"/>
-      <c r="AI38" s="108"/>
-      <c r="AJ38" s="108"/>
-      <c r="AK38" s="108"/>
-      <c r="AL38" s="114"/>
+      <c r="AF38" s="80"/>
+      <c r="AG38" s="80"/>
+      <c r="AH38" s="80"/>
+      <c r="AI38" s="80"/>
+      <c r="AJ38" s="80"/>
+      <c r="AK38" s="80"/>
+      <c r="AL38" s="86"/>
       <c r="AM38" s="1"/>
       <c r="AN38" s="1"/>
       <c r="AO38" s="14"/>
     </row>
-    <row r="39" spans="1:41" ht="20" customHeight="1">
-      <c r="A39" s="107"/>
-      <c r="B39" s="108"/>
-      <c r="C39" s="108"/>
-      <c r="D39" s="108"/>
-      <c r="E39" s="108"/>
-      <c r="F39" s="108"/>
-      <c r="G39" s="108"/>
+    <row r="39" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A39" s="79"/>
+      <c r="B39" s="80"/>
+      <c r="C39" s="80"/>
+      <c r="D39" s="80"/>
+      <c r="E39" s="80"/>
+      <c r="F39" s="80"/>
+      <c r="G39" s="80"/>
       <c r="H39" s="22"/>
       <c r="I39" s="1"/>
       <c r="J39" s="1"/>
-      <c r="K39" s="109" t="s">
+      <c r="K39" s="81" t="s">
         <v>49</v>
       </c>
-      <c r="L39" s="110"/>
-      <c r="M39" s="110"/>
-      <c r="N39" s="110"/>
-      <c r="O39" s="110"/>
-      <c r="P39" s="111" t="s">
+      <c r="L39" s="82"/>
+      <c r="M39" s="82"/>
+      <c r="N39" s="82"/>
+      <c r="O39" s="82"/>
+      <c r="P39" s="83" t="s">
         <v>41</v>
       </c>
-      <c r="Q39" s="112"/>
-      <c r="R39" s="112"/>
-      <c r="S39" s="112"/>
-      <c r="T39" s="112"/>
-      <c r="U39" s="112"/>
-      <c r="V39" s="112"/>
-      <c r="W39" s="112"/>
-      <c r="X39" s="112"/>
-      <c r="Y39" s="112"/>
-      <c r="Z39" s="113"/>
+      <c r="Q39" s="84"/>
+      <c r="R39" s="84"/>
+      <c r="S39" s="84"/>
+      <c r="T39" s="84"/>
+      <c r="U39" s="84"/>
+      <c r="V39" s="84"/>
+      <c r="W39" s="84"/>
+      <c r="X39" s="84"/>
+      <c r="Y39" s="84"/>
+      <c r="Z39" s="85"/>
       <c r="AA39" s="43"/>
       <c r="AB39" s="43"/>
       <c r="AC39" s="43"/>
       <c r="AD39" s="43"/>
       <c r="AE39" s="14"/>
-      <c r="AF39" s="108"/>
-      <c r="AG39" s="108"/>
-      <c r="AH39" s="108"/>
-      <c r="AI39" s="108"/>
-      <c r="AJ39" s="108"/>
-      <c r="AK39" s="108"/>
-      <c r="AL39" s="114"/>
+      <c r="AF39" s="80"/>
+      <c r="AG39" s="80"/>
+      <c r="AH39" s="80"/>
+      <c r="AI39" s="80"/>
+      <c r="AJ39" s="80"/>
+      <c r="AK39" s="80"/>
+      <c r="AL39" s="86"/>
       <c r="AM39" s="1"/>
       <c r="AN39" s="1"/>
       <c r="AO39" s="14"/>
     </row>
-    <row r="40" spans="1:41" ht="20" customHeight="1">
-      <c r="A40" s="107"/>
-      <c r="B40" s="108"/>
-      <c r="C40" s="108"/>
-      <c r="D40" s="108"/>
-      <c r="E40" s="108"/>
-      <c r="F40" s="108"/>
-      <c r="G40" s="108"/>
+    <row r="40" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A40" s="79"/>
+      <c r="B40" s="80"/>
+      <c r="C40" s="80"/>
+      <c r="D40" s="80"/>
+      <c r="E40" s="80"/>
+      <c r="F40" s="80"/>
+      <c r="G40" s="80"/>
       <c r="H40" s="22"/>
       <c r="I40" s="1"/>
       <c r="J40" s="1"/>
-      <c r="K40" s="109" t="s">
-        <v>94</v>
-      </c>
-      <c r="L40" s="110"/>
-      <c r="M40" s="110"/>
-      <c r="N40" s="110"/>
-      <c r="O40" s="110"/>
-      <c r="P40" s="111" t="s">
+      <c r="K40" s="81" t="s">
+        <v>93</v>
+      </c>
+      <c r="L40" s="82"/>
+      <c r="M40" s="82"/>
+      <c r="N40" s="82"/>
+      <c r="O40" s="82"/>
+      <c r="P40" s="83" t="s">
         <v>41</v>
       </c>
-      <c r="Q40" s="112"/>
-      <c r="R40" s="112"/>
-      <c r="S40" s="112"/>
-      <c r="T40" s="112"/>
-      <c r="U40" s="112"/>
-      <c r="V40" s="112"/>
-      <c r="W40" s="112"/>
-      <c r="X40" s="112"/>
-      <c r="Y40" s="112"/>
-      <c r="Z40" s="113"/>
+      <c r="Q40" s="84"/>
+      <c r="R40" s="84"/>
+      <c r="S40" s="84"/>
+      <c r="T40" s="84"/>
+      <c r="U40" s="84"/>
+      <c r="V40" s="84"/>
+      <c r="W40" s="84"/>
+      <c r="X40" s="84"/>
+      <c r="Y40" s="84"/>
+      <c r="Z40" s="85"/>
       <c r="AA40" s="43"/>
       <c r="AB40" s="43"/>
       <c r="AC40" s="43"/>
       <c r="AD40" s="43"/>
       <c r="AE40" s="14"/>
-      <c r="AF40" s="108"/>
-      <c r="AG40" s="108"/>
-      <c r="AH40" s="108"/>
-      <c r="AI40" s="108"/>
-      <c r="AJ40" s="108"/>
-      <c r="AK40" s="108"/>
-      <c r="AL40" s="114"/>
+      <c r="AF40" s="80"/>
+      <c r="AG40" s="80"/>
+      <c r="AH40" s="80"/>
+      <c r="AI40" s="80"/>
+      <c r="AJ40" s="80"/>
+      <c r="AK40" s="80"/>
+      <c r="AL40" s="86"/>
       <c r="AM40" s="1"/>
       <c r="AN40" s="1"/>
       <c r="AO40" s="14"/>
     </row>
-    <row r="41" spans="1:41" ht="20" customHeight="1">
-      <c r="A41" s="107"/>
-      <c r="B41" s="108"/>
-      <c r="C41" s="108"/>
-      <c r="D41" s="108"/>
-      <c r="E41" s="108"/>
-      <c r="F41" s="108"/>
-      <c r="G41" s="108"/>
+    <row r="41" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A41" s="79"/>
+      <c r="B41" s="80"/>
+      <c r="C41" s="80"/>
+      <c r="D41" s="80"/>
+      <c r="E41" s="80"/>
+      <c r="F41" s="80"/>
+      <c r="G41" s="80"/>
       <c r="H41" s="22"/>
       <c r="I41" s="1"/>
       <c r="J41" s="1"/>
-      <c r="K41" s="109" t="s">
+      <c r="K41" s="81" t="s">
         <v>50</v>
       </c>
-      <c r="L41" s="110"/>
-      <c r="M41" s="110"/>
-      <c r="N41" s="110"/>
-      <c r="O41" s="110"/>
-      <c r="P41" s="111" t="s">
+      <c r="L41" s="82"/>
+      <c r="M41" s="82"/>
+      <c r="N41" s="82"/>
+      <c r="O41" s="82"/>
+      <c r="P41" s="83" t="s">
         <v>41</v>
       </c>
-      <c r="Q41" s="112"/>
-      <c r="R41" s="112"/>
-      <c r="S41" s="112"/>
-      <c r="T41" s="112"/>
-      <c r="U41" s="112"/>
-      <c r="V41" s="112"/>
-      <c r="W41" s="112"/>
-      <c r="X41" s="112"/>
-      <c r="Y41" s="112"/>
-      <c r="Z41" s="113"/>
+      <c r="Q41" s="84"/>
+      <c r="R41" s="84"/>
+      <c r="S41" s="84"/>
+      <c r="T41" s="84"/>
+      <c r="U41" s="84"/>
+      <c r="V41" s="84"/>
+      <c r="W41" s="84"/>
+      <c r="X41" s="84"/>
+      <c r="Y41" s="84"/>
+      <c r="Z41" s="85"/>
       <c r="AA41" s="43"/>
       <c r="AB41" s="43"/>
       <c r="AC41" s="43"/>
       <c r="AD41" s="43"/>
       <c r="AE41" s="14"/>
-      <c r="AF41" s="108"/>
-      <c r="AG41" s="108"/>
-      <c r="AH41" s="108"/>
-      <c r="AI41" s="108"/>
-      <c r="AJ41" s="108"/>
-      <c r="AK41" s="108"/>
-      <c r="AL41" s="114"/>
+      <c r="AF41" s="80"/>
+      <c r="AG41" s="80"/>
+      <c r="AH41" s="80"/>
+      <c r="AI41" s="80"/>
+      <c r="AJ41" s="80"/>
+      <c r="AK41" s="80"/>
+      <c r="AL41" s="86"/>
       <c r="AM41" s="1"/>
       <c r="AN41" s="1"/>
       <c r="AO41" s="14"/>
     </row>
-    <row r="42" spans="1:41" ht="20" customHeight="1">
-      <c r="A42" s="107"/>
-      <c r="B42" s="108"/>
-      <c r="C42" s="108"/>
-      <c r="D42" s="108"/>
-      <c r="E42" s="108"/>
-      <c r="F42" s="108"/>
-      <c r="G42" s="108"/>
+    <row r="42" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A42" s="79"/>
+      <c r="B42" s="80"/>
+      <c r="C42" s="80"/>
+      <c r="D42" s="80"/>
+      <c r="E42" s="80"/>
+      <c r="F42" s="80"/>
+      <c r="G42" s="80"/>
       <c r="H42" s="22"/>
       <c r="I42" s="1"/>
       <c r="J42" s="1"/>
@@ -10713,25 +10730,25 @@
       <c r="AC42" s="1"/>
       <c r="AD42" s="1"/>
       <c r="AE42" s="14"/>
-      <c r="AF42" s="108"/>
-      <c r="AG42" s="108"/>
-      <c r="AH42" s="108"/>
-      <c r="AI42" s="108"/>
-      <c r="AJ42" s="108"/>
-      <c r="AK42" s="108"/>
-      <c r="AL42" s="114"/>
+      <c r="AF42" s="80"/>
+      <c r="AG42" s="80"/>
+      <c r="AH42" s="80"/>
+      <c r="AI42" s="80"/>
+      <c r="AJ42" s="80"/>
+      <c r="AK42" s="80"/>
+      <c r="AL42" s="86"/>
       <c r="AM42" s="1"/>
       <c r="AN42" s="1"/>
       <c r="AO42" s="14"/>
     </row>
-    <row r="43" spans="1:41" ht="20" customHeight="1">
-      <c r="A43" s="107"/>
-      <c r="B43" s="108"/>
-      <c r="C43" s="108"/>
-      <c r="D43" s="108"/>
-      <c r="E43" s="108"/>
-      <c r="F43" s="108"/>
-      <c r="G43" s="108"/>
+    <row r="43" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A43" s="79"/>
+      <c r="B43" s="80"/>
+      <c r="C43" s="80"/>
+      <c r="D43" s="80"/>
+      <c r="E43" s="80"/>
+      <c r="F43" s="80"/>
+      <c r="G43" s="80"/>
       <c r="H43" s="22"/>
       <c r="I43" s="1"/>
       <c r="J43" s="1" t="s">
@@ -10758,30 +10775,30 @@
       <c r="AC43" s="1"/>
       <c r="AD43" s="1"/>
       <c r="AE43" s="14"/>
-      <c r="AF43" s="108"/>
-      <c r="AG43" s="108"/>
-      <c r="AH43" s="108"/>
-      <c r="AI43" s="108"/>
-      <c r="AJ43" s="108"/>
-      <c r="AK43" s="108"/>
-      <c r="AL43" s="114"/>
+      <c r="AF43" s="80"/>
+      <c r="AG43" s="80"/>
+      <c r="AH43" s="80"/>
+      <c r="AI43" s="80"/>
+      <c r="AJ43" s="80"/>
+      <c r="AK43" s="80"/>
+      <c r="AL43" s="86"/>
       <c r="AM43" s="1"/>
       <c r="AN43" s="1"/>
       <c r="AO43" s="14"/>
     </row>
-    <row r="44" spans="1:41" ht="20" customHeight="1">
-      <c r="A44" s="107"/>
-      <c r="B44" s="108"/>
-      <c r="C44" s="108"/>
-      <c r="D44" s="108"/>
-      <c r="E44" s="108"/>
-      <c r="F44" s="108"/>
-      <c r="G44" s="108"/>
+    <row r="44" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A44" s="79"/>
+      <c r="B44" s="80"/>
+      <c r="C44" s="80"/>
+      <c r="D44" s="80"/>
+      <c r="E44" s="80"/>
+      <c r="F44" s="80"/>
+      <c r="G44" s="80"/>
       <c r="H44" s="22"/>
       <c r="I44" s="1"/>
       <c r="J44" s="1"/>
       <c r="K44" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="L44" s="1"/>
       <c r="M44" s="1"/>
@@ -10803,25 +10820,25 @@
       <c r="AC44" s="1"/>
       <c r="AD44" s="1"/>
       <c r="AE44" s="14"/>
-      <c r="AF44" s="108"/>
-      <c r="AG44" s="108"/>
-      <c r="AH44" s="108"/>
-      <c r="AI44" s="108"/>
-      <c r="AJ44" s="108"/>
-      <c r="AK44" s="108"/>
-      <c r="AL44" s="114"/>
+      <c r="AF44" s="80"/>
+      <c r="AG44" s="80"/>
+      <c r="AH44" s="80"/>
+      <c r="AI44" s="80"/>
+      <c r="AJ44" s="80"/>
+      <c r="AK44" s="80"/>
+      <c r="AL44" s="86"/>
       <c r="AM44" s="1"/>
       <c r="AN44" s="1"/>
       <c r="AO44" s="14"/>
     </row>
-    <row r="45" spans="1:41" ht="20" customHeight="1">
-      <c r="A45" s="107"/>
-      <c r="B45" s="108"/>
-      <c r="C45" s="108"/>
-      <c r="D45" s="108"/>
-      <c r="E45" s="108"/>
-      <c r="F45" s="108"/>
-      <c r="G45" s="108"/>
+    <row r="45" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A45" s="79"/>
+      <c r="B45" s="80"/>
+      <c r="C45" s="80"/>
+      <c r="D45" s="80"/>
+      <c r="E45" s="80"/>
+      <c r="F45" s="80"/>
+      <c r="G45" s="80"/>
       <c r="H45" s="22"/>
       <c r="I45" s="1"/>
       <c r="J45" s="1"/>
@@ -10846,25 +10863,25 @@
       <c r="AC45" s="1"/>
       <c r="AD45" s="1"/>
       <c r="AE45" s="14"/>
-      <c r="AF45" s="108"/>
-      <c r="AG45" s="108"/>
-      <c r="AH45" s="108"/>
-      <c r="AI45" s="108"/>
-      <c r="AJ45" s="108"/>
-      <c r="AK45" s="108"/>
-      <c r="AL45" s="114"/>
+      <c r="AF45" s="80"/>
+      <c r="AG45" s="80"/>
+      <c r="AH45" s="80"/>
+      <c r="AI45" s="80"/>
+      <c r="AJ45" s="80"/>
+      <c r="AK45" s="80"/>
+      <c r="AL45" s="86"/>
       <c r="AM45" s="1"/>
       <c r="AN45" s="1"/>
       <c r="AO45" s="14"/>
     </row>
-    <row r="46" spans="1:41" ht="20" customHeight="1">
-      <c r="A46" s="107"/>
-      <c r="B46" s="108"/>
-      <c r="C46" s="108"/>
-      <c r="D46" s="108"/>
-      <c r="E46" s="108"/>
-      <c r="F46" s="108"/>
-      <c r="G46" s="108"/>
+    <row r="46" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A46" s="79"/>
+      <c r="B46" s="80"/>
+      <c r="C46" s="80"/>
+      <c r="D46" s="80"/>
+      <c r="E46" s="80"/>
+      <c r="F46" s="80"/>
+      <c r="G46" s="80"/>
       <c r="H46" s="22"/>
       <c r="I46" s="1"/>
       <c r="J46" s="1"/>
@@ -10889,25 +10906,25 @@
       <c r="AC46" s="1"/>
       <c r="AD46" s="1"/>
       <c r="AE46" s="14"/>
-      <c r="AF46" s="108"/>
-      <c r="AG46" s="108"/>
-      <c r="AH46" s="108"/>
-      <c r="AI46" s="108"/>
-      <c r="AJ46" s="108"/>
-      <c r="AK46" s="108"/>
-      <c r="AL46" s="114"/>
+      <c r="AF46" s="80"/>
+      <c r="AG46" s="80"/>
+      <c r="AH46" s="80"/>
+      <c r="AI46" s="80"/>
+      <c r="AJ46" s="80"/>
+      <c r="AK46" s="80"/>
+      <c r="AL46" s="86"/>
       <c r="AM46" s="1"/>
       <c r="AN46" s="1"/>
       <c r="AO46" s="14"/>
     </row>
-    <row r="47" spans="1:41" ht="20" customHeight="1">
-      <c r="A47" s="107"/>
-      <c r="B47" s="108"/>
-      <c r="C47" s="108"/>
-      <c r="D47" s="108"/>
-      <c r="E47" s="108"/>
-      <c r="F47" s="108"/>
-      <c r="G47" s="108"/>
+    <row r="47" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A47" s="79"/>
+      <c r="B47" s="80"/>
+      <c r="C47" s="80"/>
+      <c r="D47" s="80"/>
+      <c r="E47" s="80"/>
+      <c r="F47" s="80"/>
+      <c r="G47" s="80"/>
       <c r="H47" s="22"/>
       <c r="I47" s="1"/>
       <c r="J47" s="1"/>
@@ -10932,25 +10949,25 @@
       <c r="AC47" s="1"/>
       <c r="AD47" s="1"/>
       <c r="AE47" s="14"/>
-      <c r="AF47" s="108"/>
-      <c r="AG47" s="108"/>
-      <c r="AH47" s="108"/>
-      <c r="AI47" s="108"/>
-      <c r="AJ47" s="108"/>
-      <c r="AK47" s="108"/>
-      <c r="AL47" s="114"/>
+      <c r="AF47" s="80"/>
+      <c r="AG47" s="80"/>
+      <c r="AH47" s="80"/>
+      <c r="AI47" s="80"/>
+      <c r="AJ47" s="80"/>
+      <c r="AK47" s="80"/>
+      <c r="AL47" s="86"/>
       <c r="AM47" s="1"/>
       <c r="AN47" s="1"/>
       <c r="AO47" s="14"/>
     </row>
-    <row r="48" spans="1:41" ht="20" customHeight="1">
-      <c r="A48" s="107"/>
-      <c r="B48" s="108"/>
-      <c r="C48" s="108"/>
-      <c r="D48" s="108"/>
-      <c r="E48" s="108"/>
-      <c r="F48" s="108"/>
-      <c r="G48" s="108"/>
+    <row r="48" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A48" s="79"/>
+      <c r="B48" s="80"/>
+      <c r="C48" s="80"/>
+      <c r="D48" s="80"/>
+      <c r="E48" s="80"/>
+      <c r="F48" s="80"/>
+      <c r="G48" s="80"/>
       <c r="H48" s="22"/>
       <c r="I48" s="1"/>
       <c r="J48" s="1"/>
@@ -10975,25 +10992,25 @@
       <c r="AC48" s="1"/>
       <c r="AD48" s="1"/>
       <c r="AE48" s="14"/>
-      <c r="AF48" s="108"/>
-      <c r="AG48" s="108"/>
-      <c r="AH48" s="108"/>
-      <c r="AI48" s="108"/>
-      <c r="AJ48" s="108"/>
-      <c r="AK48" s="108"/>
-      <c r="AL48" s="114"/>
+      <c r="AF48" s="80"/>
+      <c r="AG48" s="80"/>
+      <c r="AH48" s="80"/>
+      <c r="AI48" s="80"/>
+      <c r="AJ48" s="80"/>
+      <c r="AK48" s="80"/>
+      <c r="AL48" s="86"/>
       <c r="AM48" s="1"/>
       <c r="AN48" s="1"/>
       <c r="AO48" s="14"/>
     </row>
-    <row r="49" spans="1:41" ht="20" customHeight="1">
-      <c r="A49" s="84"/>
-      <c r="B49" s="85"/>
-      <c r="C49" s="85"/>
-      <c r="D49" s="85"/>
-      <c r="E49" s="85"/>
-      <c r="F49" s="85"/>
-      <c r="G49" s="85"/>
+    <row r="49" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A49" s="89"/>
+      <c r="B49" s="90"/>
+      <c r="C49" s="90"/>
+      <c r="D49" s="90"/>
+      <c r="E49" s="90"/>
+      <c r="F49" s="90"/>
+      <c r="G49" s="90"/>
       <c r="H49" s="23"/>
       <c r="I49" s="15"/>
       <c r="J49" s="15"/>
@@ -11018,13 +11035,13 @@
       <c r="AC49" s="15"/>
       <c r="AD49" s="15"/>
       <c r="AE49" s="16"/>
-      <c r="AF49" s="85"/>
-      <c r="AG49" s="85"/>
-      <c r="AH49" s="85"/>
-      <c r="AI49" s="85"/>
-      <c r="AJ49" s="85"/>
-      <c r="AK49" s="85"/>
-      <c r="AL49" s="86"/>
+      <c r="AF49" s="90"/>
+      <c r="AG49" s="90"/>
+      <c r="AH49" s="90"/>
+      <c r="AI49" s="90"/>
+      <c r="AJ49" s="90"/>
+      <c r="AK49" s="90"/>
+      <c r="AL49" s="91"/>
       <c r="AM49" s="15"/>
       <c r="AN49" s="15"/>
       <c r="AO49" s="16"/>
@@ -11183,6 +11200,6 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="46" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <pageSetup paperSize="9" scale="46" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>